--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA31194D-6FE2-4A12-A8B3-8D987136FAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4F0F0E-823F-C24F-8459-15F58E202D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="38700" windowHeight="15315" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
+    <workbookView xWindow="33600" yWindow="2500" windowWidth="23880" windowHeight="16180" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -71,12 +80,60 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,9 +148,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,18 +473,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +516,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2">
@@ -469,9 +534,12 @@
         <f>J2</f>
         <v>180000</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <f>A2+1</f>
         <v>1</v>
       </c>
@@ -492,9 +560,13 @@
         <f>K2+J3</f>
         <v>359460</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="L3" s="3">
+        <f>L2+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <f t="shared" ref="A4:A61" si="1">A3+1</f>
         <v>2</v>
       </c>
@@ -518,9 +590,13 @@
         <f t="shared" ref="K4:K36" si="2">K3+J4</f>
         <v>540533</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="L4" s="4">
+        <f t="shared" ref="L4:L32" si="3">L3+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -544,9 +620,13 @@
         <f t="shared" si="2"/>
         <v>726333</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="L5" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -573,9 +653,13 @@
         <f t="shared" si="2"/>
         <v>916053</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="L6" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -605,9 +689,13 @@
         <f t="shared" si="2"/>
         <v>1092740</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="L7" s="7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -637,9 +725,13 @@
         <f t="shared" si="2"/>
         <v>1274519</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="L8" s="8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -669,9 +761,13 @@
         <f t="shared" si="2"/>
         <v>1461516</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="L9" s="3">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -701,9 +797,13 @@
         <f t="shared" si="2"/>
         <v>1653863</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="L10" s="9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -733,9 +833,13 @@
         <f t="shared" si="2"/>
         <v>1851692</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="L11" s="5">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -765,9 +869,13 @@
         <f t="shared" si="2"/>
         <v>2055141</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="L12" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -797,9 +905,13 @@
         <f t="shared" si="2"/>
         <v>2264351</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="L13" s="7">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -829,9 +941,13 @@
         <f t="shared" si="2"/>
         <v>2479465</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="L14" s="8">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -861,9 +977,13 @@
         <f t="shared" si="2"/>
         <v>2700631</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="L15" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -893,9 +1013,13 @@
         <f t="shared" si="2"/>
         <v>2928000</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="L16" s="9">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -925,9 +1049,13 @@
         <f t="shared" si="2"/>
         <v>3161728</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="L17" s="5">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -957,9 +1085,13 @@
         <f t="shared" si="2"/>
         <v>3401973</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="L18" s="6">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -989,9 +1121,13 @@
         <f t="shared" si="2"/>
         <v>3648898</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="L19" s="7">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1024,9 +1160,13 @@
         <f t="shared" si="2"/>
         <v>3874597</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="L20" s="8">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -1059,9 +1199,13 @@
         <f t="shared" si="2"/>
         <v>4107314</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="L21" s="3">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -1094,9 +1238,13 @@
         <f t="shared" si="2"/>
         <v>4347225</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="L22" s="9">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -1129,9 +1277,13 @@
         <f t="shared" si="2"/>
         <v>4594510</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="L23" s="5">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
@@ -1164,9 +1316,13 @@
         <f t="shared" si="2"/>
         <v>4849353</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="L24" s="6">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
@@ -1199,9 +1355,13 @@
         <f t="shared" si="2"/>
         <v>5111943</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="L25" s="7">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -1234,9 +1394,13 @@
         <f t="shared" si="2"/>
         <v>5382474</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="L26" s="8">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -1269,9 +1433,13 @@
         <f t="shared" si="2"/>
         <v>5661144</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="L27" s="3">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -1304,9 +1472,13 @@
         <f t="shared" si="2"/>
         <v>5948157</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="L28" s="9">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
@@ -1339,9 +1511,13 @@
         <f t="shared" si="2"/>
         <v>6243721</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="L29" s="5">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -1374,9 +1550,13 @@
         <f t="shared" si="2"/>
         <v>6548050</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="L30" s="6">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -1409,9 +1589,13 @@
         <f t="shared" si="2"/>
         <v>6861363</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="L31" s="7">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -1444,8 +1628,12 @@
         <f t="shared" si="2"/>
         <v>7201885</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1480,7 +1668,7 @@
         <v>7551846</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1515,7 +1703,7 @@
         <v>7911482</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1550,7 +1738,7 @@
         <v>8281035</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1585,7 +1773,7 @@
         <v>8660753</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1612,7 +1800,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1639,7 +1827,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1666,7 +1854,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1693,7 +1881,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1720,7 +1908,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1747,7 +1935,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1774,7 +1962,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1801,7 +1989,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1828,7 +2016,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1855,7 +2043,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -1882,7 +2070,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -1909,7 +2097,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -1936,7 +2124,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -1963,7 +2151,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1990,7 +2178,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2017,7 +2205,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2044,7 +2232,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2071,7 +2259,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -2098,7 +2286,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2125,7 +2313,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2152,7 +2340,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2179,7 +2367,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2206,7 +2394,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2233,7 +2421,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2273,9 +2461,9 @@
       <selection sqref="A1:C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2286,7 +2474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2297,7 +2485,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -2309,7 +2497,7 @@
         <v>184500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A61" si="0">A3+1</f>
         <v>2</v>
@@ -2321,7 +2509,7 @@
         <v>189113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2333,7 +2521,7 @@
         <v>193840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2345,7 +2533,7 @@
         <v>198686</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2357,7 +2545,7 @@
         <v>203653</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2369,7 +2557,7 @@
         <v>208745</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2381,7 +2569,7 @@
         <v>213963</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2393,7 +2581,7 @@
         <v>219313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2405,7 +2593,7 @@
         <v>224795</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2417,7 +2605,7 @@
         <v>230415</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2429,7 +2617,7 @@
         <v>236176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2441,7 +2629,7 @@
         <v>242080</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2453,7 +2641,7 @@
         <v>248132</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2465,7 +2653,7 @@
         <v>254335</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2477,7 +2665,7 @@
         <v>260694</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2489,7 +2677,7 @@
         <v>267211</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2501,7 +2689,7 @@
         <v>273891</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2513,7 +2701,7 @@
         <v>280739</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2525,7 +2713,7 @@
         <v>287757</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2537,7 +2725,7 @@
         <v>294951</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2549,7 +2737,7 @@
         <v>302325</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2561,7 +2749,7 @@
         <v>309883</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2573,7 +2761,7 @@
         <v>317630</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2585,7 +2773,7 @@
         <v>325571</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2597,7 +2785,7 @@
         <v>333710</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2609,7 +2797,7 @@
         <v>342053</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2621,7 +2809,7 @@
         <v>350604</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2633,7 +2821,7 @@
         <v>359369</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2645,7 +2833,7 @@
         <v>368353</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2657,7 +2845,7 @@
         <v>377562</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2669,7 +2857,7 @@
         <v>387001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2681,7 +2869,7 @@
         <v>396676</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2693,7 +2881,7 @@
         <v>406593</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2705,7 +2893,7 @@
         <v>416758</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2717,7 +2905,7 @@
         <v>427177</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2729,7 +2917,7 @@
         <v>437856</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2741,7 +2929,7 @@
         <v>448803</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2753,7 +2941,7 @@
         <v>460023</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2765,7 +2953,7 @@
         <v>471523</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2777,7 +2965,7 @@
         <v>483311</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2789,7 +2977,7 @@
         <v>495394</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2801,7 +2989,7 @@
         <v>507779</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2813,7 +3001,7 @@
         <v>520474</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2825,7 +3013,7 @@
         <v>533485</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2837,7 +3025,7 @@
         <v>546823</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2849,7 +3037,7 @@
         <v>560493</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2861,7 +3049,7 @@
         <v>574505</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2873,7 +3061,7 @@
         <v>588868</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2885,7 +3073,7 @@
         <v>603590</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2897,7 +3085,7 @@
         <v>618680</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2909,7 +3097,7 @@
         <v>634147</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2921,7 +3109,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2933,7 +3121,7 @@
         <v>666250</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2945,7 +3133,7 @@
         <v>682906</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2957,7 +3145,7 @@
         <v>699979</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2969,7 +3157,7 @@
         <v>717479</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2981,7 +3169,7 @@
         <v>735416</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2993,7 +3181,7 @@
         <v>753801</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4F0F0E-823F-C24F-8459-15F58E202D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E1C883-B766-4344-AD21-CB3CC6275EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="2500" windowWidth="23880" windowHeight="16180" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
+    <workbookView xWindow="1520" yWindow="580" windowWidth="9600" windowHeight="10220" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>step</t>
   </si>
@@ -65,6 +56,9 @@
   </si>
   <si>
     <t>Net Cash Flow</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
 </sst>
 </file>
@@ -473,18 +467,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="95" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -538,7 +534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>1</v>
@@ -553,7 +549,7 @@
         <v>5040</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J36" si="0">C3-D3-E3-F3-G3-H3</f>
+        <f t="shared" ref="J3:J61" si="0">C3-D3-E3-F3-G3-H3</f>
         <v>179460</v>
       </c>
       <c r="K3">
@@ -565,7 +561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A61" si="1">A3+1</f>
         <v>2</v>
@@ -587,7 +583,7 @@
         <v>181073</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K36" si="2">K3+J4</f>
+        <f t="shared" ref="K4:K61" si="2">K3+J4</f>
         <v>540533</v>
       </c>
       <c r="L4" s="4">
@@ -595,7 +591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -625,7 +621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -658,7 +654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -694,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -730,7 +726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -766,7 +762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -802,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -838,7 +834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -874,7 +870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -910,7 +906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -946,7 +942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -982,7 +978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1018,7 +1014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1054,7 +1050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1090,7 +1086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1126,7 +1122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1165,7 +1161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1204,7 +1200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1243,7 +1239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1282,7 +1278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1321,7 +1317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1360,7 +1356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1399,7 +1395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1438,7 +1434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1477,7 +1473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1516,7 +1512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1555,7 +1551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1594,7 +1590,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1621,7 +1617,7 @@
         <v>28074</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f>C32-D32-E32-F32-G32-H32</f>
         <v>340522</v>
       </c>
       <c r="K32">
@@ -1633,7 +1629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1660,15 +1656,15 @@
         <v>28074</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
-        <v>349961</v>
+        <f>C33-D33-E33-F33-G33-H33+490013</f>
+        <v>839974</v>
       </c>
       <c r="K33">
         <f t="shared" si="2"/>
-        <v>7551846</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8041859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1700,10 +1696,10 @@
       </c>
       <c r="K34">
         <f t="shared" si="2"/>
-        <v>7911482</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8401495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1735,10 +1731,10 @@
       </c>
       <c r="K35">
         <f t="shared" si="2"/>
-        <v>8281035</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8771048</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1770,10 +1766,10 @@
       </c>
       <c r="K36">
         <f t="shared" si="2"/>
-        <v>8660753</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9150766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1799,8 +1795,16 @@
       <c r="H37">
         <v>28074</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>390137</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>9540903</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1809,7 +1813,7 @@
         <v>47</v>
       </c>
       <c r="C38">
-        <v>437856</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>5040</v>
@@ -1826,8 +1830,19 @@
       <c r="H38">
         <v>28074</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>300000</v>
+      </c>
+      <c r="J38">
+        <f>C38-D38-E38-F38-G38-H38-I38</f>
+        <v>-337040</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>9203863</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1836,7 +1851,7 @@
         <v>48</v>
       </c>
       <c r="C39">
-        <v>448803</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>5040</v>
@@ -1853,8 +1868,19 @@
       <c r="H39">
         <v>28074</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>300000</v>
+      </c>
+      <c r="J39">
+        <f>C39-D39-E39-F39-G39-H39-I39</f>
+        <v>-337040</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>8866823</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1863,7 +1889,7 @@
         <v>49</v>
       </c>
       <c r="C40">
-        <v>460023</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>5040</v>
@@ -1880,8 +1906,16 @@
       <c r="H40">
         <v>28074</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>-37040</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>8829783</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1890,7 +1924,7 @@
         <v>50</v>
       </c>
       <c r="C41">
-        <v>471523</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>5040</v>
@@ -1907,8 +1941,16 @@
       <c r="H41">
         <v>28074</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>-37040</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>8792743</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1917,7 +1959,7 @@
         <v>51</v>
       </c>
       <c r="C42">
-        <v>483311</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>5040</v>
@@ -1931,11 +1973,20 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
+        <f>H41</f>
         <v>28074</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>-37040</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>8755703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1944,7 +1995,7 @@
         <v>52</v>
       </c>
       <c r="C43">
-        <v>495394</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>5040</v>
@@ -1958,11 +2009,20 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43">
-        <v>28074</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H43" s="1">
+        <f>28074+471523*10%</f>
+        <v>75226.3</v>
+      </c>
+      <c r="J43" s="1">
+        <f>C43-D43-E43-F43-G43-H43-I43</f>
+        <v>-84192.3</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>8671510.6999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1985,11 +2045,24 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44">
-        <v>28074</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H44" s="1">
+        <f t="shared" ref="H44:H61" si="4">H43</f>
+        <v>75226.3</v>
+      </c>
+      <c r="I44">
+        <f>K43*0.2</f>
+        <v>1734302.14</v>
+      </c>
+      <c r="J44" s="1">
+        <f>C44-D44-E44-F44-G44-H44-I44</f>
+        <v>-1310715.44</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>7360795.2599999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2012,11 +2085,24 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45">
-        <v>28074</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H45" s="1">
+        <f t="shared" si="4"/>
+        <v>75226.3</v>
+      </c>
+      <c r="I45">
+        <f>2000000</f>
+        <v>2000000</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>436281.7</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>7797076.96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2039,11 +2125,24 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46">
-        <v>28074</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H46" s="1">
+        <f t="shared" si="4"/>
+        <v>75226.3</v>
+      </c>
+      <c r="I46">
+        <f>K45/2</f>
+        <v>3898538.48</v>
+      </c>
+      <c r="J46" s="1">
+        <f>C46-D46-E46-F46-G46-H46-I46</f>
+        <v>-3449245.78</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>4347831.18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2066,11 +2165,23 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47">
-        <v>28074</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H47" s="1">
+        <f t="shared" si="4"/>
+        <v>75226.3</v>
+      </c>
+      <c r="I47">
+        <v>1000000</v>
+      </c>
+      <c r="J47" s="1">
+        <f>C47-D47-E47-F47-G47-H47-I47</f>
+        <v>-537369.30000000005</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>3810461.88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2093,11 +2204,27 @@
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48">
-        <v>28074</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H48" s="1">
+        <f t="shared" si="4"/>
+        <v>75226.3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>476300.7</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>4286762.58</v>
+      </c>
+      <c r="M48">
+        <f>K48+500000</f>
+        <v>4786762.58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2120,11 +2247,20 @@
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49">
-        <v>28074</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H49" s="1">
+        <f t="shared" si="4"/>
+        <v>75226.3</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>490312.7</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>4777075.28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2147,11 +2283,20 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50">
-        <v>28074</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H50" s="1">
+        <f t="shared" si="4"/>
+        <v>75226.3</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>504675.7</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>5281750.9800000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2174,11 +2319,23 @@
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51">
-        <v>28074</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H51" s="1">
+        <f t="shared" si="4"/>
+        <v>75226.3</v>
+      </c>
+      <c r="I51">
+        <v>1000000</v>
+      </c>
+      <c r="J51" s="1">
+        <f>C51-D51-E51-F51-G51-H51-I51</f>
+        <v>-480602.3</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>4801148.6800000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2201,11 +2358,23 @@
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52">
-        <v>28074</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H52" s="1">
+        <f t="shared" si="4"/>
+        <v>75226.3</v>
+      </c>
+      <c r="I52">
+        <v>1800000</v>
+      </c>
+      <c r="J52" s="1">
+        <f>C52-D52-E52-F52-G52-H52-I52</f>
+        <v>-1265512.3</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>3535636.3800000008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2214,7 +2383,7 @@
         <v>62</v>
       </c>
       <c r="C53">
-        <v>634147</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>5040</v>
@@ -2228,11 +2397,20 @@
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>28074</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H53" s="1">
+        <f t="shared" si="4"/>
+        <v>75226.3</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>-84192.3</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>3451444.080000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2241,7 +2419,7 @@
         <v>63</v>
       </c>
       <c r="C54">
-        <v>650000</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>5040</v>
@@ -2255,11 +2433,20 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54">
-        <v>28074</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H54" s="1">
+        <f t="shared" si="4"/>
+        <v>75226.3</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>-84192.3</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>3367251.7800000012</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -2268,7 +2455,7 @@
         <v>64</v>
       </c>
       <c r="C55">
-        <v>666250</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>5040</v>
@@ -2282,11 +2469,23 @@
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55">
-        <v>28074</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H55" s="1">
+        <f t="shared" si="4"/>
+        <v>75226.3</v>
+      </c>
+      <c r="I55">
+        <v>1800000</v>
+      </c>
+      <c r="J55" s="1">
+        <f>C55-D55-E55-F55-G55-H55-I55</f>
+        <v>-1884192.3</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>1483059.4800000011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2295,7 +2494,7 @@
         <v>65</v>
       </c>
       <c r="C56">
-        <v>682906</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>5040</v>
@@ -2309,11 +2508,24 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56">
-        <v>28074</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H56" s="1">
+        <f t="shared" si="4"/>
+        <v>75226.3</v>
+      </c>
+      <c r="I56">
+        <f>K55*0.2</f>
+        <v>296611.89600000024</v>
+      </c>
+      <c r="J56" s="1">
+        <f>C56-D56-E56-F56-G56-H56-I56</f>
+        <v>-380804.19600000023</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>1102255.2840000009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2322,7 +2534,7 @@
         <v>66</v>
       </c>
       <c r="C57">
-        <v>699979</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>5040</v>
@@ -2336,11 +2548,24 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57">
-        <v>28074</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H57" s="1">
+        <f t="shared" si="4"/>
+        <v>75226.3</v>
+      </c>
+      <c r="I57">
+        <f>699979*0.05</f>
+        <v>34998.950000000004</v>
+      </c>
+      <c r="J57" s="1">
+        <f>C57-D57-E57-F57-G57-H57-I57</f>
+        <v>-119191.25</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>983064.03400000092</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2349,7 +2574,7 @@
         <v>67</v>
       </c>
       <c r="C58">
-        <v>717479</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>5040</v>
@@ -2363,11 +2588,23 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58">
-        <v>28074</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H58" s="1">
+        <f t="shared" si="4"/>
+        <v>75226.3</v>
+      </c>
+      <c r="I58">
+        <v>1800000</v>
+      </c>
+      <c r="J58" s="1">
+        <f>C58-D58-E58-F58-G58-H58-I58</f>
+        <v>-1884192.3</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>-901128.26599999913</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2376,7 +2613,7 @@
         <v>68</v>
       </c>
       <c r="C59">
-        <v>735416</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>5040</v>
@@ -2390,11 +2627,23 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59">
-        <v>28074</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H59" s="1">
+        <f t="shared" si="4"/>
+        <v>75226.3</v>
+      </c>
+      <c r="I59">
+        <v>300000</v>
+      </c>
+      <c r="J59" s="1">
+        <f>C59-D59-E59-F59-G59-H59-I59</f>
+        <v>-384192.3</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>-1285320.5659999992</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2403,7 +2652,7 @@
         <v>69</v>
       </c>
       <c r="C60">
-        <v>753801</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>5040</v>
@@ -2417,11 +2666,20 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60">
-        <v>28074</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H60" s="1">
+        <f t="shared" si="4"/>
+        <v>75226.3</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>-84192.3</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>-1369512.8659999992</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2430,7 +2688,7 @@
         <v>70</v>
       </c>
       <c r="C61">
-        <v>772646</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>5040</v>
@@ -2444,8 +2702,17 @@
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61">
-        <v>28074</v>
+      <c r="H61" s="1">
+        <f t="shared" si="4"/>
+        <v>75226.3</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>-84192.3</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>-1453705.1659999993</v>
       </c>
     </row>
   </sheetData>
@@ -2458,12 +2725,12 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C61"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2474,7 +2741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2485,7 +2752,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -2497,7 +2764,7 @@
         <v>184500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A61" si="0">A3+1</f>
         <v>2</v>
@@ -2509,7 +2776,7 @@
         <v>189113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2521,7 +2788,7 @@
         <v>193840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2533,7 +2800,7 @@
         <v>198686</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2545,7 +2812,7 @@
         <v>203653</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2557,7 +2824,7 @@
         <v>208745</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2569,7 +2836,7 @@
         <v>213963</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2581,7 +2848,7 @@
         <v>219313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2593,7 +2860,7 @@
         <v>224795</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2605,7 +2872,7 @@
         <v>230415</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2617,7 +2884,7 @@
         <v>236176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2629,7 +2896,7 @@
         <v>242080</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2641,7 +2908,7 @@
         <v>248132</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2653,7 +2920,7 @@
         <v>254335</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2665,7 +2932,7 @@
         <v>260694</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2677,7 +2944,7 @@
         <v>267211</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2689,7 +2956,7 @@
         <v>273891</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2701,7 +2968,7 @@
         <v>280739</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2713,7 +2980,7 @@
         <v>287757</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2725,7 +2992,7 @@
         <v>294951</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2737,7 +3004,7 @@
         <v>302325</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2749,7 +3016,7 @@
         <v>309883</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2761,7 +3028,7 @@
         <v>317630</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2773,7 +3040,7 @@
         <v>325571</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2785,7 +3052,7 @@
         <v>333710</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2797,7 +3064,7 @@
         <v>342053</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2809,7 +3076,7 @@
         <v>350604</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2821,7 +3088,7 @@
         <v>359369</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2833,7 +3100,7 @@
         <v>368353</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2845,7 +3112,7 @@
         <v>377562</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2857,7 +3124,7 @@
         <v>387001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2869,7 +3136,7 @@
         <v>396676</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2881,7 +3148,7 @@
         <v>406593</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2893,7 +3160,7 @@
         <v>416758</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2905,7 +3172,7 @@
         <v>427177</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2917,7 +3184,7 @@
         <v>437856</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2929,7 +3196,7 @@
         <v>448803</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2941,7 +3208,7 @@
         <v>460023</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2953,7 +3220,7 @@
         <v>471523</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2965,7 +3232,7 @@
         <v>483311</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2977,7 +3244,7 @@
         <v>495394</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2989,7 +3256,7 @@
         <v>507779</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3001,7 +3268,7 @@
         <v>520474</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3013,7 +3280,7 @@
         <v>533485</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3025,7 +3292,7 @@
         <v>546823</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3037,7 +3304,7 @@
         <v>560493</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3049,7 +3316,7 @@
         <v>574505</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3061,7 +3328,7 @@
         <v>588868</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3073,7 +3340,7 @@
         <v>603590</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3085,7 +3352,7 @@
         <v>618680</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3097,7 +3364,7 @@
         <v>634147</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3109,7 +3376,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3121,7 +3388,7 @@
         <v>666250</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3133,7 +3400,7 @@
         <v>682906</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3145,7 +3412,7 @@
         <v>699979</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3157,7 +3424,7 @@
         <v>717479</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3169,7 +3436,7 @@
         <v>735416</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3181,7 +3448,7 @@
         <v>753801</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E1C883-B766-4344-AD21-CB3CC6275EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45A9A4D-709A-E34D-90B8-5EF9A993610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="580" windowWidth="9600" windowHeight="10220" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
+    <workbookView xWindow="33600" yWindow="2500" windowWidth="23880" windowHeight="16180" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>step</t>
   </si>
@@ -60,11 +69,26 @@
   <si>
     <t>die</t>
   </si>
+  <si>
+    <t>ue</t>
+  </si>
+  <si>
+    <t>nk</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>sl</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -153,6 +177,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,18 +497,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="95" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -534,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>1</v>
@@ -561,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A61" si="1">A3+1</f>
         <v>2</v>
@@ -587,11 +615,11 @@
         <v>540533</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" ref="L4:L32" si="3">L3+1</f>
+        <f t="shared" ref="L4:L36" si="3">L3+1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -621,7 +649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -654,7 +682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -690,7 +718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -726,7 +754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -762,7 +790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -798,7 +826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -834,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -870,7 +898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -906,7 +934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -942,7 +970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -978,7 +1006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1014,7 +1042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1050,7 +1078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1086,7 +1114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1122,7 +1150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1161,7 +1189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1200,7 +1228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1239,7 +1267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1278,7 +1306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1317,7 +1345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1356,7 +1384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1395,7 +1423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1434,7 +1462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1473,7 +1501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1512,7 +1540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1551,7 +1579,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1590,7 +1618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1629,8 +1657,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
@@ -1663,9 +1691,13 @@
         <f t="shared" si="2"/>
         <v>8041859</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34">
+      <c r="L33" s="9">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -1698,9 +1730,13 @@
         <f t="shared" si="2"/>
         <v>8401495</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35">
+      <c r="L34" s="5">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
@@ -1733,9 +1769,13 @@
         <f t="shared" si="2"/>
         <v>8771048</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36">
+      <c r="L35" s="6">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
@@ -1768,8 +1808,12 @@
         <f t="shared" si="2"/>
         <v>9150766</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L36" s="7">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1778,7 +1822,7 @@
         <v>46</v>
       </c>
       <c r="C37">
-        <v>427177</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>5040</v>
@@ -1797,14 +1841,17 @@
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
-        <v>390137</v>
+        <v>-37040</v>
       </c>
       <c r="K37">
         <f t="shared" si="2"/>
-        <v>9540903</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+        <v>9113726</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1839,10 +1886,10 @@
       </c>
       <c r="K38">
         <f t="shared" si="2"/>
-        <v>9203863</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+        <v>8776686</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1877,10 +1924,10 @@
       </c>
       <c r="K39">
         <f t="shared" si="2"/>
-        <v>8866823</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+        <v>8439646</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1912,10 +1959,10 @@
       </c>
       <c r="K40">
         <f t="shared" si="2"/>
-        <v>8829783</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+        <v>8402606</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1938,19 +1985,23 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>28074</v>
+      <c r="H41" s="1">
+        <f t="shared" ref="H41:H42" si="4">28074+ROUNDUP(471523*10%, 0)</f>
+        <v>75227</v>
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
-        <v>-37040</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="2"/>
-        <v>8792743</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+        <v>-84193</v>
+      </c>
+      <c r="K41" s="1">
+        <f>ROUNDDOWN(K40+J41, 0)</f>
+        <v>8318413</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1974,19 +2025,22 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <f>H41</f>
-        <v>28074</v>
+        <f t="shared" si="4"/>
+        <v>75227</v>
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
-        <v>-37040</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="2"/>
-        <v>8755703</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+        <v>-84193</v>
+      </c>
+      <c r="K42" s="1">
+        <f>ROUNDDOWN((K41+J42) *0.8, 0)</f>
+        <v>6587376</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1995,7 +2049,7 @@
         <v>52</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>495394</v>
       </c>
       <c r="D43">
         <v>5040</v>
@@ -2010,19 +2064,25 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <f>28074+471523*10%</f>
-        <v>75226.3</v>
+        <f>28074+ROUNDUP(471523*10%, 0)</f>
+        <v>75227</v>
+      </c>
+      <c r="I43">
+        <v>2000000</v>
       </c>
       <c r="J43" s="1">
         <f>C43-D43-E43-F43-G43-H43-I43</f>
-        <v>-84192.3</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="2"/>
-        <v>8671510.6999999993</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+        <v>-1588799</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" ref="K43:K57" si="5">ROUNDDOWN(K42+J43, 0)</f>
+        <v>4998577</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2046,23 +2106,23 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" ref="H44:H61" si="4">H43</f>
-        <v>75226.3</v>
+        <f t="shared" ref="H44:H61" si="6">H43</f>
+        <v>75227</v>
       </c>
       <c r="I44">
-        <f>K43*0.2</f>
-        <v>1734302.14</v>
+        <f>K45/2</f>
+        <v>2929222</v>
       </c>
       <c r="J44" s="1">
-        <f>C44-D44-E44-F44-G44-H44-I44</f>
-        <v>-1310715.44</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="2"/>
-        <v>7360795.2599999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+        <f>C44-D44-E44-F44-G44-H44</f>
+        <v>423586</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="5"/>
+        <v>5422163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2086,23 +2146,22 @@
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="4"/>
-        <v>75226.3</v>
+        <f t="shared" si="6"/>
+        <v>75227</v>
       </c>
       <c r="I45">
-        <f>2000000</f>
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
-        <v>436281.7</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="2"/>
-        <v>7797076.96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+        <v>436281</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="5"/>
+        <v>5858444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2126,23 +2185,19 @@
         <v>0</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="4"/>
-        <v>75226.3</v>
-      </c>
-      <c r="I46">
-        <f>K45/2</f>
-        <v>3898538.48</v>
+        <f t="shared" si="6"/>
+        <v>75227</v>
       </c>
       <c r="J46" s="1">
-        <f>C46-D46-E46-F46-G46-H46-I46</f>
-        <v>-3449245.78</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="2"/>
-        <v>4347831.18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+        <f>C46-D46-E46-F46-G46-H46-I44</f>
+        <v>-2479930</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="5"/>
+        <v>3378514</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2166,22 +2221,19 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="4"/>
-        <v>75226.3</v>
-      </c>
-      <c r="I47">
-        <v>1000000</v>
+        <f t="shared" si="6"/>
+        <v>75227</v>
       </c>
       <c r="J47" s="1">
-        <f>C47-D47-E47-F47-G47-H47-I47</f>
-        <v>-537369.30000000005</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="2"/>
-        <v>3810461.88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+        <f>C47-D47-E47-F47-G47-H47-I45</f>
+        <v>-537370</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="5"/>
+        <v>2841144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2205,26 +2257,26 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="4"/>
-        <v>75226.3</v>
+        <f t="shared" si="6"/>
+        <v>75227</v>
       </c>
       <c r="I48" t="s">
         <v>10</v>
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
-        <v>476300.7</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="2"/>
-        <v>4286762.58</v>
+        <v>476300</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="5"/>
+        <v>3317444</v>
       </c>
       <c r="M48">
         <f>K48+500000</f>
-        <v>4786762.58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3817444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2248,19 +2300,19 @@
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="4"/>
-        <v>75226.3</v>
+        <f t="shared" si="6"/>
+        <v>75227</v>
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
-        <v>490312.7</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="2"/>
-        <v>4777075.28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+        <v>490312</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="5"/>
+        <v>3807756</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2284,19 +2336,19 @@
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="4"/>
-        <v>75226.3</v>
+        <f t="shared" si="6"/>
+        <v>75227</v>
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
-        <v>504675.7</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="2"/>
-        <v>5281750.9800000004</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+        <v>504675</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="5"/>
+        <v>4312431</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2320,22 +2372,22 @@
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="4"/>
-        <v>75226.3</v>
+        <f t="shared" si="6"/>
+        <v>75227</v>
       </c>
       <c r="I51">
         <v>1000000</v>
       </c>
       <c r="J51" s="1">
         <f>C51-D51-E51-F51-G51-H51-I51</f>
-        <v>-480602.3</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="2"/>
-        <v>4801148.6800000006</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-480603</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="5"/>
+        <v>3831828</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2359,22 +2411,22 @@
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="4"/>
-        <v>75226.3</v>
+        <f t="shared" si="6"/>
+        <v>75227</v>
       </c>
       <c r="I52">
         <v>1800000</v>
       </c>
       <c r="J52" s="1">
         <f>C52-D52-E52-F52-G52-H52-I52</f>
-        <v>-1265512.3</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="2"/>
-        <v>3535636.3800000008</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-1265513</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="5"/>
+        <v>2566315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2398,19 +2450,19 @@
         <v>0</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="4"/>
-        <v>75226.3</v>
+        <f t="shared" si="6"/>
+        <v>75227</v>
       </c>
       <c r="J53">
         <f t="shared" si="0"/>
-        <v>-84192.3</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="2"/>
-        <v>3451444.080000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-84193</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="5"/>
+        <v>2482122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2434,19 +2486,19 @@
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="4"/>
-        <v>75226.3</v>
+        <f t="shared" si="6"/>
+        <v>75227</v>
       </c>
       <c r="J54">
         <f t="shared" si="0"/>
-        <v>-84192.3</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="2"/>
-        <v>3367251.7800000012</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-84193</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="5"/>
+        <v>2397929</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -2470,22 +2522,22 @@
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="4"/>
-        <v>75226.3</v>
+        <f t="shared" si="6"/>
+        <v>75227</v>
       </c>
       <c r="I55">
         <v>1800000</v>
       </c>
       <c r="J55" s="1">
         <f>C55-D55-E55-F55-G55-H55-I55</f>
-        <v>-1884192.3</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="2"/>
-        <v>1483059.4800000011</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-1884193</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="5"/>
+        <v>513736</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2509,23 +2561,23 @@
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="4"/>
-        <v>75226.3</v>
+        <f t="shared" si="6"/>
+        <v>75227</v>
       </c>
       <c r="I56">
         <f>K55*0.2</f>
-        <v>296611.89600000024</v>
+        <v>102747.20000000001</v>
       </c>
       <c r="J56" s="1">
         <f>C56-D56-E56-F56-G56-H56-I56</f>
-        <v>-380804.19600000023</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="2"/>
-        <v>1102255.2840000009</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-186940.2</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="5"/>
+        <v>326795</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2549,8 +2601,8 @@
         <v>0</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="4"/>
-        <v>75226.3</v>
+        <f t="shared" si="6"/>
+        <v>75227</v>
       </c>
       <c r="I57">
         <f>699979*0.05</f>
@@ -2558,14 +2610,14 @@
       </c>
       <c r="J57" s="1">
         <f>C57-D57-E57-F57-G57-H57-I57</f>
-        <v>-119191.25</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="2"/>
-        <v>983064.03400000092</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-119191.95000000001</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="5"/>
+        <v>207603</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2589,22 +2641,22 @@
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="4"/>
-        <v>75226.3</v>
+        <f t="shared" si="6"/>
+        <v>75227</v>
       </c>
       <c r="I58">
         <v>1800000</v>
       </c>
       <c r="J58" s="1">
         <f>C58-D58-E58-F58-G58-H58-I58</f>
-        <v>-1884192.3</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="2"/>
-        <v>-901128.26599999913</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-1884193</v>
+      </c>
+      <c r="K58" s="11">
+        <f t="shared" si="2"/>
+        <v>-1676590</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2628,22 +2680,22 @@
         <v>0</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="4"/>
-        <v>75226.3</v>
+        <f t="shared" si="6"/>
+        <v>75227</v>
       </c>
       <c r="I59">
         <v>300000</v>
       </c>
       <c r="J59" s="1">
         <f>C59-D59-E59-F59-G59-H59-I59</f>
-        <v>-384192.3</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="2"/>
-        <v>-1285320.5659999992</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-384193</v>
+      </c>
+      <c r="K59" s="11">
+        <f t="shared" si="2"/>
+        <v>-2060783</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2667,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="4"/>
-        <v>75226.3</v>
+        <f t="shared" si="6"/>
+        <v>75227</v>
       </c>
       <c r="J60">
         <f t="shared" si="0"/>
-        <v>-84192.3</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="2"/>
-        <v>-1369512.8659999992</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-84193</v>
+      </c>
+      <c r="K60" s="11">
+        <f t="shared" si="2"/>
+        <v>-2144976</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2703,16 +2755,16 @@
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="4"/>
-        <v>75226.3</v>
+        <f t="shared" si="6"/>
+        <v>75227</v>
       </c>
       <c r="J61">
         <f t="shared" si="0"/>
-        <v>-84192.3</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="2"/>
-        <v>-1453705.1659999993</v>
+        <v>-84193</v>
+      </c>
+      <c r="K61" s="11">
+        <f t="shared" si="2"/>
+        <v>-2229169</v>
       </c>
     </row>
   </sheetData>
@@ -2724,13 +2776,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507B19AC-821E-4BF3-8060-DA2E83BB31C6}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2741,7 +2793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2752,7 +2804,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -2764,7 +2816,7 @@
         <v>184500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A61" si="0">A3+1</f>
         <v>2</v>
@@ -2776,7 +2828,7 @@
         <v>189113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2788,7 +2840,7 @@
         <v>193840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2800,7 +2852,7 @@
         <v>198686</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2812,7 +2864,7 @@
         <v>203653</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2824,7 +2876,7 @@
         <v>208745</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2836,7 +2888,7 @@
         <v>213963</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2848,7 +2900,7 @@
         <v>219313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2860,7 +2912,7 @@
         <v>224795</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2872,7 +2924,7 @@
         <v>230415</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2884,7 +2936,7 @@
         <v>236176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2896,7 +2948,7 @@
         <v>242080</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2908,7 +2960,7 @@
         <v>248132</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2920,7 +2972,7 @@
         <v>254335</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2932,7 +2984,7 @@
         <v>260694</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2944,7 +2996,7 @@
         <v>267211</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2956,7 +3008,7 @@
         <v>273891</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2968,7 +3020,7 @@
         <v>280739</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2980,7 +3032,7 @@
         <v>287757</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2992,7 +3044,7 @@
         <v>294951</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3004,7 +3056,7 @@
         <v>302325</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3016,7 +3068,7 @@
         <v>309883</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3028,7 +3080,7 @@
         <v>317630</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3040,7 +3092,7 @@
         <v>325571</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3052,7 +3104,7 @@
         <v>333710</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3064,7 +3116,7 @@
         <v>342053</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3076,7 +3128,7 @@
         <v>350604</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3088,7 +3140,7 @@
         <v>359369</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3100,7 +3152,7 @@
         <v>368353</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3112,7 +3164,7 @@
         <v>377562</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3124,7 +3176,7 @@
         <v>387001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3136,7 +3188,7 @@
         <v>396676</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3148,7 +3200,7 @@
         <v>406593</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3160,7 +3212,7 @@
         <v>416758</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3172,7 +3224,7 @@
         <v>427177</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3184,7 +3236,7 @@
         <v>437856</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3196,7 +3248,7 @@
         <v>448803</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3208,7 +3260,7 @@
         <v>460023</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3220,7 +3272,7 @@
         <v>471523</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3232,7 +3284,7 @@
         <v>483311</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3244,7 +3296,7 @@
         <v>495394</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3256,7 +3308,7 @@
         <v>507779</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3268,7 +3320,7 @@
         <v>520474</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3280,7 +3332,7 @@
         <v>533485</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3292,7 +3344,7 @@
         <v>546823</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3304,7 +3356,7 @@
         <v>560493</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3316,7 +3368,7 @@
         <v>574505</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3328,7 +3380,7 @@
         <v>588868</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3340,7 +3392,7 @@
         <v>603590</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3352,7 +3404,7 @@
         <v>618680</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3364,7 +3416,7 @@
         <v>634147</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3376,7 +3428,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3388,7 +3440,7 @@
         <v>666250</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3400,7 +3452,7 @@
         <v>682906</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3412,7 +3464,7 @@
         <v>699979</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3424,7 +3476,7 @@
         <v>717479</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3436,7 +3488,7 @@
         <v>735416</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3448,7 +3500,7 @@
         <v>753801</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45A9A4D-709A-E34D-90B8-5EF9A993610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75157DC-F1DC-4D1F-AED2-6E01996FB626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="2500" windowWidth="23880" windowHeight="16180" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>step</t>
   </si>
@@ -80,6 +71,36 @@
   </si>
   <si>
     <t>sl</t>
+  </si>
+  <si>
+    <t>tra</t>
+  </si>
+  <si>
+    <t>nc</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>tf</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>END</t>
   </si>
 </sst>
 </file>
@@ -497,18 +518,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J42" sqref="J42"/>
+      <selection pane="topRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -562,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>1</v>
@@ -589,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A61" si="1">A3+1</f>
         <v>2</v>
@@ -619,7 +640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -649,7 +670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -682,7 +703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -718,7 +739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -754,7 +775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -790,7 +811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -826,7 +847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -862,7 +883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -898,7 +919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -934,7 +955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -970,7 +991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1006,7 +1027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1042,7 +1063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1078,7 +1099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1114,7 +1135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1150,7 +1171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1189,7 +1210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1228,7 +1249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1267,7 +1288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1306,7 +1327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1345,7 +1366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1384,7 +1405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1423,7 +1444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1462,7 +1483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1501,7 +1522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1540,7 +1561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1579,7 +1600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1618,7 +1639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1657,7 +1678,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1696,7 +1717,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1735,7 +1756,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1774,7 +1795,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1813,7 +1834,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1851,7 +1872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1888,8 +1909,11 @@
         <f t="shared" si="2"/>
         <v>8776686</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1926,8 +1950,11 @@
         <f t="shared" si="2"/>
         <v>8439646</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1961,8 +1988,11 @@
         <f t="shared" si="2"/>
         <v>8402606</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1993,15 +2023,15 @@
         <f t="shared" si="0"/>
         <v>-84193</v>
       </c>
-      <c r="K41" s="1">
-        <f>ROUNDDOWN(K40+J41, 0)</f>
+      <c r="K41">
+        <f t="shared" si="2"/>
         <v>8318413</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -2028,19 +2058,23 @@
         <f t="shared" si="4"/>
         <v>75227</v>
       </c>
+      <c r="I42">
+        <f>K41*0.2</f>
+        <v>1663682.6</v>
+      </c>
       <c r="J42">
         <f t="shared" si="0"/>
         <v>-84193</v>
       </c>
-      <c r="K42" s="1">
-        <f>ROUNDDOWN((K41+J42) *0.8, 0)</f>
-        <v>6587376</v>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>8234220</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -2076,13 +2110,13 @@
       </c>
       <c r="K43" s="1">
         <f t="shared" ref="K43:K57" si="5">ROUNDDOWN(K42+J43, 0)</f>
-        <v>4998577</v>
+        <v>6645421</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2110,19 +2144,22 @@
         <v>75227</v>
       </c>
       <c r="I44">
-        <f>K45/2</f>
-        <v>2929222</v>
+        <f>K43/2</f>
+        <v>3322710.5</v>
       </c>
       <c r="J44" s="1">
-        <f>C44-D44-E44-F44-G44-H44</f>
-        <v>423586</v>
+        <f>C44-D44-E44-F44-G44-H44-I44</f>
+        <v>-2899124.5</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="5"/>
-        <v>5422163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <f>ROUNDDOWN(K43+J44, 0)</f>
+        <v>3746296</v>
+      </c>
+      <c r="L44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2152,16 +2189,19 @@
       <c r="I45">
         <v>1000000</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="0"/>
-        <v>436281</v>
+      <c r="J45" s="1">
+        <f t="shared" ref="J45:J59" si="7">C45-D45-E45-F45-G45-H45-I45</f>
+        <v>-563719</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="5"/>
-        <v>5858444</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3182577</v>
+      </c>
+      <c r="L45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2189,15 +2229,18 @@
         <v>75227</v>
       </c>
       <c r="J46" s="1">
-        <f>C46-D46-E46-F46-G46-H46-I44</f>
-        <v>-2479930</v>
+        <f t="shared" si="7"/>
+        <v>449292</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="5"/>
-        <v>3378514</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3631869</v>
+      </c>
+      <c r="L46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2225,15 +2268,18 @@
         <v>75227</v>
       </c>
       <c r="J47" s="1">
-        <f>C47-D47-E47-F47-G47-H47-I45</f>
-        <v>-537370</v>
+        <f t="shared" si="7"/>
+        <v>462630</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="5"/>
-        <v>2841144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4094499</v>
+      </c>
+      <c r="L47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2260,23 +2306,19 @@
         <f t="shared" si="6"/>
         <v>75227</v>
       </c>
-      <c r="I48" t="s">
-        <v>10</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="0"/>
+      <c r="J48" s="1">
+        <f t="shared" si="7"/>
         <v>476300</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="5"/>
-        <v>3317444</v>
-      </c>
-      <c r="M48">
-        <f>K48+500000</f>
-        <v>3817444</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4570799</v>
+      </c>
+      <c r="L48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2303,16 +2345,22 @@
         <f t="shared" si="6"/>
         <v>75227</v>
       </c>
-      <c r="J49">
-        <f t="shared" si="0"/>
-        <v>490312</v>
+      <c r="I49">
+        <v>1000000</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="7"/>
+        <v>-509688</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" si="5"/>
-        <v>3807756</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4061111</v>
+      </c>
+      <c r="L49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2339,16 +2387,22 @@
         <f t="shared" si="6"/>
         <v>75227</v>
       </c>
-      <c r="J50">
-        <f t="shared" si="0"/>
-        <v>504675</v>
+      <c r="I50">
+        <v>1800000</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="7"/>
+        <v>-1295325</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="5"/>
-        <v>4312431</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2765786</v>
+      </c>
+      <c r="L50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2375,19 +2429,19 @@
         <f t="shared" si="6"/>
         <v>75227</v>
       </c>
-      <c r="I51">
-        <v>1000000</v>
-      </c>
       <c r="J51" s="1">
-        <f>C51-D51-E51-F51-G51-H51-I51</f>
-        <v>-480603</v>
+        <f t="shared" si="7"/>
+        <v>519397</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" si="5"/>
-        <v>3831828</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3285183</v>
+      </c>
+      <c r="L51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2396,7 +2450,7 @@
         <v>61</v>
       </c>
       <c r="C52">
-        <v>618680</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>5040</v>
@@ -2414,19 +2468,19 @@
         <f t="shared" si="6"/>
         <v>75227</v>
       </c>
-      <c r="I52">
-        <v>1800000</v>
-      </c>
       <c r="J52" s="1">
-        <f>C52-D52-E52-F52-G52-H52-I52</f>
-        <v>-1265513</v>
+        <f t="shared" si="7"/>
+        <v>-84193</v>
       </c>
       <c r="K52" s="1">
         <f t="shared" si="5"/>
-        <v>2566315</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3200990</v>
+      </c>
+      <c r="L52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2453,16 +2507,22 @@
         <f t="shared" si="6"/>
         <v>75227</v>
       </c>
-      <c r="J53">
-        <f t="shared" si="0"/>
-        <v>-84193</v>
+      <c r="I53">
+        <v>1800000</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="7"/>
+        <v>-1884193</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="5"/>
-        <v>2482122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <f>ROUNDDOWN(K52+J53, 0)</f>
+        <v>1316797</v>
+      </c>
+      <c r="L53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2489,16 +2549,23 @@
         <f t="shared" si="6"/>
         <v>75227</v>
       </c>
-      <c r="J54">
-        <f t="shared" si="0"/>
-        <v>-84193</v>
+      <c r="I54">
+        <f>K53*0.2</f>
+        <v>263359.40000000002</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="7"/>
+        <v>-347552.4</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="5"/>
-        <v>2397929</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>969244</v>
+      </c>
+      <c r="L54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -2526,18 +2593,22 @@
         <v>75227</v>
       </c>
       <c r="I55">
-        <v>1800000</v>
+        <f>650000*0.05</f>
+        <v>32500</v>
       </c>
       <c r="J55" s="1">
-        <f>C55-D55-E55-F55-G55-H55-I55</f>
-        <v>-1884193</v>
+        <f t="shared" si="7"/>
+        <v>-116693</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="5"/>
-        <v>513736</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>852551</v>
+      </c>
+      <c r="L55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2565,19 +2636,22 @@
         <v>75227</v>
       </c>
       <c r="I56">
-        <f>K55*0.2</f>
-        <v>102747.20000000001</v>
+        <f>1800000+I55</f>
+        <v>1832500</v>
       </c>
       <c r="J56" s="1">
-        <f>C56-D56-E56-F56-G56-H56-I56</f>
-        <v>-186940.2</v>
+        <f t="shared" si="7"/>
+        <v>-1916693</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="5"/>
-        <v>326795</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-1064142</v>
+      </c>
+      <c r="L56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2604,20 +2678,22 @@
         <f t="shared" si="6"/>
         <v>75227</v>
       </c>
-      <c r="I57">
-        <f>699979*0.05</f>
-        <v>34998.950000000004</v>
-      </c>
       <c r="J57" s="1">
-        <f>C57-D57-E57-F57-G57-H57-I57</f>
-        <v>-119191.95000000001</v>
+        <f t="shared" si="7"/>
+        <v>-84193</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" si="5"/>
-        <v>207603</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-1148335</v>
+      </c>
+      <c r="L57" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2644,19 +2720,16 @@
         <f t="shared" si="6"/>
         <v>75227</v>
       </c>
-      <c r="I58">
-        <v>1800000</v>
-      </c>
       <c r="J58" s="1">
-        <f>C58-D58-E58-F58-G58-H58-I58</f>
-        <v>-1884193</v>
+        <f t="shared" si="7"/>
+        <v>-84193</v>
       </c>
       <c r="K58" s="11">
         <f t="shared" si="2"/>
-        <v>-1676590</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-1232528</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2683,19 +2756,16 @@
         <f t="shared" si="6"/>
         <v>75227</v>
       </c>
-      <c r="I59">
-        <v>300000</v>
-      </c>
       <c r="J59" s="1">
-        <f>C59-D59-E59-F59-G59-H59-I59</f>
-        <v>-384193</v>
+        <f t="shared" si="7"/>
+        <v>-84193</v>
       </c>
       <c r="K59" s="11">
         <f t="shared" si="2"/>
-        <v>-2060783</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-1316721</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2728,10 +2798,10 @@
       </c>
       <c r="K60" s="11">
         <f t="shared" si="2"/>
-        <v>-2144976</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-1400914</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2764,7 +2834,7 @@
       </c>
       <c r="K61" s="11">
         <f t="shared" si="2"/>
-        <v>-2229169</v>
+        <v>-1485107</v>
       </c>
     </row>
   </sheetData>
@@ -2780,9 +2850,9 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2793,7 +2863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2804,7 +2874,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -2816,7 +2886,7 @@
         <v>184500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A61" si="0">A3+1</f>
         <v>2</v>
@@ -2828,7 +2898,7 @@
         <v>189113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2840,7 +2910,7 @@
         <v>193840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2852,7 +2922,7 @@
         <v>198686</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2864,7 +2934,7 @@
         <v>203653</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2876,7 +2946,7 @@
         <v>208745</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2888,7 +2958,7 @@
         <v>213963</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2900,7 +2970,7 @@
         <v>219313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2912,7 +2982,7 @@
         <v>224795</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2924,7 +2994,7 @@
         <v>230415</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2936,7 +3006,7 @@
         <v>236176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2948,7 +3018,7 @@
         <v>242080</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2960,7 +3030,7 @@
         <v>248132</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2972,7 +3042,7 @@
         <v>254335</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2984,7 +3054,7 @@
         <v>260694</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2996,7 +3066,7 @@
         <v>267211</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3008,7 +3078,7 @@
         <v>273891</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3020,7 +3090,7 @@
         <v>280739</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3032,7 +3102,7 @@
         <v>287757</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3044,7 +3114,7 @@
         <v>294951</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3056,7 +3126,7 @@
         <v>302325</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3068,7 +3138,7 @@
         <v>309883</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3080,7 +3150,7 @@
         <v>317630</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3092,7 +3162,7 @@
         <v>325571</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3104,7 +3174,7 @@
         <v>333710</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3116,7 +3186,7 @@
         <v>342053</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3128,7 +3198,7 @@
         <v>350604</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3140,7 +3210,7 @@
         <v>359369</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3152,7 +3222,7 @@
         <v>368353</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3164,7 +3234,7 @@
         <v>377562</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3176,7 +3246,7 @@
         <v>387001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3188,7 +3258,7 @@
         <v>396676</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3200,7 +3270,7 @@
         <v>406593</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3212,7 +3282,7 @@
         <v>416758</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3224,7 +3294,7 @@
         <v>427177</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3236,7 +3306,7 @@
         <v>437856</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3248,7 +3318,7 @@
         <v>448803</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3260,7 +3330,7 @@
         <v>460023</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3272,7 +3342,7 @@
         <v>471523</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3284,7 +3354,7 @@
         <v>483311</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3296,7 +3366,7 @@
         <v>495394</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3308,7 +3378,7 @@
         <v>507779</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3320,7 +3390,7 @@
         <v>520474</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3332,7 +3402,7 @@
         <v>533485</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3344,7 +3414,7 @@
         <v>546823</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3356,7 +3426,7 @@
         <v>560493</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3368,7 +3438,7 @@
         <v>574505</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3380,7 +3450,7 @@
         <v>588868</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3392,7 +3462,7 @@
         <v>603590</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3404,7 +3474,7 @@
         <v>618680</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3416,7 +3486,7 @@
         <v>634147</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3428,7 +3498,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3440,7 +3510,7 @@
         <v>666250</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3452,7 +3522,7 @@
         <v>682906</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3464,7 +3534,7 @@
         <v>699979</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3476,7 +3546,7 @@
         <v>717479</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3488,7 +3558,7 @@
         <v>735416</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3500,7 +3570,7 @@
         <v>753801</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75157DC-F1DC-4D1F-AED2-6E01996FB626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CEDE52-147D-674A-B2DF-FE67D1AF05A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28060" windowHeight="19420" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -518,18 +527,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="93" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O13" sqref="O13"/>
+      <selection pane="topRight" activeCell="L38" sqref="L38:L57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -583,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>1</v>
@@ -610,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A61" si="1">A3+1</f>
         <v>2</v>
@@ -640,7 +649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -670,7 +679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -703,7 +712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -739,7 +748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -775,7 +784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -811,7 +820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -847,7 +856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -883,7 +892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -919,7 +928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -955,7 +964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -991,7 +1000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1027,7 +1036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1063,7 +1072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1099,7 +1108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1135,7 +1144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1171,7 +1180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1210,7 +1219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1249,7 +1258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1288,7 +1297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1327,7 +1336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1366,7 +1375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1405,7 +1414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1444,7 +1453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1483,7 +1492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1522,7 +1531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1561,7 +1570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1600,7 +1609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1639,7 +1648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1678,7 +1687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1717,7 +1726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1756,7 +1765,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1795,7 +1804,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1834,7 +1843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1872,7 +1881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1909,11 +1918,11 @@
         <f t="shared" si="2"/>
         <v>8776686</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1950,11 +1959,11 @@
         <f t="shared" si="2"/>
         <v>8439646</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1988,11 +1997,11 @@
         <f t="shared" si="2"/>
         <v>8402606</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2031,7 +2040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -2074,7 +2083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -2116,7 +2125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2155,11 +2164,11 @@
         <f>ROUNDDOWN(K43+J44, 0)</f>
         <v>3746296</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2197,11 +2206,11 @@
         <f t="shared" si="5"/>
         <v>3182577</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2236,11 +2245,11 @@
         <f t="shared" si="5"/>
         <v>3631869</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2275,11 +2284,11 @@
         <f t="shared" si="5"/>
         <v>4094499</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2314,11 +2323,11 @@
         <f t="shared" si="5"/>
         <v>4570799</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2356,11 +2365,11 @@
         <f t="shared" si="5"/>
         <v>4061111</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2398,11 +2407,11 @@
         <f t="shared" si="5"/>
         <v>2765786</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2437,11 +2446,11 @@
         <f t="shared" si="5"/>
         <v>3285183</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2476,11 +2485,11 @@
         <f t="shared" si="5"/>
         <v>3200990</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2518,11 +2527,11 @@
         <f>ROUNDDOWN(K52+J53, 0)</f>
         <v>1316797</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2561,11 +2570,11 @@
         <f t="shared" si="5"/>
         <v>969244</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -2604,11 +2613,11 @@
         <f t="shared" si="5"/>
         <v>852551</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2647,11 +2656,11 @@
         <f t="shared" si="5"/>
         <v>-1064142</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2686,14 +2695,14 @@
         <f t="shared" si="5"/>
         <v>-1148335</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="10" t="s">
         <v>21</v>
       </c>
       <c r="M57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2729,7 +2738,7 @@
         <v>-1232528</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2765,7 +2774,7 @@
         <v>-1316721</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2801,7 +2810,7 @@
         <v>-1400914</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2850,9 +2859,9 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2863,7 +2872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2874,7 +2883,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -2886,7 +2895,7 @@
         <v>184500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A61" si="0">A3+1</f>
         <v>2</v>
@@ -2898,7 +2907,7 @@
         <v>189113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2910,7 +2919,7 @@
         <v>193840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2922,7 +2931,7 @@
         <v>198686</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2934,7 +2943,7 @@
         <v>203653</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2946,7 +2955,7 @@
         <v>208745</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2958,7 +2967,7 @@
         <v>213963</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2970,7 +2979,7 @@
         <v>219313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2982,7 +2991,7 @@
         <v>224795</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2994,7 +3003,7 @@
         <v>230415</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3006,7 +3015,7 @@
         <v>236176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3018,7 +3027,7 @@
         <v>242080</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3030,7 +3039,7 @@
         <v>248132</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3042,7 +3051,7 @@
         <v>254335</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3054,7 +3063,7 @@
         <v>260694</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3066,7 +3075,7 @@
         <v>267211</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3078,7 +3087,7 @@
         <v>273891</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3090,7 +3099,7 @@
         <v>280739</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3102,7 +3111,7 @@
         <v>287757</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3114,7 +3123,7 @@
         <v>294951</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3126,7 +3135,7 @@
         <v>302325</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3138,7 +3147,7 @@
         <v>309883</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3150,7 +3159,7 @@
         <v>317630</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3162,7 +3171,7 @@
         <v>325571</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3174,7 +3183,7 @@
         <v>333710</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3186,7 +3195,7 @@
         <v>342053</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3198,7 +3207,7 @@
         <v>350604</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3210,7 +3219,7 @@
         <v>359369</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3222,7 +3231,7 @@
         <v>368353</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3234,7 +3243,7 @@
         <v>377562</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3246,7 +3255,7 @@
         <v>387001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3258,7 +3267,7 @@
         <v>396676</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3270,7 +3279,7 @@
         <v>406593</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3282,7 +3291,7 @@
         <v>416758</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3294,7 +3303,7 @@
         <v>427177</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3306,7 +3315,7 @@
         <v>437856</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3318,7 +3327,7 @@
         <v>448803</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3330,7 +3339,7 @@
         <v>460023</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3342,7 +3351,7 @@
         <v>471523</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3354,7 +3363,7 @@
         <v>483311</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3366,7 +3375,7 @@
         <v>495394</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3378,7 +3387,7 @@
         <v>507779</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3390,7 +3399,7 @@
         <v>520474</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3402,7 +3411,7 @@
         <v>533485</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3414,7 +3423,7 @@
         <v>546823</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3426,7 +3435,7 @@
         <v>560493</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3438,7 +3447,7 @@
         <v>574505</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3450,7 +3459,7 @@
         <v>588868</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3462,7 +3471,7 @@
         <v>603590</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3474,7 +3483,7 @@
         <v>618680</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3486,7 +3495,7 @@
         <v>634147</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3498,7 +3507,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3510,7 +3519,7 @@
         <v>666250</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3522,7 +3531,7 @@
         <v>682906</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3534,7 +3543,7 @@
         <v>699979</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3546,7 +3555,7 @@
         <v>717479</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3558,7 +3567,7 @@
         <v>735416</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3570,7 +3579,7 @@
         <v>753801</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CEDE52-147D-674A-B2DF-FE67D1AF05A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6209EE53-3ADD-8D45-8DC2-9B5F9E6FF4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28060" windowHeight="19420" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
+    <workbookView xWindow="33600" yWindow="2500" windowWidth="23880" windowHeight="16180" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
@@ -527,9 +527,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="93" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L38" sqref="L38:L57"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L47" sqref="A47:L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1675,12 +1675,12 @@
         <v>28074</v>
       </c>
       <c r="J32">
-        <f>C32-D32-E32-F32-G32-H32</f>
-        <v>340522</v>
+        <f>C32-D32-E32-F32-G32-H32+490013</f>
+        <v>830535</v>
       </c>
       <c r="K32">
         <f t="shared" si="2"/>
-        <v>7201885</v>
+        <v>7691898</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="3"/>
@@ -1714,8 +1714,8 @@
         <v>28074</v>
       </c>
       <c r="J33">
-        <f>C33-D33-E33-F33-G33-H33+490013</f>
-        <v>839974</v>
+        <f>C33-D33-E33-F33-G33-H33</f>
+        <v>349961</v>
       </c>
       <c r="K33">
         <f t="shared" si="2"/>
@@ -2071,13 +2071,13 @@
         <f>K41*0.2</f>
         <v>1663682.6</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="0"/>
-        <v>-84193</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="2"/>
-        <v>8234220</v>
+      <c r="J42" s="1">
+        <f>C42-D42-E42-F42-G42-H42-I42</f>
+        <v>-1747875.6</v>
+      </c>
+      <c r="K42" s="1">
+        <f>ROUNDDOWN(K41+J42,0)</f>
+        <v>6570537</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>14</v>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="K43" s="1">
         <f t="shared" ref="K43:K57" si="5">ROUNDDOWN(K42+J43, 0)</f>
-        <v>6645421</v>
+        <v>4981738</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>13</v>
@@ -2154,15 +2154,15 @@
       </c>
       <c r="I44">
         <f>K43/2</f>
-        <v>3322710.5</v>
+        <v>2490869</v>
       </c>
       <c r="J44" s="1">
         <f>C44-D44-E44-F44-G44-H44-I44</f>
-        <v>-2899124.5</v>
+        <v>-2067283</v>
       </c>
       <c r="K44" s="1">
         <f>ROUNDDOWN(K43+J44, 0)</f>
-        <v>3746296</v>
+        <v>2914455</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>17</v>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="K45" s="1">
         <f t="shared" si="5"/>
-        <v>3182577</v>
+        <v>2350736</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>18</v>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="K46" s="1">
         <f t="shared" si="5"/>
-        <v>3631869</v>
+        <v>2800028</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>10</v>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="K47" s="1">
         <f t="shared" si="5"/>
-        <v>4094499</v>
+        <v>3262658</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>19</v>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="K48" s="1">
         <f t="shared" si="5"/>
-        <v>4570799</v>
+        <v>3738958</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>20</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="K49" s="1">
         <f t="shared" si="5"/>
-        <v>4061111</v>
+        <v>3229270</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>18</v>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="K50" s="1">
         <f t="shared" si="5"/>
-        <v>2765786</v>
+        <v>1933945</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>21</v>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="K51" s="1">
         <f t="shared" si="5"/>
-        <v>3285183</v>
+        <v>2453342</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>22</v>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="K52" s="1">
         <f t="shared" si="5"/>
-        <v>3200990</v>
+        <v>2369149</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>20</v>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="K53" s="1">
         <f>ROUNDDOWN(K52+J53, 0)</f>
-        <v>1316797</v>
+        <v>484956</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>21</v>
@@ -2560,15 +2560,15 @@
       </c>
       <c r="I54">
         <f>K53*0.2</f>
-        <v>263359.40000000002</v>
+        <v>96991.200000000012</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" si="7"/>
-        <v>-347552.4</v>
+        <v>-181184.2</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="5"/>
-        <v>969244</v>
+        <v>303771</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>14</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="K55" s="1">
         <f t="shared" si="5"/>
-        <v>852551</v>
+        <v>187078</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>23</v>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="K56" s="1">
         <f t="shared" si="5"/>
-        <v>-1064142</v>
+        <v>-1729615</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>15</v>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="K57" s="1">
         <f t="shared" si="5"/>
-        <v>-1148335</v>
+        <v>-1813808</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>21</v>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="K58" s="11">
         <f t="shared" si="2"/>
-        <v>-1232528</v>
+        <v>-1898001</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="K59" s="11">
         <f t="shared" si="2"/>
-        <v>-1316721</v>
+        <v>-1982194</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="K60" s="11">
         <f t="shared" si="2"/>
-        <v>-1400914</v>
+        <v>-2066387</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="K61" s="11">
         <f t="shared" si="2"/>
-        <v>-1485107</v>
+        <v>-2150580</v>
       </c>
     </row>
   </sheetData>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6209EE53-3ADD-8D45-8DC2-9B5F9E6FF4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E86632-CAE2-004C-B26F-CF913806FD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="2500" windowWidth="23880" windowHeight="16180" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
@@ -184,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -192,11 +192,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -211,6 +220,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,9 +541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L47" sqref="A47:L57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2211,41 +2225,42 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="12">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="12">
         <v>55</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="12">
         <v>533485</v>
       </c>
-      <c r="D46">
-        <v>5040</v>
-      </c>
-      <c r="E46">
-        <v>3000</v>
-      </c>
-      <c r="F46">
-        <v>926</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
+      <c r="D46" s="12">
+        <v>5040</v>
+      </c>
+      <c r="E46" s="12">
+        <v>3000</v>
+      </c>
+      <c r="F46" s="12">
+        <v>926</v>
+      </c>
+      <c r="G46" s="12">
+        <v>0</v>
+      </c>
+      <c r="H46" s="13">
         <f t="shared" si="6"/>
         <v>75227</v>
       </c>
-      <c r="J46" s="1">
+      <c r="I46" s="12"/>
+      <c r="J46" s="13">
         <f t="shared" si="7"/>
         <v>449292</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="13">
         <f t="shared" si="5"/>
         <v>2800028</v>
       </c>
-      <c r="L46" s="10" t="s">
+      <c r="L46" s="14" t="s">
         <v>10</v>
       </c>
     </row>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E86632-CAE2-004C-B26F-CF913806FD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAE9DB5-3E2B-486F-9305-C706E59D3E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="2500" windowWidth="23880" windowHeight="16180" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>step</t>
   </si>
@@ -109,7 +100,7 @@
     <t>mt</t>
   </si>
   <si>
-    <t>END</t>
+    <t>NO REtire</t>
   </si>
 </sst>
 </file>
@@ -119,10 +110,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -225,6 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,20 +538,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="77" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I50" sqref="I50"/>
+      <selection pane="topRight" activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +584,35 @@
       <c r="K1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -605,8 +633,19 @@
       <c r="L2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>180000</v>
+      </c>
+      <c r="T2">
+        <f>M2-N2-O2-P2-Q2-R2</f>
+        <v>180000</v>
+      </c>
+      <c r="U2">
+        <f>T2</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>1</v>
@@ -632,10 +671,24 @@
         <f>L2+1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>184500</v>
+      </c>
+      <c r="N3">
+        <v>5040</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T61" si="1">M3-N3-O3-P3-Q3-R3</f>
+        <v>179460</v>
+      </c>
+      <c r="U3">
+        <f>U2+T3</f>
+        <v>359460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <f t="shared" ref="A4:A61" si="1">A3+1</f>
+        <f t="shared" ref="A4:A61" si="2">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -655,17 +708,34 @@
         <v>181073</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K61" si="2">K3+J4</f>
+        <f t="shared" ref="K4:K61" si="3">K3+J4</f>
         <v>540533</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" ref="L4:L36" si="3">L3+1</f>
+        <f t="shared" ref="L4:L36" si="4">L3+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <v>189113</v>
+      </c>
+      <c r="N4">
+        <v>5040</v>
+      </c>
+      <c r="O4">
+        <v>3000</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>181073</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U41" si="5">U3+T4</f>
+        <v>540533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B5">
@@ -685,17 +755,34 @@
         <v>185800</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>726333</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>193840</v>
+      </c>
+      <c r="N5">
+        <v>5040</v>
+      </c>
+      <c r="O5">
+        <v>3000</v>
+      </c>
+      <c r="T5">
+        <f>M5-N5-O5-P5-Q5-R5</f>
+        <v>185800</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="5"/>
+        <v>726333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B6">
@@ -718,17 +805,37 @@
         <v>189720</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>916053</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>198686</v>
+      </c>
+      <c r="N6">
+        <v>5040</v>
+      </c>
+      <c r="O6">
+        <v>3000</v>
+      </c>
+      <c r="P6">
+        <v>926</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>189720</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="5"/>
+        <v>916053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B7">
@@ -754,17 +861,40 @@
         <v>176687</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1092740</v>
       </c>
       <c r="L7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>203653</v>
+      </c>
+      <c r="N7">
+        <v>5040</v>
+      </c>
+      <c r="O7">
+        <v>3000</v>
+      </c>
+      <c r="P7">
+        <v>926</v>
+      </c>
+      <c r="Q7">
+        <v>18000</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>176687</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="5"/>
+        <v>1092740</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B8">
@@ -790,17 +920,40 @@
         <v>181779</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1274519</v>
       </c>
       <c r="L8" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>208745</v>
+      </c>
+      <c r="N8">
+        <v>5040</v>
+      </c>
+      <c r="O8">
+        <v>3000</v>
+      </c>
+      <c r="P8">
+        <v>926</v>
+      </c>
+      <c r="Q8">
+        <v>18000</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>181779</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="5"/>
+        <v>1274519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B9">
@@ -826,17 +979,40 @@
         <v>186997</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1461516</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>213963</v>
+      </c>
+      <c r="N9">
+        <v>5040</v>
+      </c>
+      <c r="O9">
+        <v>3000</v>
+      </c>
+      <c r="P9">
+        <v>926</v>
+      </c>
+      <c r="Q9">
+        <v>18000</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>186997</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="5"/>
+        <v>1461516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B10">
@@ -862,17 +1038,40 @@
         <v>192347</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1653863</v>
       </c>
       <c r="L10" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>219313</v>
+      </c>
+      <c r="N10">
+        <v>5040</v>
+      </c>
+      <c r="O10">
+        <v>3000</v>
+      </c>
+      <c r="P10">
+        <v>926</v>
+      </c>
+      <c r="Q10">
+        <v>18000</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>192347</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="5"/>
+        <v>1653863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B11">
@@ -898,17 +1097,40 @@
         <v>197829</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1851692</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>224795</v>
+      </c>
+      <c r="N11">
+        <v>5040</v>
+      </c>
+      <c r="O11">
+        <v>3000</v>
+      </c>
+      <c r="P11">
+        <v>926</v>
+      </c>
+      <c r="Q11">
+        <v>18000</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>197829</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="5"/>
+        <v>1851692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B12">
@@ -934,17 +1156,40 @@
         <v>203449</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2055141</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>230415</v>
+      </c>
+      <c r="N12">
+        <v>5040</v>
+      </c>
+      <c r="O12">
+        <v>3000</v>
+      </c>
+      <c r="P12">
+        <v>926</v>
+      </c>
+      <c r="Q12">
+        <v>18000</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>203449</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="5"/>
+        <v>2055141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B13">
@@ -970,17 +1215,40 @@
         <v>209210</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2264351</v>
       </c>
       <c r="L13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>236176</v>
+      </c>
+      <c r="N13">
+        <v>5040</v>
+      </c>
+      <c r="O13">
+        <v>3000</v>
+      </c>
+      <c r="P13">
+        <v>926</v>
+      </c>
+      <c r="Q13">
+        <v>18000</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>209210</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="5"/>
+        <v>2264351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B14">
@@ -1006,17 +1274,40 @@
         <v>215114</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2479465</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>242080</v>
+      </c>
+      <c r="N14">
+        <v>5040</v>
+      </c>
+      <c r="O14">
+        <v>3000</v>
+      </c>
+      <c r="P14">
+        <v>926</v>
+      </c>
+      <c r="Q14">
+        <v>18000</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>215114</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="5"/>
+        <v>2479465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B15">
@@ -1042,17 +1333,40 @@
         <v>221166</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2700631</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>248132</v>
+      </c>
+      <c r="N15">
+        <v>5040</v>
+      </c>
+      <c r="O15">
+        <v>3000</v>
+      </c>
+      <c r="P15">
+        <v>926</v>
+      </c>
+      <c r="Q15">
+        <v>18000</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>221166</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="5"/>
+        <v>2700631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B16">
@@ -1078,17 +1392,40 @@
         <v>227369</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2928000</v>
       </c>
       <c r="L16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>254335</v>
+      </c>
+      <c r="N16">
+        <v>5040</v>
+      </c>
+      <c r="O16">
+        <v>3000</v>
+      </c>
+      <c r="P16">
+        <v>926</v>
+      </c>
+      <c r="Q16">
+        <v>18000</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>227369</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="5"/>
+        <v>2928000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B17">
@@ -1114,17 +1451,40 @@
         <v>233728</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3161728</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>260694</v>
+      </c>
+      <c r="N17">
+        <v>5040</v>
+      </c>
+      <c r="O17">
+        <v>3000</v>
+      </c>
+      <c r="P17">
+        <v>926</v>
+      </c>
+      <c r="Q17">
+        <v>18000</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>233728</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="5"/>
+        <v>3161728</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B18">
@@ -1150,17 +1510,40 @@
         <v>240245</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3401973</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>267211</v>
+      </c>
+      <c r="N18">
+        <v>5040</v>
+      </c>
+      <c r="O18">
+        <v>3000</v>
+      </c>
+      <c r="P18">
+        <v>926</v>
+      </c>
+      <c r="Q18">
+        <v>18000</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>240245</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="5"/>
+        <v>3401973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B19">
@@ -1186,17 +1569,40 @@
         <v>246925</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3648898</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>273891</v>
+      </c>
+      <c r="N19">
+        <v>5040</v>
+      </c>
+      <c r="O19">
+        <v>3000</v>
+      </c>
+      <c r="P19">
+        <v>926</v>
+      </c>
+      <c r="Q19">
+        <v>18000</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>246925</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="5"/>
+        <v>3648898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B20">
@@ -1225,17 +1631,43 @@
         <v>225699</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3874597</v>
       </c>
       <c r="L20" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>280739</v>
+      </c>
+      <c r="N20">
+        <v>5040</v>
+      </c>
+      <c r="O20">
+        <v>3000</v>
+      </c>
+      <c r="P20">
+        <v>926</v>
+      </c>
+      <c r="Q20">
+        <v>18000</v>
+      </c>
+      <c r="R20">
+        <v>28074</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>225699</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="5"/>
+        <v>3874597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B21">
@@ -1264,17 +1696,43 @@
         <v>232717</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4107314</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>287757</v>
+      </c>
+      <c r="N21">
+        <v>5040</v>
+      </c>
+      <c r="O21">
+        <v>3000</v>
+      </c>
+      <c r="P21">
+        <v>926</v>
+      </c>
+      <c r="Q21">
+        <v>18000</v>
+      </c>
+      <c r="R21">
+        <v>28074</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>232717</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="5"/>
+        <v>4107314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B22">
@@ -1303,17 +1761,43 @@
         <v>239911</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4347225</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>294951</v>
+      </c>
+      <c r="N22">
+        <v>5040</v>
+      </c>
+      <c r="O22">
+        <v>3000</v>
+      </c>
+      <c r="P22">
+        <v>926</v>
+      </c>
+      <c r="Q22">
+        <v>18000</v>
+      </c>
+      <c r="R22">
+        <v>28074</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>239911</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="5"/>
+        <v>4347225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B23">
@@ -1342,17 +1826,43 @@
         <v>247285</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4594510</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>302325</v>
+      </c>
+      <c r="N23">
+        <v>5040</v>
+      </c>
+      <c r="O23">
+        <v>3000</v>
+      </c>
+      <c r="P23">
+        <v>926</v>
+      </c>
+      <c r="Q23">
+        <v>18000</v>
+      </c>
+      <c r="R23">
+        <v>28074</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>247285</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="5"/>
+        <v>4594510</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B24">
@@ -1381,17 +1891,43 @@
         <v>254843</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4849353</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>309883</v>
+      </c>
+      <c r="N24">
+        <v>5040</v>
+      </c>
+      <c r="O24">
+        <v>3000</v>
+      </c>
+      <c r="P24">
+        <v>926</v>
+      </c>
+      <c r="Q24">
+        <v>18000</v>
+      </c>
+      <c r="R24">
+        <v>28074</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>254843</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="5"/>
+        <v>4849353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B25">
@@ -1420,17 +1956,43 @@
         <v>262590</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5111943</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>317630</v>
+      </c>
+      <c r="N25">
+        <v>5040</v>
+      </c>
+      <c r="O25">
+        <v>3000</v>
+      </c>
+      <c r="P25">
+        <v>926</v>
+      </c>
+      <c r="Q25">
+        <v>18000</v>
+      </c>
+      <c r="R25">
+        <v>28074</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>262590</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="5"/>
+        <v>5111943</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B26">
@@ -1459,17 +2021,43 @@
         <v>270531</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5382474</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>325571</v>
+      </c>
+      <c r="N26">
+        <v>5040</v>
+      </c>
+      <c r="O26">
+        <v>3000</v>
+      </c>
+      <c r="P26">
+        <v>926</v>
+      </c>
+      <c r="Q26">
+        <v>18000</v>
+      </c>
+      <c r="R26">
+        <v>28074</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>270531</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="5"/>
+        <v>5382474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B27">
@@ -1498,17 +2086,43 @@
         <v>278670</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5661144</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>333710</v>
+      </c>
+      <c r="N27">
+        <v>5040</v>
+      </c>
+      <c r="O27">
+        <v>3000</v>
+      </c>
+      <c r="P27">
+        <v>926</v>
+      </c>
+      <c r="Q27">
+        <v>18000</v>
+      </c>
+      <c r="R27">
+        <v>28074</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>278670</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="5"/>
+        <v>5661144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B28">
@@ -1537,17 +2151,43 @@
         <v>287013</v>
       </c>
       <c r="K28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5948157</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>342053</v>
+      </c>
+      <c r="N28">
+        <v>5040</v>
+      </c>
+      <c r="O28">
+        <v>3000</v>
+      </c>
+      <c r="P28">
+        <v>926</v>
+      </c>
+      <c r="Q28">
+        <v>18000</v>
+      </c>
+      <c r="R28">
+        <v>28074</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>287013</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="5"/>
+        <v>5948157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B29">
@@ -1576,17 +2216,43 @@
         <v>295564</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6243721</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>350604</v>
+      </c>
+      <c r="N29">
+        <v>5040</v>
+      </c>
+      <c r="O29">
+        <v>3000</v>
+      </c>
+      <c r="P29">
+        <v>926</v>
+      </c>
+      <c r="Q29">
+        <v>18000</v>
+      </c>
+      <c r="R29">
+        <v>28074</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>295564</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="5"/>
+        <v>6243721</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B30">
@@ -1615,17 +2281,43 @@
         <v>304329</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6548050</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>359369</v>
+      </c>
+      <c r="N30">
+        <v>5040</v>
+      </c>
+      <c r="O30">
+        <v>3000</v>
+      </c>
+      <c r="P30">
+        <v>926</v>
+      </c>
+      <c r="Q30">
+        <v>18000</v>
+      </c>
+      <c r="R30">
+        <v>28074</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>304329</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="5"/>
+        <v>6548050</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B31">
@@ -1654,17 +2346,43 @@
         <v>313313</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6861363</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>368353</v>
+      </c>
+      <c r="N31">
+        <v>5040</v>
+      </c>
+      <c r="O31">
+        <v>3000</v>
+      </c>
+      <c r="P31">
+        <v>926</v>
+      </c>
+      <c r="Q31">
+        <v>18000</v>
+      </c>
+      <c r="R31">
+        <v>28074</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>313313</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="5"/>
+        <v>6861363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B32">
@@ -1693,17 +2411,43 @@
         <v>830535</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7691898</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>377562</v>
+      </c>
+      <c r="N32">
+        <v>5040</v>
+      </c>
+      <c r="O32">
+        <v>3000</v>
+      </c>
+      <c r="P32">
+        <v>926</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>28074</v>
+      </c>
+      <c r="T32">
+        <f>M32-N32-O32-P32-Q32-R32+490013</f>
+        <v>830535</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="5"/>
+        <v>7691898</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B33">
@@ -1732,17 +2476,43 @@
         <v>349961</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8041859</v>
       </c>
       <c r="L33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>387001</v>
+      </c>
+      <c r="N33">
+        <v>5040</v>
+      </c>
+      <c r="O33">
+        <v>3000</v>
+      </c>
+      <c r="P33">
+        <v>926</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>28074</v>
+      </c>
+      <c r="T33">
+        <f>M33-N33-O33-P33-Q33-R33</f>
+        <v>349961</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="5"/>
+        <v>8041859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B34">
@@ -1771,17 +2541,43 @@
         <v>359636</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8401495</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>396676</v>
+      </c>
+      <c r="N34">
+        <v>5040</v>
+      </c>
+      <c r="O34">
+        <v>3000</v>
+      </c>
+      <c r="P34">
+        <v>926</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>28074</v>
+      </c>
+      <c r="T34">
+        <f t="shared" ref="T34:T92" si="6">M34-N34-O34-P34-Q34-R34</f>
+        <v>359636</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="5"/>
+        <v>8401495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B35">
@@ -1810,17 +2606,43 @@
         <v>369553</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8771048</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>406593</v>
+      </c>
+      <c r="N35">
+        <v>5040</v>
+      </c>
+      <c r="O35">
+        <v>3000</v>
+      </c>
+      <c r="P35">
+        <v>926</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>28074</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="6"/>
+        <v>369553</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="5"/>
+        <v>8771048</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B36">
@@ -1849,17 +2671,43 @@
         <v>379718</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9150766</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>416758</v>
+      </c>
+      <c r="N36">
+        <v>5040</v>
+      </c>
+      <c r="O36">
+        <v>3000</v>
+      </c>
+      <c r="P36">
+        <v>926</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>28074</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="6"/>
+        <v>379718</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="5"/>
+        <v>9150766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B37">
@@ -1888,16 +2736,42 @@
         <v>-37040</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9113726</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>5040</v>
+      </c>
+      <c r="O37">
+        <v>3000</v>
+      </c>
+      <c r="P37">
+        <v>926</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>28074</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="6"/>
+        <v>-37040</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="5"/>
+        <v>9113726</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B38">
@@ -1929,16 +2803,45 @@
         <v>-337040</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8776686</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>5040</v>
+      </c>
+      <c r="O38">
+        <v>3000</v>
+      </c>
+      <c r="P38">
+        <v>926</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>28074</v>
+      </c>
+      <c r="S38">
+        <v>300000</v>
+      </c>
+      <c r="T38">
+        <f>M38-N38-O38-P38-Q38-R38-S38</f>
+        <v>-337040</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="5"/>
+        <v>8776686</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B39">
@@ -1970,16 +2873,45 @@
         <v>-337040</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8439646</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>5040</v>
+      </c>
+      <c r="O39">
+        <v>3000</v>
+      </c>
+      <c r="P39">
+        <v>926</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>28074</v>
+      </c>
+      <c r="S39">
+        <v>300000</v>
+      </c>
+      <c r="T39">
+        <f>M39-N39-O39-P39-Q39-R39-S39</f>
+        <v>-337040</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="5"/>
+        <v>8439646</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B40">
@@ -2008,16 +2940,42 @@
         <v>-37040</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8402606</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>5040</v>
+      </c>
+      <c r="O40">
+        <v>3000</v>
+      </c>
+      <c r="P40">
+        <v>926</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>28074</v>
+      </c>
+      <c r="T40">
+        <f t="shared" ref="T40:T98" si="7">M40-N40-O40-P40-Q40-R40</f>
+        <v>-37040</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="5"/>
+        <v>8402606</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B41">
@@ -2039,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" ref="H41:H42" si="4">28074+ROUNDUP(471523*10%, 0)</f>
+        <f t="shared" ref="H41:H42" si="8">28074+ROUNDUP(471523*10%, 0)</f>
         <v>75227</v>
       </c>
       <c r="J41">
@@ -2047,16 +3005,43 @@
         <v>-84193</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8318413</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>5040</v>
+      </c>
+      <c r="O41">
+        <v>3000</v>
+      </c>
+      <c r="P41">
+        <v>926</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" ref="R41:R42" si="9">28074+ROUNDUP(471523*10%, 0)</f>
+        <v>75227</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="7"/>
+        <v>-84193</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="5"/>
+        <v>8318413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B42">
@@ -2078,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>75227</v>
       </c>
       <c r="I42">
@@ -2096,10 +3081,41 @@
       <c r="L42" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>5040</v>
+      </c>
+      <c r="O42">
+        <v>3000</v>
+      </c>
+      <c r="P42">
+        <v>926</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <f t="shared" si="9"/>
+        <v>75227</v>
+      </c>
+      <c r="S42">
+        <f>U41*0.2</f>
+        <v>1663682.6</v>
+      </c>
+      <c r="T42" s="1">
+        <f>M42-N42-O42-P42-Q42-R42-S42</f>
+        <v>-1747875.6</v>
+      </c>
+      <c r="U42" s="1">
+        <f>ROUNDDOWN(U41+T42,0)</f>
+        <v>6570537</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B43">
@@ -2132,16 +3148,46 @@
         <v>-1588799</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" ref="K43:K57" si="5">ROUNDDOWN(K42+J43, 0)</f>
+        <f t="shared" ref="K43:K57" si="10">ROUNDDOWN(K42+J43, 0)</f>
         <v>4981738</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>495394</v>
+      </c>
+      <c r="N43">
+        <v>5040</v>
+      </c>
+      <c r="O43">
+        <v>3000</v>
+      </c>
+      <c r="P43">
+        <v>926</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <f>28074+ROUNDUP(471523*10%, 0)</f>
+        <v>75227</v>
+      </c>
+      <c r="S43">
+        <v>2000000</v>
+      </c>
+      <c r="T43" s="1">
+        <f>M43-N43-O43-P43-Q43-R43-S43</f>
+        <v>-1588799</v>
+      </c>
+      <c r="U43" s="1">
+        <f t="shared" ref="U43" si="11">ROUNDDOWN(U42+T43, 0)</f>
+        <v>4981738</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B44">
@@ -2163,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" ref="H44:H61" si="6">H43</f>
+        <f t="shared" ref="H44:H61" si="12">H43</f>
         <v>75227</v>
       </c>
       <c r="I44">
@@ -2181,10 +3227,41 @@
       <c r="L44" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>507779</v>
+      </c>
+      <c r="N44">
+        <v>5040</v>
+      </c>
+      <c r="O44">
+        <v>3000</v>
+      </c>
+      <c r="P44">
+        <v>926</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" ref="R44:R61" si="13">R43</f>
+        <v>75227</v>
+      </c>
+      <c r="S44">
+        <f>U43/2</f>
+        <v>2490869</v>
+      </c>
+      <c r="T44" s="1">
+        <f>M44-N44-O44-P44-Q44-R44-S44</f>
+        <v>-2067283</v>
+      </c>
+      <c r="U44" s="1">
+        <f>ROUNDDOWN(U43+T44, 0)</f>
+        <v>2914455</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B45">
@@ -2206,27 +3283,57 @@
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="I45">
         <v>1000000</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" ref="J45:J59" si="7">C45-D45-E45-F45-G45-H45-I45</f>
+        <f t="shared" ref="J45:J59" si="14">C45-D45-E45-F45-G45-H45-I45</f>
         <v>-563719</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2350736</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>520474</v>
+      </c>
+      <c r="N45">
+        <v>5040</v>
+      </c>
+      <c r="O45">
+        <v>3000</v>
+      </c>
+      <c r="P45">
+        <v>926</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+      <c r="S45">
+        <v>1000000</v>
+      </c>
+      <c r="T45" s="1">
+        <f t="shared" ref="T45:T59" si="15">M45-N45-O45-P45-Q45-R45-S45</f>
+        <v>-563719</v>
+      </c>
+      <c r="U45" s="1">
+        <f t="shared" ref="U45:U52" si="16">ROUNDDOWN(U44+T45, 0)</f>
+        <v>2350736</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B46" s="12">
@@ -2248,25 +3355,53 @@
         <v>0</v>
       </c>
       <c r="H46" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>449292</v>
       </c>
       <c r="K46" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2800028</v>
       </c>
       <c r="L46" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <v>533485</v>
+      </c>
+      <c r="N46" s="12">
+        <v>5040</v>
+      </c>
+      <c r="O46" s="12">
+        <v>3000</v>
+      </c>
+      <c r="P46" s="12">
+        <v>926</v>
+      </c>
+      <c r="Q46" s="12">
+        <v>0</v>
+      </c>
+      <c r="R46" s="13">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+      <c r="S46" s="12"/>
+      <c r="T46" s="13">
+        <f t="shared" si="15"/>
+        <v>449292</v>
+      </c>
+      <c r="U46" s="13">
+        <f t="shared" si="16"/>
+        <v>2800028</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B47">
@@ -2288,24 +3423,51 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>462630</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3262658</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <v>546823</v>
+      </c>
+      <c r="N47">
+        <v>5040</v>
+      </c>
+      <c r="O47">
+        <v>3000</v>
+      </c>
+      <c r="P47">
+        <v>926</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="15"/>
+        <v>462630</v>
+      </c>
+      <c r="U47" s="1">
+        <f t="shared" si="16"/>
+        <v>3262658</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B48">
@@ -2327,24 +3489,51 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>476300</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3738958</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>560493</v>
+      </c>
+      <c r="N48">
+        <v>5040</v>
+      </c>
+      <c r="O48">
+        <v>3000</v>
+      </c>
+      <c r="P48">
+        <v>926</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" si="15"/>
+        <v>476300</v>
+      </c>
+      <c r="U48" s="1">
+        <f t="shared" si="16"/>
+        <v>3738958</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B49">
@@ -2366,27 +3555,57 @@
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="I49">
         <v>1000000</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-509688</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3229270</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>574505</v>
+      </c>
+      <c r="N49">
+        <v>5040</v>
+      </c>
+      <c r="O49">
+        <v>3000</v>
+      </c>
+      <c r="P49">
+        <v>926</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+      <c r="S49">
+        <v>1000000</v>
+      </c>
+      <c r="T49" s="1">
+        <f t="shared" si="15"/>
+        <v>-509688</v>
+      </c>
+      <c r="U49" s="1">
+        <f t="shared" si="16"/>
+        <v>3229270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="B50">
@@ -2408,27 +3627,57 @@
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="I50">
         <v>1800000</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-1295325</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1933945</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <v>588868</v>
+      </c>
+      <c r="N50">
+        <v>5040</v>
+      </c>
+      <c r="O50">
+        <v>3000</v>
+      </c>
+      <c r="P50">
+        <v>926</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+      <c r="S50">
+        <v>1800000</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" si="15"/>
+        <v>-1295325</v>
+      </c>
+      <c r="U50" s="1">
+        <f t="shared" si="16"/>
+        <v>1933945</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B51">
@@ -2450,24 +3699,51 @@
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>519397</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2453342</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="15">
+        <v>603590</v>
+      </c>
+      <c r="N51">
+        <v>5040</v>
+      </c>
+      <c r="O51">
+        <v>3000</v>
+      </c>
+      <c r="P51">
+        <v>926</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" si="15"/>
+        <v>519397</v>
+      </c>
+      <c r="U51" s="1">
+        <f t="shared" si="16"/>
+        <v>2453342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B52">
@@ -2489,24 +3765,51 @@
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-84193</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2369149</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="15">
+        <v>618680</v>
+      </c>
+      <c r="N52">
+        <v>5040</v>
+      </c>
+      <c r="O52">
+        <v>3000</v>
+      </c>
+      <c r="P52">
+        <v>926</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+      <c r="T52" s="1">
+        <f t="shared" si="15"/>
+        <v>534487</v>
+      </c>
+      <c r="U52" s="1">
+        <f t="shared" si="16"/>
+        <v>2987829</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B53">
@@ -2528,14 +3831,14 @@
         <v>0</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="I53">
         <v>1800000</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-1884193</v>
       </c>
       <c r="K53" s="1">
@@ -2545,10 +3848,40 @@
       <c r="L53" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="15">
+        <v>634147</v>
+      </c>
+      <c r="N53">
+        <v>5040</v>
+      </c>
+      <c r="O53">
+        <v>3000</v>
+      </c>
+      <c r="P53">
+        <v>926</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+      <c r="S53">
+        <v>1800000</v>
+      </c>
+      <c r="T53" s="1">
+        <f t="shared" si="15"/>
+        <v>-1250046</v>
+      </c>
+      <c r="U53" s="1">
+        <f>ROUNDDOWN(U52+T53, 0)</f>
+        <v>1737783</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B54">
@@ -2570,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="I54">
@@ -2578,20 +3911,51 @@
         <v>96991.200000000012</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-181184.2</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>303771</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="15">
+        <v>650000</v>
+      </c>
+      <c r="N54">
+        <v>5040</v>
+      </c>
+      <c r="O54">
+        <v>3000</v>
+      </c>
+      <c r="P54">
+        <v>926</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+      <c r="S54">
+        <f>U53*0.2</f>
+        <v>347556.60000000003</v>
+      </c>
+      <c r="T54" s="1">
+        <f t="shared" si="15"/>
+        <v>218250.39999999997</v>
+      </c>
+      <c r="U54" s="1">
+        <f t="shared" ref="U54:U57" si="17">ROUNDDOWN(U53+T54, 0)</f>
+        <v>1956033</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="B55">
@@ -2613,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="I55">
@@ -2621,20 +3985,51 @@
         <v>32500</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-116693</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>187078</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M55" s="15">
+        <v>666250</v>
+      </c>
+      <c r="N55">
+        <v>5040</v>
+      </c>
+      <c r="O55">
+        <v>3000</v>
+      </c>
+      <c r="P55">
+        <v>926</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+      <c r="S55">
+        <f>650000*0.05</f>
+        <v>32500</v>
+      </c>
+      <c r="T55" s="1">
+        <f t="shared" si="15"/>
+        <v>549557</v>
+      </c>
+      <c r="U55" s="1">
+        <f t="shared" si="17"/>
+        <v>2505590</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="B56">
@@ -2656,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="I56">
@@ -2664,20 +4059,51 @@
         <v>1832500</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-1916693</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-1729615</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M56" s="15">
+        <v>682906</v>
+      </c>
+      <c r="N56">
+        <v>5040</v>
+      </c>
+      <c r="O56">
+        <v>3000</v>
+      </c>
+      <c r="P56">
+        <v>926</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+      <c r="S56">
+        <f>1800000+S55</f>
+        <v>1832500</v>
+      </c>
+      <c r="T56" s="1">
+        <f t="shared" si="15"/>
+        <v>-1233787</v>
+      </c>
+      <c r="U56" s="1">
+        <f t="shared" si="17"/>
+        <v>1271803</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="B57">
@@ -2699,27 +4125,51 @@
         <v>0</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-84193</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-1813808</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="15">
+        <v>699979</v>
+      </c>
+      <c r="N57">
+        <v>5040</v>
+      </c>
+      <c r="O57">
+        <v>3000</v>
+      </c>
+      <c r="P57">
+        <v>926</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+      <c r="T57" s="1">
+        <f t="shared" si="15"/>
+        <v>615786</v>
+      </c>
+      <c r="U57" s="1">
+        <f t="shared" si="17"/>
+        <v>1887589</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="B58">
@@ -2741,21 +4191,48 @@
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-84193</v>
       </c>
       <c r="K58" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1898001</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="15">
+        <v>717479</v>
+      </c>
+      <c r="N58">
+        <v>5040</v>
+      </c>
+      <c r="O58">
+        <v>3000</v>
+      </c>
+      <c r="P58">
+        <v>926</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+      <c r="T58" s="1">
+        <f t="shared" si="15"/>
+        <v>633286</v>
+      </c>
+      <c r="U58" s="11">
+        <f t="shared" ref="U58:U61" si="18">U57+T58</f>
+        <v>2520875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="B59">
@@ -2777,21 +4254,48 @@
         <v>0</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-84193</v>
       </c>
       <c r="K59" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1982194</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="15">
+        <v>735416</v>
+      </c>
+      <c r="N59">
+        <v>5040</v>
+      </c>
+      <c r="O59">
+        <v>3000</v>
+      </c>
+      <c r="P59">
+        <v>926</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+      <c r="T59" s="1">
+        <f t="shared" si="15"/>
+        <v>651223</v>
+      </c>
+      <c r="U59" s="11">
+        <f t="shared" si="18"/>
+        <v>3172098</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="B60">
@@ -2813,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="J60">
@@ -2821,13 +4325,40 @@
         <v>-84193</v>
       </c>
       <c r="K60" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2066387</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="15">
+        <v>753801</v>
+      </c>
+      <c r="N60">
+        <v>5040</v>
+      </c>
+      <c r="O60">
+        <v>3000</v>
+      </c>
+      <c r="P60">
+        <v>926</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+      <c r="T60">
+        <f t="shared" ref="T60:T118" si="19">M60-N60-O60-P60-Q60-R60</f>
+        <v>669608</v>
+      </c>
+      <c r="U60" s="11">
+        <f t="shared" si="18"/>
+        <v>3841706</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="B61">
@@ -2849,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="J61">
@@ -2857,8 +4388,35 @@
         <v>-84193</v>
       </c>
       <c r="K61" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2150580</v>
+      </c>
+      <c r="M61" s="15">
+        <v>772646</v>
+      </c>
+      <c r="N61">
+        <v>5040</v>
+      </c>
+      <c r="O61">
+        <v>3000</v>
+      </c>
+      <c r="P61">
+        <v>926</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="19"/>
+        <v>688453</v>
+      </c>
+      <c r="U61" s="11">
+        <f t="shared" si="18"/>
+        <v>4530159</v>
       </c>
     </row>
   </sheetData>
@@ -2874,9 +4432,9 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2887,7 +4445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2898,7 +4456,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -2910,7 +4468,7 @@
         <v>184500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A61" si="0">A3+1</f>
         <v>2</v>
@@ -2922,7 +4480,7 @@
         <v>189113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2934,7 +4492,7 @@
         <v>193840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2946,7 +4504,7 @@
         <v>198686</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2958,7 +4516,7 @@
         <v>203653</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2970,7 +4528,7 @@
         <v>208745</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2982,7 +4540,7 @@
         <v>213963</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2994,7 +4552,7 @@
         <v>219313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3006,7 +4564,7 @@
         <v>224795</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3018,7 +4576,7 @@
         <v>230415</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3030,7 +4588,7 @@
         <v>236176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3042,7 +4600,7 @@
         <v>242080</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3054,7 +4612,7 @@
         <v>248132</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3066,7 +4624,7 @@
         <v>254335</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3078,7 +4636,7 @@
         <v>260694</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3090,7 +4648,7 @@
         <v>267211</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3102,7 +4660,7 @@
         <v>273891</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3114,7 +4672,7 @@
         <v>280739</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3126,7 +4684,7 @@
         <v>287757</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3138,7 +4696,7 @@
         <v>294951</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3150,7 +4708,7 @@
         <v>302325</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3162,7 +4720,7 @@
         <v>309883</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3174,7 +4732,7 @@
         <v>317630</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3186,7 +4744,7 @@
         <v>325571</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3198,7 +4756,7 @@
         <v>333710</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3210,7 +4768,7 @@
         <v>342053</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3222,7 +4780,7 @@
         <v>350604</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3234,7 +4792,7 @@
         <v>359369</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3246,7 +4804,7 @@
         <v>368353</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3258,7 +4816,7 @@
         <v>377562</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3270,7 +4828,7 @@
         <v>387001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3282,7 +4840,7 @@
         <v>396676</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3294,7 +4852,7 @@
         <v>406593</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3306,7 +4864,7 @@
         <v>416758</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3318,7 +4876,7 @@
         <v>427177</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3330,7 +4888,7 @@
         <v>437856</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3342,7 +4900,7 @@
         <v>448803</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3354,7 +4912,7 @@
         <v>460023</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3366,7 +4924,7 @@
         <v>471523</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3378,7 +4936,7 @@
         <v>483311</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3390,7 +4948,7 @@
         <v>495394</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3402,7 +4960,7 @@
         <v>507779</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3414,7 +4972,7 @@
         <v>520474</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3426,7 +4984,7 @@
         <v>533485</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3438,7 +4996,7 @@
         <v>546823</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3450,7 +5008,7 @@
         <v>560493</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3462,7 +5020,7 @@
         <v>574505</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3474,7 +5032,7 @@
         <v>588868</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3486,7 +5044,7 @@
         <v>603590</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3498,7 +5056,7 @@
         <v>618680</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3510,7 +5068,7 @@
         <v>634147</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3522,7 +5080,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3534,7 +5092,7 @@
         <v>666250</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3546,7 +5104,7 @@
         <v>682906</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3558,7 +5116,7 @@
         <v>699979</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3570,7 +5128,7 @@
         <v>717479</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3582,7 +5140,7 @@
         <v>735416</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3594,7 +5152,7 @@
         <v>753801</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAE9DB5-3E2B-486F-9305-C706E59D3E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E473FE53-E41B-5841-82FC-D308FAADBA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
+    <workbookView xWindow="-23880" yWindow="500" windowWidth="23880" windowHeight="16180" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>step</t>
   </si>
@@ -100,7 +109,7 @@
     <t>mt</t>
   </si>
   <si>
-    <t>NO REtire</t>
+    <t>Not Retired</t>
   </si>
 </sst>
 </file>
@@ -110,7 +119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +130,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -224,6 +246,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,22 +564,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="77" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P50" sqref="P50"/>
+      <selection pane="topRight" activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,34 +611,34 @@
         <v>4</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>3</v>
       </c>
-      <c r="T1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -633,19 +659,25 @@
       <c r="L2" s="2">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="N2" s="16">
         <v>180000</v>
       </c>
-      <c r="T2">
-        <f>M2-N2-O2-P2-Q2-R2</f>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16">
+        <f>N2-S2-T2-U2-V2-W2</f>
         <v>180000</v>
       </c>
-      <c r="U2">
-        <f>T2</f>
+      <c r="Q2" s="16">
+        <f>P2</f>
         <v>180000</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>1</v>
@@ -671,24 +703,29 @@
         <f>L2+1</f>
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="N3" s="16">
         <v>184500</v>
       </c>
-      <c r="N3">
-        <v>5040</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T61" si="1">M3-N3-O3-P3-Q3-R3</f>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16">
+        <f>N3-S3-T3-U3-V3-W3</f>
         <v>179460</v>
       </c>
-      <c r="U3">
-        <f>U2+T3</f>
+      <c r="Q3" s="16">
+        <f>Q2+P3</f>
         <v>359460</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="S3" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <f t="shared" ref="A4:A61" si="2">A3+1</f>
+        <f t="shared" ref="A4:A61" si="1">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -708,34 +745,38 @@
         <v>181073</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K61" si="3">K3+J4</f>
+        <f t="shared" ref="K4:K61" si="2">K3+J4</f>
         <v>540533</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" ref="L4:L36" si="4">L3+1</f>
+        <f t="shared" ref="L4:L36" si="3">L3+1</f>
         <v>2</v>
       </c>
-      <c r="M4">
+      <c r="N4" s="16">
         <v>189113</v>
       </c>
-      <c r="N4">
-        <v>5040</v>
-      </c>
-      <c r="O4">
-        <v>3000</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="1"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16">
+        <f>N4-S4-T4-U4-V4-W4</f>
         <v>181073</v>
       </c>
-      <c r="U4">
-        <f t="shared" ref="U4:U41" si="5">U3+T4</f>
+      <c r="Q4" s="16">
+        <f>Q3+P4</f>
         <v>540533</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="S4" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T4" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5">
@@ -755,34 +796,38 @@
         <v>185800</v>
       </c>
       <c r="K5">
+        <f t="shared" si="2"/>
+        <v>726333</v>
+      </c>
+      <c r="L5" s="5">
         <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N5" s="16">
+        <v>193840</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16">
+        <f>N5-S5-T5-U5-V5-W5</f>
+        <v>185800</v>
+      </c>
+      <c r="Q5" s="16">
+        <f>Q4+P5</f>
         <v>726333</v>
       </c>
-      <c r="L5" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>193840</v>
-      </c>
-      <c r="N5">
-        <v>5040</v>
-      </c>
-      <c r="O5">
-        <v>3000</v>
-      </c>
-      <c r="T5">
-        <f>M5-N5-O5-P5-Q5-R5</f>
-        <v>185800</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="5"/>
-        <v>726333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="S5" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T5" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6">
@@ -805,37 +850,40 @@
         <v>189720</v>
       </c>
       <c r="K6">
+        <f t="shared" si="2"/>
+        <v>916053</v>
+      </c>
+      <c r="L6" s="6">
         <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N6" s="16">
+        <v>198686</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16">
+        <f>N6-S6-T6-U6-V6-W6</f>
+        <v>189720</v>
+      </c>
+      <c r="Q6" s="16">
+        <f>Q5+P6</f>
         <v>916053</v>
       </c>
-      <c r="L6" s="6">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>198686</v>
-      </c>
-      <c r="N6">
-        <v>5040</v>
-      </c>
-      <c r="O6">
-        <v>3000</v>
-      </c>
-      <c r="P6">
-        <v>926</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="1"/>
-        <v>189720</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="5"/>
-        <v>916053</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="S6" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T6" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U6" s="16">
+        <v>926</v>
+      </c>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7">
@@ -861,40 +909,42 @@
         <v>176687</v>
       </c>
       <c r="K7">
+        <f t="shared" si="2"/>
+        <v>1092740</v>
+      </c>
+      <c r="L7" s="7">
         <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N7" s="16">
+        <v>203653</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16">
+        <f>N7-S7-T7-U7-V7-W7</f>
+        <v>176687</v>
+      </c>
+      <c r="Q7" s="16">
+        <f>Q6+P7</f>
         <v>1092740</v>
       </c>
-      <c r="L7" s="7">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>203653</v>
-      </c>
-      <c r="N7">
-        <v>5040</v>
-      </c>
-      <c r="O7">
-        <v>3000</v>
-      </c>
-      <c r="P7">
-        <v>926</v>
-      </c>
-      <c r="Q7">
+      <c r="S7" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T7" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U7" s="16">
+        <v>926</v>
+      </c>
+      <c r="V7" s="16">
         <v>18000</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="1"/>
-        <v>176687</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="5"/>
-        <v>1092740</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W7" s="16"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8">
@@ -920,40 +970,42 @@
         <v>181779</v>
       </c>
       <c r="K8">
+        <f t="shared" si="2"/>
+        <v>1274519</v>
+      </c>
+      <c r="L8" s="8">
         <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N8" s="16">
+        <v>208745</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16">
+        <f>N8-S8-T8-U8-V8-W8</f>
+        <v>181779</v>
+      </c>
+      <c r="Q8" s="16">
+        <f>Q7+P8</f>
         <v>1274519</v>
       </c>
-      <c r="L8" s="8">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>208745</v>
-      </c>
-      <c r="N8">
-        <v>5040</v>
-      </c>
-      <c r="O8">
-        <v>3000</v>
-      </c>
-      <c r="P8">
-        <v>926</v>
-      </c>
-      <c r="Q8">
+      <c r="S8" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T8" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U8" s="16">
+        <v>926</v>
+      </c>
+      <c r="V8" s="16">
         <v>18000</v>
       </c>
-      <c r="T8">
-        <f t="shared" si="1"/>
-        <v>181779</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="5"/>
-        <v>1274519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W8" s="16"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9">
@@ -979,40 +1031,42 @@
         <v>186997</v>
       </c>
       <c r="K9">
+        <f t="shared" si="2"/>
+        <v>1461516</v>
+      </c>
+      <c r="L9" s="3">
         <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N9" s="16">
+        <v>213963</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16">
+        <f>N9-S9-T9-U9-V9-W9</f>
+        <v>186997</v>
+      </c>
+      <c r="Q9" s="16">
+        <f>Q8+P9</f>
         <v>1461516</v>
       </c>
-      <c r="L9" s="3">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="M9">
-        <v>213963</v>
-      </c>
-      <c r="N9">
-        <v>5040</v>
-      </c>
-      <c r="O9">
-        <v>3000</v>
-      </c>
-      <c r="P9">
-        <v>926</v>
-      </c>
-      <c r="Q9">
+      <c r="S9" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T9" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U9" s="16">
+        <v>926</v>
+      </c>
+      <c r="V9" s="16">
         <v>18000</v>
       </c>
-      <c r="T9">
-        <f t="shared" si="1"/>
-        <v>186997</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="5"/>
-        <v>1461516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W9" s="16"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10">
@@ -1038,40 +1092,42 @@
         <v>192347</v>
       </c>
       <c r="K10">
+        <f t="shared" si="2"/>
+        <v>1653863</v>
+      </c>
+      <c r="L10" s="9">
         <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="16">
+        <v>219313</v>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16">
+        <f>N10-S10-T10-U10-V10-W10</f>
+        <v>192347</v>
+      </c>
+      <c r="Q10" s="16">
+        <f>Q9+P10</f>
         <v>1653863</v>
       </c>
-      <c r="L10" s="9">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="M10">
-        <v>219313</v>
-      </c>
-      <c r="N10">
-        <v>5040</v>
-      </c>
-      <c r="O10">
-        <v>3000</v>
-      </c>
-      <c r="P10">
-        <v>926</v>
-      </c>
-      <c r="Q10">
+      <c r="S10" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T10" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U10" s="16">
+        <v>926</v>
+      </c>
+      <c r="V10" s="16">
         <v>18000</v>
       </c>
-      <c r="T10">
-        <f t="shared" si="1"/>
-        <v>192347</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="5"/>
-        <v>1653863</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W10" s="16"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11">
@@ -1097,40 +1153,42 @@
         <v>197829</v>
       </c>
       <c r="K11">
+        <f t="shared" si="2"/>
+        <v>1851692</v>
+      </c>
+      <c r="L11" s="5">
         <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N11" s="16">
+        <v>224795</v>
+      </c>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16">
+        <f>N11-S11-T11-U11-V11-W11</f>
+        <v>197829</v>
+      </c>
+      <c r="Q11" s="16">
+        <f>Q10+P11</f>
         <v>1851692</v>
       </c>
-      <c r="L11" s="5">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="M11">
-        <v>224795</v>
-      </c>
-      <c r="N11">
-        <v>5040</v>
-      </c>
-      <c r="O11">
-        <v>3000</v>
-      </c>
-      <c r="P11">
-        <v>926</v>
-      </c>
-      <c r="Q11">
+      <c r="S11" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T11" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U11" s="16">
+        <v>926</v>
+      </c>
+      <c r="V11" s="16">
         <v>18000</v>
       </c>
-      <c r="T11">
-        <f t="shared" si="1"/>
-        <v>197829</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="5"/>
-        <v>1851692</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W11" s="16"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12">
@@ -1156,40 +1214,42 @@
         <v>203449</v>
       </c>
       <c r="K12">
+        <f t="shared" si="2"/>
+        <v>2055141</v>
+      </c>
+      <c r="L12" s="6">
         <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N12" s="16">
+        <v>230415</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16">
+        <f>N12-S12-T12-U12-V12-W12</f>
+        <v>203449</v>
+      </c>
+      <c r="Q12" s="16">
+        <f>Q11+P12</f>
         <v>2055141</v>
       </c>
-      <c r="L12" s="6">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>230415</v>
-      </c>
-      <c r="N12">
-        <v>5040</v>
-      </c>
-      <c r="O12">
-        <v>3000</v>
-      </c>
-      <c r="P12">
-        <v>926</v>
-      </c>
-      <c r="Q12">
+      <c r="S12" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T12" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U12" s="16">
+        <v>926</v>
+      </c>
+      <c r="V12" s="16">
         <v>18000</v>
       </c>
-      <c r="T12">
-        <f t="shared" si="1"/>
-        <v>203449</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="5"/>
-        <v>2055141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W12" s="16"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13">
@@ -1215,40 +1275,42 @@
         <v>209210</v>
       </c>
       <c r="K13">
+        <f t="shared" si="2"/>
+        <v>2264351</v>
+      </c>
+      <c r="L13" s="7">
         <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="N13" s="16">
+        <v>236176</v>
+      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16">
+        <f>N13-S13-T13-U13-V13-W13</f>
+        <v>209210</v>
+      </c>
+      <c r="Q13" s="16">
+        <f>Q12+P13</f>
         <v>2264351</v>
       </c>
-      <c r="L13" s="7">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="M13">
-        <v>236176</v>
-      </c>
-      <c r="N13">
-        <v>5040</v>
-      </c>
-      <c r="O13">
-        <v>3000</v>
-      </c>
-      <c r="P13">
-        <v>926</v>
-      </c>
-      <c r="Q13">
+      <c r="S13" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T13" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U13" s="16">
+        <v>926</v>
+      </c>
+      <c r="V13" s="16">
         <v>18000</v>
       </c>
-      <c r="T13">
-        <f t="shared" si="1"/>
-        <v>209210</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="5"/>
-        <v>2264351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W13" s="16"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14">
@@ -1274,40 +1336,42 @@
         <v>215114</v>
       </c>
       <c r="K14">
+        <f t="shared" si="2"/>
+        <v>2479465</v>
+      </c>
+      <c r="L14" s="8">
         <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N14" s="16">
+        <v>242080</v>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16">
+        <f>N14-S14-T14-U14-V14-W14</f>
+        <v>215114</v>
+      </c>
+      <c r="Q14" s="16">
+        <f>Q13+P14</f>
         <v>2479465</v>
       </c>
-      <c r="L14" s="8">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="M14">
-        <v>242080</v>
-      </c>
-      <c r="N14">
-        <v>5040</v>
-      </c>
-      <c r="O14">
-        <v>3000</v>
-      </c>
-      <c r="P14">
-        <v>926</v>
-      </c>
-      <c r="Q14">
+      <c r="S14" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T14" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U14" s="16">
+        <v>926</v>
+      </c>
+      <c r="V14" s="16">
         <v>18000</v>
       </c>
-      <c r="T14">
-        <f t="shared" si="1"/>
-        <v>215114</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="5"/>
-        <v>2479465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W14" s="16"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15">
@@ -1333,40 +1397,42 @@
         <v>221166</v>
       </c>
       <c r="K15">
+        <f t="shared" si="2"/>
+        <v>2700631</v>
+      </c>
+      <c r="L15" s="3">
         <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="N15" s="16">
+        <v>248132</v>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16">
+        <f>N15-S15-T15-U15-V15-W15</f>
+        <v>221166</v>
+      </c>
+      <c r="Q15" s="16">
+        <f>Q14+P15</f>
         <v>2700631</v>
       </c>
-      <c r="L15" s="3">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="M15">
-        <v>248132</v>
-      </c>
-      <c r="N15">
-        <v>5040</v>
-      </c>
-      <c r="O15">
-        <v>3000</v>
-      </c>
-      <c r="P15">
-        <v>926</v>
-      </c>
-      <c r="Q15">
+      <c r="S15" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T15" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U15" s="16">
+        <v>926</v>
+      </c>
+      <c r="V15" s="16">
         <v>18000</v>
       </c>
-      <c r="T15">
-        <f t="shared" si="1"/>
-        <v>221166</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="5"/>
-        <v>2700631</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W15" s="16"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16">
@@ -1392,40 +1458,42 @@
         <v>227369</v>
       </c>
       <c r="K16">
+        <f t="shared" si="2"/>
+        <v>2928000</v>
+      </c>
+      <c r="L16" s="9">
         <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="N16" s="16">
+        <v>254335</v>
+      </c>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16">
+        <f>N16-S16-T16-U16-V16-W16</f>
+        <v>227369</v>
+      </c>
+      <c r="Q16" s="16">
+        <f>Q15+P16</f>
         <v>2928000</v>
       </c>
-      <c r="L16" s="9">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="M16">
-        <v>254335</v>
-      </c>
-      <c r="N16">
-        <v>5040</v>
-      </c>
-      <c r="O16">
-        <v>3000</v>
-      </c>
-      <c r="P16">
-        <v>926</v>
-      </c>
-      <c r="Q16">
+      <c r="S16" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T16" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U16" s="16">
+        <v>926</v>
+      </c>
+      <c r="V16" s="16">
         <v>18000</v>
       </c>
-      <c r="T16">
-        <f t="shared" si="1"/>
-        <v>227369</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="5"/>
-        <v>2928000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W16" s="16"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17">
@@ -1451,40 +1519,42 @@
         <v>233728</v>
       </c>
       <c r="K17">
+        <f t="shared" si="2"/>
+        <v>3161728</v>
+      </c>
+      <c r="L17" s="5">
         <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N17" s="16">
+        <v>260694</v>
+      </c>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16">
+        <f>N17-S17-T17-U17-V17-W17</f>
+        <v>233728</v>
+      </c>
+      <c r="Q17" s="16">
+        <f>Q16+P17</f>
         <v>3161728</v>
       </c>
-      <c r="L17" s="5">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="M17">
-        <v>260694</v>
-      </c>
-      <c r="N17">
-        <v>5040</v>
-      </c>
-      <c r="O17">
-        <v>3000</v>
-      </c>
-      <c r="P17">
-        <v>926</v>
-      </c>
-      <c r="Q17">
+      <c r="S17" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T17" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U17" s="16">
+        <v>926</v>
+      </c>
+      <c r="V17" s="16">
         <v>18000</v>
       </c>
-      <c r="T17">
-        <f t="shared" si="1"/>
-        <v>233728</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="5"/>
-        <v>3161728</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W17" s="16"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18">
@@ -1510,40 +1580,42 @@
         <v>240245</v>
       </c>
       <c r="K18">
+        <f t="shared" si="2"/>
+        <v>3401973</v>
+      </c>
+      <c r="L18" s="6">
         <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="N18" s="16">
+        <v>267211</v>
+      </c>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16">
+        <f>N18-S18-T18-U18-V18-W18</f>
+        <v>240245</v>
+      </c>
+      <c r="Q18" s="16">
+        <f>Q17+P18</f>
         <v>3401973</v>
       </c>
-      <c r="L18" s="6">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="M18">
-        <v>267211</v>
-      </c>
-      <c r="N18">
-        <v>5040</v>
-      </c>
-      <c r="O18">
-        <v>3000</v>
-      </c>
-      <c r="P18">
-        <v>926</v>
-      </c>
-      <c r="Q18">
+      <c r="S18" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T18" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U18" s="16">
+        <v>926</v>
+      </c>
+      <c r="V18" s="16">
         <v>18000</v>
       </c>
-      <c r="T18">
-        <f t="shared" si="1"/>
-        <v>240245</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="5"/>
-        <v>3401973</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W18" s="16"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19">
@@ -1569,40 +1641,42 @@
         <v>246925</v>
       </c>
       <c r="K19">
+        <f t="shared" si="2"/>
+        <v>3648898</v>
+      </c>
+      <c r="L19" s="7">
         <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="N19" s="16">
+        <v>273891</v>
+      </c>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16">
+        <f>N19-S19-T19-U19-V19-W19</f>
+        <v>246925</v>
+      </c>
+      <c r="Q19" s="16">
+        <f>Q18+P19</f>
         <v>3648898</v>
       </c>
-      <c r="L19" s="7">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="M19">
-        <v>273891</v>
-      </c>
-      <c r="N19">
-        <v>5040</v>
-      </c>
-      <c r="O19">
-        <v>3000</v>
-      </c>
-      <c r="P19">
-        <v>926</v>
-      </c>
-      <c r="Q19">
+      <c r="S19" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T19" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U19" s="16">
+        <v>926</v>
+      </c>
+      <c r="V19" s="16">
         <v>18000</v>
       </c>
-      <c r="T19">
-        <f t="shared" si="1"/>
-        <v>246925</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="5"/>
-        <v>3648898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W19" s="16"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20">
@@ -1631,43 +1705,44 @@
         <v>225699</v>
       </c>
       <c r="K20">
+        <f t="shared" si="2"/>
+        <v>3874597</v>
+      </c>
+      <c r="L20" s="8">
         <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="N20" s="16">
+        <v>280739</v>
+      </c>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16">
+        <f>N20-S20-T20-U20-V20-W20</f>
+        <v>225699</v>
+      </c>
+      <c r="Q20" s="16">
+        <f>Q19+P20</f>
         <v>3874597</v>
       </c>
-      <c r="L20" s="8">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="M20">
-        <v>280739</v>
-      </c>
-      <c r="N20">
-        <v>5040</v>
-      </c>
-      <c r="O20">
-        <v>3000</v>
-      </c>
-      <c r="P20">
-        <v>926</v>
-      </c>
-      <c r="Q20">
+      <c r="S20" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T20" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U20" s="16">
+        <v>926</v>
+      </c>
+      <c r="V20" s="16">
         <v>18000</v>
       </c>
-      <c r="R20">
+      <c r="W20" s="16">
         <v>28074</v>
       </c>
-      <c r="T20">
-        <f t="shared" si="1"/>
-        <v>225699</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="5"/>
-        <v>3874597</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21">
@@ -1696,43 +1771,44 @@
         <v>232717</v>
       </c>
       <c r="K21">
+        <f t="shared" si="2"/>
+        <v>4107314</v>
+      </c>
+      <c r="L21" s="3">
         <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="N21" s="16">
+        <v>287757</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16">
+        <f>N21-S21-T21-U21-V21-W21</f>
+        <v>232717</v>
+      </c>
+      <c r="Q21" s="16">
+        <f>Q20+P21</f>
         <v>4107314</v>
       </c>
-      <c r="L21" s="3">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="M21">
-        <v>287757</v>
-      </c>
-      <c r="N21">
-        <v>5040</v>
-      </c>
-      <c r="O21">
-        <v>3000</v>
-      </c>
-      <c r="P21">
-        <v>926</v>
-      </c>
-      <c r="Q21">
+      <c r="S21" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T21" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U21" s="16">
+        <v>926</v>
+      </c>
+      <c r="V21" s="16">
         <v>18000</v>
       </c>
-      <c r="R21">
+      <c r="W21" s="16">
         <v>28074</v>
       </c>
-      <c r="T21">
-        <f t="shared" si="1"/>
-        <v>232717</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="5"/>
-        <v>4107314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22">
@@ -1761,43 +1837,44 @@
         <v>239911</v>
       </c>
       <c r="K22">
+        <f t="shared" si="2"/>
+        <v>4347225</v>
+      </c>
+      <c r="L22" s="9">
         <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="N22" s="16">
+        <v>294951</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16">
+        <f>N22-S22-T22-U22-V22-W22</f>
+        <v>239911</v>
+      </c>
+      <c r="Q22" s="16">
+        <f>Q21+P22</f>
         <v>4347225</v>
       </c>
-      <c r="L22" s="9">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="M22">
-        <v>294951</v>
-      </c>
-      <c r="N22">
-        <v>5040</v>
-      </c>
-      <c r="O22">
-        <v>3000</v>
-      </c>
-      <c r="P22">
-        <v>926</v>
-      </c>
-      <c r="Q22">
+      <c r="S22" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T22" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U22" s="16">
+        <v>926</v>
+      </c>
+      <c r="V22" s="16">
         <v>18000</v>
       </c>
-      <c r="R22">
+      <c r="W22" s="16">
         <v>28074</v>
       </c>
-      <c r="T22">
-        <f t="shared" si="1"/>
-        <v>239911</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="5"/>
-        <v>4347225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23">
@@ -1826,43 +1903,44 @@
         <v>247285</v>
       </c>
       <c r="K23">
+        <f t="shared" si="2"/>
+        <v>4594510</v>
+      </c>
+      <c r="L23" s="5">
         <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="N23" s="16">
+        <v>302325</v>
+      </c>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16">
+        <f>N23-S23-T23-U23-V23-W23</f>
+        <v>247285</v>
+      </c>
+      <c r="Q23" s="16">
+        <f>Q22+P23</f>
         <v>4594510</v>
       </c>
-      <c r="L23" s="5">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="M23">
-        <v>302325</v>
-      </c>
-      <c r="N23">
-        <v>5040</v>
-      </c>
-      <c r="O23">
-        <v>3000</v>
-      </c>
-      <c r="P23">
-        <v>926</v>
-      </c>
-      <c r="Q23">
+      <c r="S23" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T23" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U23" s="16">
+        <v>926</v>
+      </c>
+      <c r="V23" s="16">
         <v>18000</v>
       </c>
-      <c r="R23">
+      <c r="W23" s="16">
         <v>28074</v>
       </c>
-      <c r="T23">
-        <f t="shared" si="1"/>
-        <v>247285</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="5"/>
-        <v>4594510</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24">
@@ -1891,43 +1969,44 @@
         <v>254843</v>
       </c>
       <c r="K24">
+        <f t="shared" si="2"/>
+        <v>4849353</v>
+      </c>
+      <c r="L24" s="6">
         <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="N24" s="16">
+        <v>309883</v>
+      </c>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16">
+        <f>N24-S24-T24-U24-V24-W24</f>
+        <v>254843</v>
+      </c>
+      <c r="Q24" s="16">
+        <f>Q23+P24</f>
         <v>4849353</v>
       </c>
-      <c r="L24" s="6">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="M24">
-        <v>309883</v>
-      </c>
-      <c r="N24">
-        <v>5040</v>
-      </c>
-      <c r="O24">
-        <v>3000</v>
-      </c>
-      <c r="P24">
-        <v>926</v>
-      </c>
-      <c r="Q24">
+      <c r="S24" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T24" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U24" s="16">
+        <v>926</v>
+      </c>
+      <c r="V24" s="16">
         <v>18000</v>
       </c>
-      <c r="R24">
+      <c r="W24" s="16">
         <v>28074</v>
       </c>
-      <c r="T24">
-        <f t="shared" si="1"/>
-        <v>254843</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="5"/>
-        <v>4849353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25">
@@ -1956,43 +2035,44 @@
         <v>262590</v>
       </c>
       <c r="K25">
+        <f t="shared" si="2"/>
+        <v>5111943</v>
+      </c>
+      <c r="L25" s="7">
         <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="N25" s="16">
+        <v>317630</v>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16">
+        <f>N25-S25-T25-U25-V25-W25</f>
+        <v>262590</v>
+      </c>
+      <c r="Q25" s="16">
+        <f>Q24+P25</f>
         <v>5111943</v>
       </c>
-      <c r="L25" s="7">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="M25">
-        <v>317630</v>
-      </c>
-      <c r="N25">
-        <v>5040</v>
-      </c>
-      <c r="O25">
-        <v>3000</v>
-      </c>
-      <c r="P25">
-        <v>926</v>
-      </c>
-      <c r="Q25">
+      <c r="S25" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T25" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U25" s="16">
+        <v>926</v>
+      </c>
+      <c r="V25" s="16">
         <v>18000</v>
       </c>
-      <c r="R25">
+      <c r="W25" s="16">
         <v>28074</v>
       </c>
-      <c r="T25">
-        <f t="shared" si="1"/>
-        <v>262590</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="5"/>
-        <v>5111943</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26">
@@ -2021,43 +2101,44 @@
         <v>270531</v>
       </c>
       <c r="K26">
+        <f t="shared" si="2"/>
+        <v>5382474</v>
+      </c>
+      <c r="L26" s="8">
         <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="N26" s="16">
+        <v>325571</v>
+      </c>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16">
+        <f>N26-S26-T26-U26-V26-W26</f>
+        <v>270531</v>
+      </c>
+      <c r="Q26" s="16">
+        <f>Q25+P26</f>
         <v>5382474</v>
       </c>
-      <c r="L26" s="8">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="M26">
-        <v>325571</v>
-      </c>
-      <c r="N26">
-        <v>5040</v>
-      </c>
-      <c r="O26">
-        <v>3000</v>
-      </c>
-      <c r="P26">
-        <v>926</v>
-      </c>
-      <c r="Q26">
+      <c r="S26" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T26" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U26" s="16">
+        <v>926</v>
+      </c>
+      <c r="V26" s="16">
         <v>18000</v>
       </c>
-      <c r="R26">
+      <c r="W26" s="16">
         <v>28074</v>
       </c>
-      <c r="T26">
-        <f t="shared" si="1"/>
-        <v>270531</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="5"/>
-        <v>5382474</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27">
@@ -2086,43 +2167,44 @@
         <v>278670</v>
       </c>
       <c r="K27">
+        <f t="shared" si="2"/>
+        <v>5661144</v>
+      </c>
+      <c r="L27" s="3">
         <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="N27" s="16">
+        <v>333710</v>
+      </c>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16">
+        <f>N27-S27-T27-U27-V27-W27</f>
+        <v>278670</v>
+      </c>
+      <c r="Q27" s="16">
+        <f>Q26+P27</f>
         <v>5661144</v>
       </c>
-      <c r="L27" s="3">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="M27">
-        <v>333710</v>
-      </c>
-      <c r="N27">
-        <v>5040</v>
-      </c>
-      <c r="O27">
-        <v>3000</v>
-      </c>
-      <c r="P27">
-        <v>926</v>
-      </c>
-      <c r="Q27">
+      <c r="S27" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T27" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U27" s="16">
+        <v>926</v>
+      </c>
+      <c r="V27" s="16">
         <v>18000</v>
       </c>
-      <c r="R27">
+      <c r="W27" s="16">
         <v>28074</v>
       </c>
-      <c r="T27">
-        <f t="shared" si="1"/>
-        <v>278670</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="5"/>
-        <v>5661144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28">
@@ -2151,43 +2233,44 @@
         <v>287013</v>
       </c>
       <c r="K28">
+        <f t="shared" si="2"/>
+        <v>5948157</v>
+      </c>
+      <c r="L28" s="9">
         <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="N28" s="16">
+        <v>342053</v>
+      </c>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16">
+        <f>N28-S28-T28-U28-V28-W28</f>
+        <v>287013</v>
+      </c>
+      <c r="Q28" s="16">
+        <f>Q27+P28</f>
         <v>5948157</v>
       </c>
-      <c r="L28" s="9">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="M28">
-        <v>342053</v>
-      </c>
-      <c r="N28">
-        <v>5040</v>
-      </c>
-      <c r="O28">
-        <v>3000</v>
-      </c>
-      <c r="P28">
-        <v>926</v>
-      </c>
-      <c r="Q28">
+      <c r="S28" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T28" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U28" s="16">
+        <v>926</v>
+      </c>
+      <c r="V28" s="16">
         <v>18000</v>
       </c>
-      <c r="R28">
+      <c r="W28" s="16">
         <v>28074</v>
       </c>
-      <c r="T28">
-        <f t="shared" si="1"/>
-        <v>287013</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="5"/>
-        <v>5948157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29">
@@ -2216,43 +2299,44 @@
         <v>295564</v>
       </c>
       <c r="K29">
+        <f t="shared" si="2"/>
+        <v>6243721</v>
+      </c>
+      <c r="L29" s="5">
         <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="N29" s="16">
+        <v>350604</v>
+      </c>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16">
+        <f>N29-S29-T29-U29-V29-W29</f>
+        <v>295564</v>
+      </c>
+      <c r="Q29" s="16">
+        <f>Q28+P29</f>
         <v>6243721</v>
       </c>
-      <c r="L29" s="5">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="M29">
-        <v>350604</v>
-      </c>
-      <c r="N29">
-        <v>5040</v>
-      </c>
-      <c r="O29">
-        <v>3000</v>
-      </c>
-      <c r="P29">
-        <v>926</v>
-      </c>
-      <c r="Q29">
+      <c r="S29" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T29" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U29" s="16">
+        <v>926</v>
+      </c>
+      <c r="V29" s="16">
         <v>18000</v>
       </c>
-      <c r="R29">
+      <c r="W29" s="16">
         <v>28074</v>
       </c>
-      <c r="T29">
-        <f t="shared" si="1"/>
-        <v>295564</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="5"/>
-        <v>6243721</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30">
@@ -2281,43 +2365,44 @@
         <v>304329</v>
       </c>
       <c r="K30">
+        <f t="shared" si="2"/>
+        <v>6548050</v>
+      </c>
+      <c r="L30" s="6">
         <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="N30" s="16">
+        <v>359369</v>
+      </c>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16">
+        <f>N30-S30-T30-U30-V30-W30</f>
+        <v>304329</v>
+      </c>
+      <c r="Q30" s="16">
+        <f>Q29+P30</f>
         <v>6548050</v>
       </c>
-      <c r="L30" s="6">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="M30">
-        <v>359369</v>
-      </c>
-      <c r="N30">
-        <v>5040</v>
-      </c>
-      <c r="O30">
-        <v>3000</v>
-      </c>
-      <c r="P30">
-        <v>926</v>
-      </c>
-      <c r="Q30">
+      <c r="S30" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T30" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U30" s="16">
+        <v>926</v>
+      </c>
+      <c r="V30" s="16">
         <v>18000</v>
       </c>
-      <c r="R30">
+      <c r="W30" s="16">
         <v>28074</v>
       </c>
-      <c r="T30">
-        <f t="shared" si="1"/>
-        <v>304329</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="5"/>
-        <v>6548050</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31">
@@ -2346,43 +2431,44 @@
         <v>313313</v>
       </c>
       <c r="K31">
+        <f t="shared" si="2"/>
+        <v>6861363</v>
+      </c>
+      <c r="L31" s="7">
         <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="N31" s="16">
+        <v>368353</v>
+      </c>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16">
+        <f>N31-S31-T31-U31-V31-W31</f>
+        <v>313313</v>
+      </c>
+      <c r="Q31" s="16">
+        <f>Q30+P31</f>
         <v>6861363</v>
       </c>
-      <c r="L31" s="7">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="M31">
-        <v>368353</v>
-      </c>
-      <c r="N31">
-        <v>5040</v>
-      </c>
-      <c r="O31">
-        <v>3000</v>
-      </c>
-      <c r="P31">
-        <v>926</v>
-      </c>
-      <c r="Q31">
+      <c r="S31" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T31" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U31" s="16">
+        <v>926</v>
+      </c>
+      <c r="V31" s="16">
         <v>18000</v>
       </c>
-      <c r="R31">
+      <c r="W31" s="16">
         <v>28074</v>
       </c>
-      <c r="T31">
-        <f t="shared" si="1"/>
-        <v>313313</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="5"/>
-        <v>6861363</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32">
@@ -2411,43 +2497,44 @@
         <v>830535</v>
       </c>
       <c r="K32">
+        <f t="shared" si="2"/>
+        <v>7691898</v>
+      </c>
+      <c r="L32" s="3">
         <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="N32" s="16">
+        <v>377562</v>
+      </c>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16">
+        <f>N32-S32-T32-U32-V32-W32+490013</f>
+        <v>830535</v>
+      </c>
+      <c r="Q32" s="16">
+        <f>Q31+P32</f>
         <v>7691898</v>
       </c>
-      <c r="L32" s="3">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="M32">
-        <v>377562</v>
-      </c>
-      <c r="N32">
-        <v>5040</v>
-      </c>
-      <c r="O32">
-        <v>3000</v>
-      </c>
-      <c r="P32">
-        <v>926</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
+      <c r="S32" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T32" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U32" s="16">
+        <v>926</v>
+      </c>
+      <c r="V32" s="16">
+        <v>0</v>
+      </c>
+      <c r="W32" s="16">
         <v>28074</v>
       </c>
-      <c r="T32">
-        <f>M32-N32-O32-P32-Q32-R32+490013</f>
-        <v>830535</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="5"/>
-        <v>7691898</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33">
@@ -2476,43 +2563,44 @@
         <v>349961</v>
       </c>
       <c r="K33">
+        <f t="shared" si="2"/>
+        <v>8041859</v>
+      </c>
+      <c r="L33" s="9">
         <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="N33" s="16">
+        <v>387001</v>
+      </c>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16">
+        <f>N33-S33-T33-U33-V33-W33</f>
+        <v>349961</v>
+      </c>
+      <c r="Q33" s="16">
+        <f>Q32+P33</f>
         <v>8041859</v>
       </c>
-      <c r="L33" s="9">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="M33">
-        <v>387001</v>
-      </c>
-      <c r="N33">
-        <v>5040</v>
-      </c>
-      <c r="O33">
-        <v>3000</v>
-      </c>
-      <c r="P33">
-        <v>926</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
+      <c r="S33" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T33" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U33" s="16">
+        <v>926</v>
+      </c>
+      <c r="V33" s="16">
+        <v>0</v>
+      </c>
+      <c r="W33" s="16">
         <v>28074</v>
       </c>
-      <c r="T33">
-        <f>M33-N33-O33-P33-Q33-R33</f>
-        <v>349961</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="5"/>
-        <v>8041859</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34">
@@ -2541,43 +2629,44 @@
         <v>359636</v>
       </c>
       <c r="K34">
+        <f t="shared" si="2"/>
+        <v>8401495</v>
+      </c>
+      <c r="L34" s="5">
         <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="N34" s="16">
+        <v>396676</v>
+      </c>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16">
+        <f>N34-S34-T34-U34-V34-W34</f>
+        <v>359636</v>
+      </c>
+      <c r="Q34" s="16">
+        <f>Q33+P34</f>
         <v>8401495</v>
       </c>
-      <c r="L34" s="5">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="M34">
-        <v>396676</v>
-      </c>
-      <c r="N34">
-        <v>5040</v>
-      </c>
-      <c r="O34">
-        <v>3000</v>
-      </c>
-      <c r="P34">
-        <v>926</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
+      <c r="S34" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T34" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U34" s="16">
+        <v>926</v>
+      </c>
+      <c r="V34" s="16">
+        <v>0</v>
+      </c>
+      <c r="W34" s="16">
         <v>28074</v>
       </c>
-      <c r="T34">
-        <f t="shared" ref="T34:T92" si="6">M34-N34-O34-P34-Q34-R34</f>
-        <v>359636</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="5"/>
-        <v>8401495</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35">
@@ -2606,43 +2695,44 @@
         <v>369553</v>
       </c>
       <c r="K35">
+        <f t="shared" si="2"/>
+        <v>8771048</v>
+      </c>
+      <c r="L35" s="6">
         <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="N35" s="16">
+        <v>406593</v>
+      </c>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16">
+        <f>N35-S35-T35-U35-V35-W35</f>
+        <v>369553</v>
+      </c>
+      <c r="Q35" s="16">
+        <f>Q34+P35</f>
         <v>8771048</v>
       </c>
-      <c r="L35" s="6">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="M35">
-        <v>406593</v>
-      </c>
-      <c r="N35">
-        <v>5040</v>
-      </c>
-      <c r="O35">
-        <v>3000</v>
-      </c>
-      <c r="P35">
-        <v>926</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
+      <c r="S35" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T35" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U35" s="16">
+        <v>926</v>
+      </c>
+      <c r="V35" s="16">
+        <v>0</v>
+      </c>
+      <c r="W35" s="16">
         <v>28074</v>
       </c>
-      <c r="T35">
-        <f t="shared" si="6"/>
-        <v>369553</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="5"/>
-        <v>8771048</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36">
@@ -2671,43 +2761,44 @@
         <v>379718</v>
       </c>
       <c r="K36">
+        <f t="shared" si="2"/>
+        <v>9150766</v>
+      </c>
+      <c r="L36" s="7">
         <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="N36" s="16">
+        <v>416758</v>
+      </c>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16">
+        <f>N36-S36-T36-U36-V36-W36</f>
+        <v>379718</v>
+      </c>
+      <c r="Q36" s="16">
+        <f>Q35+P36</f>
         <v>9150766</v>
       </c>
-      <c r="L36" s="7">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="M36">
-        <v>416758</v>
-      </c>
-      <c r="N36">
-        <v>5040</v>
-      </c>
-      <c r="O36">
-        <v>3000</v>
-      </c>
-      <c r="P36">
-        <v>926</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
+      <c r="S36" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T36" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U36" s="16">
+        <v>926</v>
+      </c>
+      <c r="V36" s="16">
+        <v>0</v>
+      </c>
+      <c r="W36" s="16">
         <v>28074</v>
       </c>
-      <c r="T36">
-        <f t="shared" si="6"/>
-        <v>379718</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="5"/>
-        <v>9150766</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37">
@@ -2736,42 +2827,43 @@
         <v>-37040</v>
       </c>
       <c r="K37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9113726</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>5040</v>
-      </c>
-      <c r="O37">
-        <v>3000</v>
-      </c>
-      <c r="P37">
-        <v>926</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
+      <c r="N37" s="16">
+        <v>0</v>
+      </c>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16">
+        <f>N37-S37-T37-U37-V37-W37</f>
+        <v>-37040</v>
+      </c>
+      <c r="Q37" s="16">
+        <f>Q36+P37</f>
+        <v>9113726</v>
+      </c>
+      <c r="S37" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T37" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U37" s="16">
+        <v>926</v>
+      </c>
+      <c r="V37" s="16">
+        <v>0</v>
+      </c>
+      <c r="W37" s="16">
         <v>28074</v>
       </c>
-      <c r="T37">
-        <f t="shared" si="6"/>
-        <v>-37040</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="5"/>
-        <v>9113726</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38">
@@ -2803,45 +2895,45 @@
         <v>-337040</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8776686</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>5040</v>
-      </c>
-      <c r="O38">
-        <v>3000</v>
-      </c>
-      <c r="P38">
-        <v>926</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
+      <c r="N38" s="16">
+        <v>0</v>
+      </c>
+      <c r="O38" s="16">
+        <v>300000</v>
+      </c>
+      <c r="P38" s="16">
+        <f>N38-S38-T38-U38-V38-W38-O38</f>
+        <v>-337040</v>
+      </c>
+      <c r="Q38" s="16">
+        <f>Q37+P38</f>
+        <v>8776686</v>
+      </c>
+      <c r="S38" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T38" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U38" s="16">
+        <v>926</v>
+      </c>
+      <c r="V38" s="16">
+        <v>0</v>
+      </c>
+      <c r="W38" s="16">
         <v>28074</v>
       </c>
-      <c r="S38">
-        <v>300000</v>
-      </c>
-      <c r="T38">
-        <f>M38-N38-O38-P38-Q38-R38-S38</f>
-        <v>-337040</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="5"/>
-        <v>8776686</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39">
@@ -2873,45 +2965,45 @@
         <v>-337040</v>
       </c>
       <c r="K39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8439646</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>5040</v>
-      </c>
-      <c r="O39">
-        <v>3000</v>
-      </c>
-      <c r="P39">
-        <v>926</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
+      <c r="N39" s="16">
+        <v>0</v>
+      </c>
+      <c r="O39" s="16">
+        <v>300000</v>
+      </c>
+      <c r="P39" s="16">
+        <f>N39-S39-T39-U39-V39-W39-O39</f>
+        <v>-337040</v>
+      </c>
+      <c r="Q39" s="16">
+        <f>Q38+P39</f>
+        <v>8439646</v>
+      </c>
+      <c r="S39" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T39" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U39" s="16">
+        <v>926</v>
+      </c>
+      <c r="V39" s="16">
+        <v>0</v>
+      </c>
+      <c r="W39" s="16">
         <v>28074</v>
       </c>
-      <c r="S39">
-        <v>300000</v>
-      </c>
-      <c r="T39">
-        <f>M39-N39-O39-P39-Q39-R39-S39</f>
-        <v>-337040</v>
-      </c>
-      <c r="U39">
-        <f t="shared" si="5"/>
-        <v>8439646</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40">
@@ -2940,42 +3032,43 @@
         <v>-37040</v>
       </c>
       <c r="K40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8402606</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>5040</v>
-      </c>
-      <c r="O40">
-        <v>3000</v>
-      </c>
-      <c r="P40">
-        <v>926</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
+      <c r="N40" s="16">
+        <v>0</v>
+      </c>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16">
+        <f>N40-S40-T40-U40-V40-W40</f>
+        <v>-37040</v>
+      </c>
+      <c r="Q40" s="16">
+        <f>Q39+P40</f>
+        <v>8402606</v>
+      </c>
+      <c r="S40" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T40" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U40" s="16">
+        <v>926</v>
+      </c>
+      <c r="V40" s="16">
+        <v>0</v>
+      </c>
+      <c r="W40" s="16">
         <v>28074</v>
       </c>
-      <c r="T40">
-        <f t="shared" ref="T40:T98" si="7">M40-N40-O40-P40-Q40-R40</f>
-        <v>-37040</v>
-      </c>
-      <c r="U40">
-        <f t="shared" si="5"/>
-        <v>8402606</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41">
@@ -2997,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" ref="H41:H42" si="8">28074+ROUNDUP(471523*10%, 0)</f>
+        <f t="shared" ref="H41:H42" si="4">28074+ROUNDUP(471523*10%, 0)</f>
         <v>75227</v>
       </c>
       <c r="J41">
@@ -3005,43 +3098,44 @@
         <v>-84193</v>
       </c>
       <c r="K41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8318413</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>5040</v>
-      </c>
-      <c r="O41">
-        <v>3000</v>
-      </c>
-      <c r="P41">
-        <v>926</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41" s="1">
-        <f t="shared" ref="R41:R42" si="9">28074+ROUNDUP(471523*10%, 0)</f>
+      <c r="N41" s="16">
+        <v>0</v>
+      </c>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16">
+        <f>N41-S41-T41-U41-V41-W41</f>
+        <v>-84193</v>
+      </c>
+      <c r="Q41" s="16">
+        <f>Q40+P41</f>
+        <v>8318413</v>
+      </c>
+      <c r="S41" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T41" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U41" s="16">
+        <v>926</v>
+      </c>
+      <c r="V41" s="16">
+        <v>0</v>
+      </c>
+      <c r="W41" s="17">
+        <f t="shared" ref="W41:W42" si="5">28074+ROUNDUP(471523*10%, 0)</f>
         <v>75227</v>
       </c>
-      <c r="T41">
-        <f t="shared" si="7"/>
-        <v>-84193</v>
-      </c>
-      <c r="U41">
-        <f t="shared" si="5"/>
-        <v>8318413</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42">
@@ -3063,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>75227</v>
       </c>
       <c r="I42">
@@ -3081,41 +3175,41 @@
       <c r="L42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>5040</v>
-      </c>
-      <c r="O42">
-        <v>3000</v>
-      </c>
-      <c r="P42">
-        <v>926</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42" s="1">
-        <f t="shared" si="9"/>
+      <c r="N42" s="16">
+        <v>0</v>
+      </c>
+      <c r="O42" s="16">
+        <f>Q41*0.2</f>
+        <v>1663682.6</v>
+      </c>
+      <c r="P42" s="17">
+        <f>N42-S42-T42-U42-V42-W42-O42</f>
+        <v>-1747875.6</v>
+      </c>
+      <c r="Q42" s="17">
+        <f>ROUNDDOWN(Q41+P42,0)</f>
+        <v>6570537</v>
+      </c>
+      <c r="S42" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T42" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U42" s="16">
+        <v>926</v>
+      </c>
+      <c r="V42" s="16">
+        <v>0</v>
+      </c>
+      <c r="W42" s="17">
+        <f t="shared" si="5"/>
         <v>75227</v>
       </c>
-      <c r="S42">
-        <f>U41*0.2</f>
-        <v>1663682.6</v>
-      </c>
-      <c r="T42" s="1">
-        <f>M42-N42-O42-P42-Q42-R42-S42</f>
-        <v>-1747875.6</v>
-      </c>
-      <c r="U42" s="1">
-        <f>ROUNDDOWN(U41+T42,0)</f>
-        <v>6570537</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43">
@@ -3148,46 +3242,46 @@
         <v>-1588799</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" ref="K43:K57" si="10">ROUNDDOWN(K42+J43, 0)</f>
+        <f t="shared" ref="K43:K57" si="6">ROUNDDOWN(K42+J43, 0)</f>
         <v>4981738</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M43">
+      <c r="N43" s="16">
         <v>495394</v>
       </c>
-      <c r="N43">
-        <v>5040</v>
-      </c>
-      <c r="O43">
-        <v>3000</v>
-      </c>
-      <c r="P43">
-        <v>926</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43" s="1">
+      <c r="O43" s="16">
+        <v>2000000</v>
+      </c>
+      <c r="P43" s="17">
+        <f>N43-S43-T43-U43-V43-W43-O43</f>
+        <v>-1588799</v>
+      </c>
+      <c r="Q43" s="17">
+        <f>ROUNDDOWN(Q42+P43, 0)</f>
+        <v>4981738</v>
+      </c>
+      <c r="S43" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T43" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U43" s="16">
+        <v>926</v>
+      </c>
+      <c r="V43" s="16">
+        <v>0</v>
+      </c>
+      <c r="W43" s="17">
         <f>28074+ROUNDUP(471523*10%, 0)</f>
         <v>75227</v>
       </c>
-      <c r="S43">
-        <v>2000000</v>
-      </c>
-      <c r="T43" s="1">
-        <f>M43-N43-O43-P43-Q43-R43-S43</f>
-        <v>-1588799</v>
-      </c>
-      <c r="U43" s="1">
-        <f t="shared" ref="U43" si="11">ROUNDDOWN(U42+T43, 0)</f>
-        <v>4981738</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44">
@@ -3209,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" ref="H44:H61" si="12">H43</f>
+        <f t="shared" ref="H44:H61" si="7">H43</f>
         <v>75227</v>
       </c>
       <c r="I44">
@@ -3227,41 +3321,41 @@
       <c r="L44" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M44">
+      <c r="N44" s="16">
         <v>507779</v>
       </c>
-      <c r="N44">
-        <v>5040</v>
-      </c>
-      <c r="O44">
-        <v>3000</v>
-      </c>
-      <c r="P44">
-        <v>926</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44" s="1">
-        <f t="shared" ref="R44:R61" si="13">R43</f>
+      <c r="O44" s="16">
+        <f>Q43/2</f>
+        <v>2490869</v>
+      </c>
+      <c r="P44" s="17">
+        <f>N44-S44-T44-U44-V44-W44-O44</f>
+        <v>-2067283</v>
+      </c>
+      <c r="Q44" s="17">
+        <f>ROUNDDOWN(Q43+P44, 0)</f>
+        <v>2914455</v>
+      </c>
+      <c r="S44" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T44" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U44" s="16">
+        <v>926</v>
+      </c>
+      <c r="V44" s="16">
+        <v>0</v>
+      </c>
+      <c r="W44" s="17">
+        <f t="shared" ref="W44:W61" si="8">W43</f>
         <v>75227</v>
       </c>
-      <c r="S44">
-        <f>U43/2</f>
-        <v>2490869</v>
-      </c>
-      <c r="T44" s="1">
-        <f>M44-N44-O44-P44-Q44-R44-S44</f>
-        <v>-2067283</v>
-      </c>
-      <c r="U44" s="1">
-        <f>ROUNDDOWN(U43+T44, 0)</f>
-        <v>2914455</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45">
@@ -3283,57 +3377,57 @@
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
       <c r="I45">
         <v>1000000</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" ref="J45:J59" si="14">C45-D45-E45-F45-G45-H45-I45</f>
+        <f t="shared" ref="J45:J59" si="9">C45-D45-E45-F45-G45-H45-I45</f>
         <v>-563719</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2350736</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M45">
+      <c r="N45" s="16">
         <v>520474</v>
       </c>
-      <c r="N45">
-        <v>5040</v>
-      </c>
-      <c r="O45">
-        <v>3000</v>
-      </c>
-      <c r="P45">
-        <v>926</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45" s="1">
-        <f t="shared" si="13"/>
+      <c r="O45" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="P45" s="17">
+        <f>N45-S45-T45-U45-V45-W45-O45</f>
+        <v>-563719</v>
+      </c>
+      <c r="Q45" s="17">
+        <f>ROUNDDOWN(Q44+P45, 0)</f>
+        <v>2350736</v>
+      </c>
+      <c r="S45" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T45" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U45" s="16">
+        <v>926</v>
+      </c>
+      <c r="V45" s="16">
+        <v>0</v>
+      </c>
+      <c r="W45" s="17">
+        <f t="shared" si="8"/>
         <v>75227</v>
       </c>
-      <c r="S45">
-        <v>1000000</v>
-      </c>
-      <c r="T45" s="1">
-        <f t="shared" ref="T45:T59" si="15">M45-N45-O45-P45-Q45-R45-S45</f>
-        <v>-563719</v>
-      </c>
-      <c r="U45" s="1">
-        <f t="shared" ref="U45:U52" si="16">ROUNDDOWN(U44+T45, 0)</f>
-        <v>2350736</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" s="12">
@@ -3355,53 +3449,53 @@
         <v>0</v>
       </c>
       <c r="H46" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>449292</v>
       </c>
       <c r="K46" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2800028</v>
       </c>
       <c r="L46" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M46">
+      <c r="N46" s="18">
         <v>533485</v>
       </c>
-      <c r="N46" s="12">
-        <v>5040</v>
-      </c>
-      <c r="O46" s="12">
-        <v>3000</v>
-      </c>
-      <c r="P46" s="12">
-        <v>926</v>
-      </c>
-      <c r="Q46" s="12">
-        <v>0</v>
-      </c>
-      <c r="R46" s="13">
-        <f t="shared" si="13"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="19">
+        <f>N46-S46-T46-U46-V46-W46-O46</f>
+        <v>449292</v>
+      </c>
+      <c r="Q46" s="19">
+        <f>ROUNDDOWN(Q45+P46, 0)</f>
+        <v>2800028</v>
+      </c>
+      <c r="S46" s="18">
+        <v>5040</v>
+      </c>
+      <c r="T46" s="18">
+        <v>3000</v>
+      </c>
+      <c r="U46" s="18">
+        <v>926</v>
+      </c>
+      <c r="V46" s="18">
+        <v>0</v>
+      </c>
+      <c r="W46" s="19">
+        <f t="shared" si="8"/>
         <v>75227</v>
       </c>
-      <c r="S46" s="12"/>
-      <c r="T46" s="13">
-        <f t="shared" si="15"/>
-        <v>449292</v>
-      </c>
-      <c r="U46" s="13">
-        <f t="shared" si="16"/>
-        <v>2800028</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47">
@@ -3423,51 +3517,52 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>462630</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>3262658</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M47">
+      <c r="N47" s="16">
         <v>546823</v>
       </c>
-      <c r="N47">
-        <v>5040</v>
-      </c>
-      <c r="O47">
-        <v>3000</v>
-      </c>
-      <c r="P47">
-        <v>926</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47" s="1">
-        <f t="shared" si="13"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="17">
+        <f>N47-S47-T47-U47-V47-W47-O47</f>
+        <v>462630</v>
+      </c>
+      <c r="Q47" s="17">
+        <f>ROUNDDOWN(Q46+P47, 0)</f>
+        <v>3262658</v>
+      </c>
+      <c r="S47" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T47" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U47" s="16">
+        <v>926</v>
+      </c>
+      <c r="V47" s="16">
+        <v>0</v>
+      </c>
+      <c r="W47" s="17">
+        <f t="shared" si="8"/>
         <v>75227</v>
       </c>
-      <c r="T47" s="1">
-        <f t="shared" si="15"/>
-        <v>462630</v>
-      </c>
-      <c r="U47" s="1">
-        <f t="shared" si="16"/>
-        <v>3262658</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B48">
@@ -3489,51 +3584,52 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>476300</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>3738958</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M48">
+      <c r="N48" s="16">
         <v>560493</v>
       </c>
-      <c r="N48">
-        <v>5040</v>
-      </c>
-      <c r="O48">
-        <v>3000</v>
-      </c>
-      <c r="P48">
-        <v>926</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48" s="1">
-        <f t="shared" si="13"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="17">
+        <f>N48-S48-T48-U48-V48-W48-O48</f>
+        <v>476300</v>
+      </c>
+      <c r="Q48" s="17">
+        <f>ROUNDDOWN(Q47+P48, 0)</f>
+        <v>3738958</v>
+      </c>
+      <c r="S48" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T48" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U48" s="16">
+        <v>926</v>
+      </c>
+      <c r="V48" s="16">
+        <v>0</v>
+      </c>
+      <c r="W48" s="17">
+        <f t="shared" si="8"/>
         <v>75227</v>
       </c>
-      <c r="T48" s="1">
-        <f t="shared" si="15"/>
-        <v>476300</v>
-      </c>
-      <c r="U48" s="1">
-        <f t="shared" si="16"/>
-        <v>3738958</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B49">
@@ -3555,57 +3651,57 @@
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
       <c r="I49">
         <v>1000000</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>-509688</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>3229270</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M49">
+      <c r="N49" s="16">
         <v>574505</v>
       </c>
-      <c r="N49">
-        <v>5040</v>
-      </c>
       <c r="O49">
-        <v>3000</v>
-      </c>
-      <c r="P49">
-        <v>926</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49" s="1">
-        <f t="shared" si="13"/>
+        <v>1000000</v>
+      </c>
+      <c r="P49" s="17">
+        <f>N49-S49-T49-U49-V49-W49-O49</f>
+        <v>-509688</v>
+      </c>
+      <c r="Q49" s="17">
+        <f>ROUNDDOWN(Q48+P49, 0)</f>
+        <v>3229270</v>
+      </c>
+      <c r="S49" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T49" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U49" s="16">
+        <v>926</v>
+      </c>
+      <c r="V49" s="16">
+        <v>0</v>
+      </c>
+      <c r="W49" s="17">
+        <f t="shared" si="8"/>
         <v>75227</v>
       </c>
-      <c r="S49">
-        <v>1000000</v>
-      </c>
-      <c r="T49" s="1">
-        <f t="shared" si="15"/>
-        <v>-509688</v>
-      </c>
-      <c r="U49" s="1">
-        <f t="shared" si="16"/>
-        <v>3229270</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50">
@@ -3627,57 +3723,57 @@
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
       <c r="I50">
-        <v>1800000</v>
+        <v>720000</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="14"/>
-        <v>-1295325</v>
+        <f t="shared" si="9"/>
+        <v>-215325</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="10"/>
-        <v>1933945</v>
+        <f t="shared" si="6"/>
+        <v>3013945</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M50">
+      <c r="N50" s="16">
         <v>588868</v>
       </c>
-      <c r="N50">
-        <v>5040</v>
-      </c>
       <c r="O50">
-        <v>3000</v>
-      </c>
-      <c r="P50">
-        <v>926</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50" s="1">
-        <f t="shared" si="13"/>
+        <v>720000</v>
+      </c>
+      <c r="P50" s="17">
+        <f>N50-S50-T50-U50-V50-W50-O50</f>
+        <v>-215325</v>
+      </c>
+      <c r="Q50" s="17">
+        <f>ROUNDDOWN(Q49+P50, 0)</f>
+        <v>3013945</v>
+      </c>
+      <c r="S50" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T50" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U50" s="16">
+        <v>926</v>
+      </c>
+      <c r="V50" s="16">
+        <v>0</v>
+      </c>
+      <c r="W50" s="17">
+        <f t="shared" si="8"/>
         <v>75227</v>
       </c>
-      <c r="S50">
-        <v>1800000</v>
-      </c>
-      <c r="T50" s="1">
-        <f t="shared" si="15"/>
-        <v>-1295325</v>
-      </c>
-      <c r="U50" s="1">
-        <f t="shared" si="16"/>
-        <v>1933945</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B51">
@@ -3699,51 +3795,54 @@
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>519397</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="10"/>
-        <v>2453342</v>
+        <f t="shared" si="6"/>
+        <v>3533342</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M51" s="15">
+      <c r="M51" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="15">
         <v>603590</v>
       </c>
-      <c r="N51">
-        <v>5040</v>
-      </c>
-      <c r="O51">
-        <v>3000</v>
-      </c>
-      <c r="P51">
-        <v>926</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51" s="1">
-        <f t="shared" si="13"/>
+      <c r="P51" s="1">
+        <f>N51-S51-T51-U51-V51-W51-O51</f>
+        <v>519397</v>
+      </c>
+      <c r="Q51" s="1">
+        <f>ROUNDDOWN(Q50+P51, 0)</f>
+        <v>3533342</v>
+      </c>
+      <c r="S51">
+        <v>5040</v>
+      </c>
+      <c r="T51">
+        <v>3000</v>
+      </c>
+      <c r="U51">
+        <v>926</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
+        <f t="shared" si="8"/>
         <v>75227</v>
       </c>
-      <c r="T51" s="1">
-        <f t="shared" si="15"/>
-        <v>519397</v>
-      </c>
-      <c r="U51" s="1">
-        <f t="shared" si="16"/>
-        <v>2453342</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B52">
@@ -3765,51 +3864,51 @@
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>-84193</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="10"/>
-        <v>2369149</v>
+        <f t="shared" si="6"/>
+        <v>3449149</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M52" s="15">
+      <c r="N52" s="15">
         <v>618680</v>
       </c>
-      <c r="N52">
-        <v>5040</v>
-      </c>
-      <c r="O52">
-        <v>3000</v>
-      </c>
-      <c r="P52">
-        <v>926</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52" s="1">
-        <f t="shared" si="13"/>
+      <c r="P52" s="1">
+        <f>N52-S52-T52-U52-V52-W52-O52</f>
+        <v>534487</v>
+      </c>
+      <c r="Q52" s="1">
+        <f>ROUNDDOWN(Q51+P52, 0)</f>
+        <v>4067829</v>
+      </c>
+      <c r="S52">
+        <v>5040</v>
+      </c>
+      <c r="T52">
+        <v>3000</v>
+      </c>
+      <c r="U52">
+        <v>926</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1">
+        <f t="shared" si="8"/>
         <v>75227</v>
       </c>
-      <c r="T52" s="1">
-        <f t="shared" si="15"/>
-        <v>534487</v>
-      </c>
-      <c r="U52" s="1">
-        <f t="shared" si="16"/>
-        <v>2987829</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B53">
@@ -3831,57 +3930,57 @@
         <v>0</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
       <c r="I53">
         <v>1800000</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>-1884193</v>
       </c>
       <c r="K53" s="1">
         <f>ROUNDDOWN(K52+J53, 0)</f>
-        <v>484956</v>
+        <v>1564956</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M53" s="15">
+      <c r="N53" s="15">
         <v>634147</v>
       </c>
-      <c r="N53">
-        <v>5040</v>
-      </c>
       <c r="O53">
-        <v>3000</v>
-      </c>
-      <c r="P53">
-        <v>926</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53" s="1">
-        <f t="shared" si="13"/>
+        <v>1800000</v>
+      </c>
+      <c r="P53" s="1">
+        <f>N53-S53-T53-U53-V53-W53-O53</f>
+        <v>-1250046</v>
+      </c>
+      <c r="Q53" s="1">
+        <f>ROUNDDOWN(Q52+P53, 0)</f>
+        <v>2817783</v>
+      </c>
+      <c r="S53">
+        <v>5040</v>
+      </c>
+      <c r="T53">
+        <v>3000</v>
+      </c>
+      <c r="U53">
+        <v>926</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53" s="1">
+        <f t="shared" si="8"/>
         <v>75227</v>
       </c>
-      <c r="S53">
-        <v>1800000</v>
-      </c>
-      <c r="T53" s="1">
-        <f t="shared" si="15"/>
-        <v>-1250046</v>
-      </c>
-      <c r="U53" s="1">
-        <f>ROUNDDOWN(U52+T53, 0)</f>
-        <v>1737783</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B54">
@@ -3903,59 +4002,59 @@
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
       <c r="I54">
         <f>K53*0.2</f>
-        <v>96991.200000000012</v>
+        <v>312991.2</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="14"/>
-        <v>-181184.2</v>
+        <f t="shared" si="9"/>
+        <v>-397184.2</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="10"/>
-        <v>303771</v>
+        <f t="shared" si="6"/>
+        <v>1167771</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M54" s="15">
+      <c r="N54" s="15">
         <v>650000</v>
       </c>
-      <c r="N54">
-        <v>5040</v>
-      </c>
       <c r="O54">
-        <v>3000</v>
-      </c>
-      <c r="P54">
-        <v>926</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54" s="1">
-        <f t="shared" si="13"/>
+        <f>Q53*0.2</f>
+        <v>563556.6</v>
+      </c>
+      <c r="P54" s="1">
+        <f>N54-S54-T54-U54-V54-W54-O54</f>
+        <v>2250.4000000000233</v>
+      </c>
+      <c r="Q54" s="1">
+        <f>ROUNDDOWN(Q53+P54, 0)</f>
+        <v>2820033</v>
+      </c>
+      <c r="S54">
+        <v>5040</v>
+      </c>
+      <c r="T54">
+        <v>3000</v>
+      </c>
+      <c r="U54">
+        <v>926</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54" s="1">
+        <f t="shared" si="8"/>
         <v>75227</v>
       </c>
-      <c r="S54">
-        <f>U53*0.2</f>
-        <v>347556.60000000003</v>
-      </c>
-      <c r="T54" s="1">
-        <f t="shared" si="15"/>
-        <v>218250.39999999997</v>
-      </c>
-      <c r="U54" s="1">
-        <f t="shared" ref="U54:U57" si="17">ROUNDDOWN(U53+T54, 0)</f>
-        <v>1956033</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B55">
@@ -3977,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
       <c r="I55">
@@ -3985,51 +4084,51 @@
         <v>32500</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>-116693</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="10"/>
-        <v>187078</v>
+        <f t="shared" si="6"/>
+        <v>1051078</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M55" s="15">
+      <c r="N55" s="15">
         <v>666250</v>
       </c>
-      <c r="N55">
-        <v>5040</v>
-      </c>
       <c r="O55">
-        <v>3000</v>
-      </c>
-      <c r="P55">
-        <v>926</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55" s="1">
-        <f t="shared" si="13"/>
-        <v>75227</v>
-      </c>
-      <c r="S55">
         <f>650000*0.05</f>
         <v>32500</v>
       </c>
-      <c r="T55" s="1">
-        <f t="shared" si="15"/>
+      <c r="P55" s="1">
+        <f>N55-S55-T55-U55-V55-W55-O55</f>
         <v>549557</v>
       </c>
-      <c r="U55" s="1">
-        <f t="shared" si="17"/>
-        <v>2505590</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Q55" s="1">
+        <f>ROUNDDOWN(Q54+P55, 0)</f>
+        <v>3369590</v>
+      </c>
+      <c r="S55">
+        <v>5040</v>
+      </c>
+      <c r="T55">
+        <v>3000</v>
+      </c>
+      <c r="U55">
+        <v>926</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55" s="1">
+        <f t="shared" si="8"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B56">
@@ -4051,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
       <c r="I56">
@@ -4059,51 +4158,51 @@
         <v>1832500</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>-1916693</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="10"/>
-        <v>-1729615</v>
+        <f t="shared" si="6"/>
+        <v>-865615</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M56" s="15">
+      <c r="N56" s="15">
         <v>682906</v>
       </c>
-      <c r="N56">
-        <v>5040</v>
-      </c>
       <c r="O56">
-        <v>3000</v>
-      </c>
-      <c r="P56">
-        <v>926</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56" s="1">
-        <f t="shared" si="13"/>
+        <f>1800000+O55</f>
+        <v>1832500</v>
+      </c>
+      <c r="P56" s="1">
+        <f>N56-S56-T56-U56-V56-W56-O56</f>
+        <v>-1233787</v>
+      </c>
+      <c r="Q56" s="1">
+        <f>ROUNDDOWN(Q55+P56, 0)</f>
+        <v>2135803</v>
+      </c>
+      <c r="S56">
+        <v>5040</v>
+      </c>
+      <c r="T56">
+        <v>3000</v>
+      </c>
+      <c r="U56">
+        <v>926</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56" s="1">
+        <f t="shared" si="8"/>
         <v>75227</v>
       </c>
-      <c r="S56">
-        <f>1800000+S55</f>
-        <v>1832500</v>
-      </c>
-      <c r="T56" s="1">
-        <f t="shared" si="15"/>
-        <v>-1233787</v>
-      </c>
-      <c r="U56" s="1">
-        <f t="shared" si="17"/>
-        <v>1271803</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B57">
@@ -4125,51 +4224,51 @@
         <v>0</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>-84193</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="10"/>
-        <v>-1813808</v>
+        <f t="shared" si="6"/>
+        <v>-949808</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M57" s="15">
+      <c r="N57" s="15">
         <v>699979</v>
       </c>
-      <c r="N57">
-        <v>5040</v>
-      </c>
-      <c r="O57">
-        <v>3000</v>
-      </c>
-      <c r="P57">
-        <v>926</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57" s="1">
-        <f t="shared" si="13"/>
+      <c r="P57" s="1">
+        <f>N57-S57-T57-U57-V57-W57-O57</f>
+        <v>615786</v>
+      </c>
+      <c r="Q57" s="1">
+        <f>ROUNDDOWN(Q56+P57, 0)</f>
+        <v>2751589</v>
+      </c>
+      <c r="S57">
+        <v>5040</v>
+      </c>
+      <c r="T57">
+        <v>3000</v>
+      </c>
+      <c r="U57">
+        <v>926</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57" s="1">
+        <f t="shared" si="8"/>
         <v>75227</v>
       </c>
-      <c r="T57" s="1">
-        <f t="shared" si="15"/>
-        <v>615786</v>
-      </c>
-      <c r="U57" s="1">
-        <f t="shared" si="17"/>
-        <v>1887589</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B58">
@@ -4191,48 +4290,48 @@
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>-84193</v>
       </c>
       <c r="K58" s="11">
-        <f t="shared" si="3"/>
-        <v>-1898001</v>
-      </c>
-      <c r="M58" s="15">
+        <f t="shared" si="2"/>
+        <v>-1034001</v>
+      </c>
+      <c r="N58" s="15">
         <v>717479</v>
       </c>
-      <c r="N58">
-        <v>5040</v>
-      </c>
-      <c r="O58">
-        <v>3000</v>
-      </c>
-      <c r="P58">
-        <v>926</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58" s="1">
-        <f t="shared" si="13"/>
+      <c r="P58" s="1">
+        <f>N58-S58-T58-U58-V58-W58-O58</f>
+        <v>633286</v>
+      </c>
+      <c r="Q58" s="11">
+        <f>Q57+P58</f>
+        <v>3384875</v>
+      </c>
+      <c r="S58">
+        <v>5040</v>
+      </c>
+      <c r="T58">
+        <v>3000</v>
+      </c>
+      <c r="U58">
+        <v>926</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1">
+        <f t="shared" si="8"/>
         <v>75227</v>
       </c>
-      <c r="T58" s="1">
-        <f t="shared" si="15"/>
-        <v>633286</v>
-      </c>
-      <c r="U58" s="11">
-        <f t="shared" ref="U58:U61" si="18">U57+T58</f>
-        <v>2520875</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B59">
@@ -4254,48 +4353,48 @@
         <v>0</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>-84193</v>
       </c>
       <c r="K59" s="11">
-        <f t="shared" si="3"/>
-        <v>-1982194</v>
-      </c>
-      <c r="M59" s="15">
+        <f t="shared" si="2"/>
+        <v>-1118194</v>
+      </c>
+      <c r="N59" s="15">
         <v>735416</v>
       </c>
-      <c r="N59">
-        <v>5040</v>
-      </c>
-      <c r="O59">
-        <v>3000</v>
-      </c>
-      <c r="P59">
-        <v>926</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59" s="1">
-        <f t="shared" si="13"/>
+      <c r="P59" s="1">
+        <f>N59-S59-T59-U59-V59-W59-O59</f>
+        <v>651223</v>
+      </c>
+      <c r="Q59" s="11">
+        <f>Q58+P59</f>
+        <v>4036098</v>
+      </c>
+      <c r="S59">
+        <v>5040</v>
+      </c>
+      <c r="T59">
+        <v>3000</v>
+      </c>
+      <c r="U59">
+        <v>926</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59" s="1">
+        <f t="shared" si="8"/>
         <v>75227</v>
       </c>
-      <c r="T59" s="1">
-        <f t="shared" si="15"/>
-        <v>651223</v>
-      </c>
-      <c r="U59" s="11">
-        <f t="shared" si="18"/>
-        <v>3172098</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B60">
@@ -4317,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
       <c r="J60">
@@ -4325,40 +4424,40 @@
         <v>-84193</v>
       </c>
       <c r="K60" s="11">
-        <f t="shared" si="3"/>
-        <v>-2066387</v>
-      </c>
-      <c r="M60" s="15">
+        <f t="shared" si="2"/>
+        <v>-1202387</v>
+      </c>
+      <c r="N60" s="15">
         <v>753801</v>
       </c>
-      <c r="N60">
-        <v>5040</v>
-      </c>
-      <c r="O60">
-        <v>3000</v>
-      </c>
       <c r="P60">
-        <v>926</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60" s="1">
-        <f t="shared" si="13"/>
+        <f>N60-S60-T60-U60-V60-W60</f>
+        <v>669608</v>
+      </c>
+      <c r="Q60" s="11">
+        <f>Q59+P60</f>
+        <v>4705706</v>
+      </c>
+      <c r="S60">
+        <v>5040</v>
+      </c>
+      <c r="T60">
+        <v>3000</v>
+      </c>
+      <c r="U60">
+        <v>926</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60" s="1">
+        <f t="shared" si="8"/>
         <v>75227</v>
       </c>
-      <c r="T60">
-        <f t="shared" ref="T60:T118" si="19">M60-N60-O60-P60-Q60-R60</f>
-        <v>669608</v>
-      </c>
-      <c r="U60" s="11">
-        <f t="shared" si="18"/>
-        <v>3841706</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B61">
@@ -4380,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
       <c r="J61">
@@ -4388,38 +4487,39 @@
         <v>-84193</v>
       </c>
       <c r="K61" s="11">
-        <f t="shared" si="3"/>
-        <v>-2150580</v>
-      </c>
-      <c r="M61" s="15">
+        <f t="shared" si="2"/>
+        <v>-1286580</v>
+      </c>
+      <c r="N61" s="15">
         <v>772646</v>
       </c>
-      <c r="N61">
-        <v>5040</v>
-      </c>
-      <c r="O61">
-        <v>3000</v>
-      </c>
       <c r="P61">
-        <v>926</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61" s="1">
-        <f t="shared" si="13"/>
+        <f>N61-S61-T61-U61-V61-W61</f>
+        <v>688453</v>
+      </c>
+      <c r="Q61" s="11">
+        <f>Q60+P61</f>
+        <v>5394159</v>
+      </c>
+      <c r="S61">
+        <v>5040</v>
+      </c>
+      <c r="T61">
+        <v>3000</v>
+      </c>
+      <c r="U61">
+        <v>926</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61" s="1">
+        <f t="shared" si="8"/>
         <v>75227</v>
       </c>
-      <c r="T61">
-        <f t="shared" si="19"/>
-        <v>688453</v>
-      </c>
-      <c r="U61" s="11">
-        <f t="shared" si="18"/>
-        <v>4530159</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4432,9 +4532,9 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4445,7 +4545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4456,7 +4556,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -4468,7 +4568,7 @@
         <v>184500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A61" si="0">A3+1</f>
         <v>2</v>
@@ -4480,7 +4580,7 @@
         <v>189113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4492,7 +4592,7 @@
         <v>193840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4504,7 +4604,7 @@
         <v>198686</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4516,7 +4616,7 @@
         <v>203653</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4528,7 +4628,7 @@
         <v>208745</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4540,7 +4640,7 @@
         <v>213963</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4552,7 +4652,7 @@
         <v>219313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4564,7 +4664,7 @@
         <v>224795</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4576,7 +4676,7 @@
         <v>230415</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4588,7 +4688,7 @@
         <v>236176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4600,7 +4700,7 @@
         <v>242080</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4612,7 +4712,7 @@
         <v>248132</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4624,7 +4724,7 @@
         <v>254335</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4636,7 +4736,7 @@
         <v>260694</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4648,7 +4748,7 @@
         <v>267211</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4660,7 +4760,7 @@
         <v>273891</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4672,7 +4772,7 @@
         <v>280739</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4684,7 +4784,7 @@
         <v>287757</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4696,7 +4796,7 @@
         <v>294951</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4708,7 +4808,7 @@
         <v>302325</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4720,7 +4820,7 @@
         <v>309883</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4732,7 +4832,7 @@
         <v>317630</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4744,7 +4844,7 @@
         <v>325571</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4756,7 +4856,7 @@
         <v>333710</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4768,7 +4868,7 @@
         <v>342053</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4780,7 +4880,7 @@
         <v>350604</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4792,7 +4892,7 @@
         <v>359369</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4804,7 +4904,7 @@
         <v>368353</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4816,7 +4916,7 @@
         <v>377562</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4828,7 +4928,7 @@
         <v>387001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4840,7 +4940,7 @@
         <v>396676</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4852,7 +4952,7 @@
         <v>406593</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4864,7 +4964,7 @@
         <v>416758</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4876,7 +4976,7 @@
         <v>427177</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4888,7 +4988,7 @@
         <v>437856</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4900,7 +5000,7 @@
         <v>448803</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4912,7 +5012,7 @@
         <v>460023</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4924,7 +5024,7 @@
         <v>471523</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4936,7 +5036,7 @@
         <v>483311</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4948,7 +5048,7 @@
         <v>495394</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4960,7 +5060,7 @@
         <v>507779</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4972,7 +5072,7 @@
         <v>520474</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4984,7 +5084,7 @@
         <v>533485</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4996,7 +5096,7 @@
         <v>546823</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5008,7 +5108,7 @@
         <v>560493</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5020,7 +5120,7 @@
         <v>574505</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5032,7 +5132,7 @@
         <v>588868</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5044,7 +5144,7 @@
         <v>603590</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5056,7 +5156,7 @@
         <v>618680</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -5068,7 +5168,7 @@
         <v>634147</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -5080,7 +5180,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -5092,7 +5192,7 @@
         <v>666250</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5104,7 +5204,7 @@
         <v>682906</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -5116,7 +5216,7 @@
         <v>699979</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -5128,7 +5228,7 @@
         <v>717479</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -5140,7 +5240,7 @@
         <v>735416</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -5152,7 +5252,7 @@
         <v>753801</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E473FE53-E41B-5841-82FC-D308FAADBA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0648C697-8738-47B3-9CFB-B6F41273EF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23880" yWindow="500" windowWidth="23880" windowHeight="16180" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7360" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>step</t>
   </si>
@@ -110,6 +108,9 @@
   </si>
   <si>
     <t>Not Retired</t>
+  </si>
+  <si>
+    <t>&lt;--end</t>
   </si>
 </sst>
 </file>
@@ -566,20 +567,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="64" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q51" sqref="Q51"/>
+      <selection pane="topRight" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -664,7 +669,7 @@
       </c>
       <c r="O2" s="16"/>
       <c r="P2" s="16">
-        <f>N2-S2-T2-U2-V2-W2</f>
+        <f t="shared" ref="P2:P31" si="0">N2-S2-T2-U2-V2-W2</f>
         <v>180000</v>
       </c>
       <c r="Q2" s="16">
@@ -677,7 +682,7 @@
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>1</v>
@@ -692,7 +697,7 @@
         <v>5040</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J61" si="0">C3-D3-E3-F3-G3-H3</f>
+        <f t="shared" ref="J3:J61" si="1">C3-D3-E3-F3-G3-H3</f>
         <v>179460</v>
       </c>
       <c r="K3">
@@ -708,11 +713,11 @@
       </c>
       <c r="O3" s="16"/>
       <c r="P3" s="16">
-        <f>N3-S3-T3-U3-V3-W3</f>
+        <f t="shared" si="0"/>
         <v>179460</v>
       </c>
       <c r="Q3" s="16">
-        <f>Q2+P3</f>
+        <f t="shared" ref="Q3:Q41" si="2">Q2+P3</f>
         <v>359460</v>
       </c>
       <c r="S3" s="16">
@@ -723,9 +728,9 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <f t="shared" ref="A4:A61" si="1">A3+1</f>
+        <f t="shared" ref="A4:A61" si="3">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -741,15 +746,15 @@
         <v>3000</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>181073</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K61" si="2">K3+J4</f>
+        <f t="shared" ref="K4:K61" si="4">K3+J4</f>
         <v>540533</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" ref="L4:L36" si="3">L3+1</f>
+        <f t="shared" ref="L4:L36" si="5">L3+1</f>
         <v>2</v>
       </c>
       <c r="N4" s="16">
@@ -757,11 +762,11 @@
       </c>
       <c r="O4" s="16"/>
       <c r="P4" s="16">
-        <f>N4-S4-T4-U4-V4-W4</f>
+        <f t="shared" si="0"/>
         <v>181073</v>
       </c>
       <c r="Q4" s="16">
-        <f>Q3+P4</f>
+        <f t="shared" si="2"/>
         <v>540533</v>
       </c>
       <c r="S4" s="16">
@@ -774,9 +779,9 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B5">
@@ -792,15 +797,15 @@
         <v>3000</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>185800</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>726333</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="N5" s="16">
@@ -808,11 +813,11 @@
       </c>
       <c r="O5" s="16"/>
       <c r="P5" s="16">
-        <f>N5-S5-T5-U5-V5-W5</f>
+        <f t="shared" si="0"/>
         <v>185800</v>
       </c>
       <c r="Q5" s="16">
-        <f>Q4+P5</f>
+        <f t="shared" si="2"/>
         <v>726333</v>
       </c>
       <c r="S5" s="16">
@@ -825,9 +830,9 @@
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6">
@@ -846,29 +851,29 @@
         <v>926</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>189720</v>
       </c>
       <c r="K6">
+        <f t="shared" si="4"/>
+        <v>916053</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N6" s="16">
+        <v>198686</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16">
+        <f t="shared" si="0"/>
+        <v>189720</v>
+      </c>
+      <c r="Q6" s="16">
         <f t="shared" si="2"/>
         <v>916053</v>
       </c>
-      <c r="L6" s="6">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N6" s="16">
-        <v>198686</v>
-      </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16">
-        <f>N6-S6-T6-U6-V6-W6</f>
-        <v>189720</v>
-      </c>
-      <c r="Q6" s="16">
-        <f>Q5+P6</f>
-        <v>916053</v>
-      </c>
       <c r="S6" s="16">
         <v>5040</v>
       </c>
@@ -881,9 +886,9 @@
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7">
@@ -905,29 +910,29 @@
         <v>18000</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>176687</v>
       </c>
       <c r="K7">
+        <f t="shared" si="4"/>
+        <v>1092740</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N7" s="16">
+        <v>203653</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16">
+        <f t="shared" si="0"/>
+        <v>176687</v>
+      </c>
+      <c r="Q7" s="16">
         <f t="shared" si="2"/>
         <v>1092740</v>
       </c>
-      <c r="L7" s="7">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="N7" s="16">
-        <v>203653</v>
-      </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16">
-        <f>N7-S7-T7-U7-V7-W7</f>
-        <v>176687</v>
-      </c>
-      <c r="Q7" s="16">
-        <f>Q6+P7</f>
-        <v>1092740</v>
-      </c>
       <c r="S7" s="16">
         <v>5040</v>
       </c>
@@ -942,9 +947,9 @@
       </c>
       <c r="W7" s="16"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8">
@@ -966,29 +971,29 @@
         <v>18000</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>181779</v>
       </c>
       <c r="K8">
+        <f t="shared" si="4"/>
+        <v>1274519</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N8" s="16">
+        <v>208745</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16">
+        <f t="shared" si="0"/>
+        <v>181779</v>
+      </c>
+      <c r="Q8" s="16">
         <f t="shared" si="2"/>
         <v>1274519</v>
       </c>
-      <c r="L8" s="8">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="N8" s="16">
-        <v>208745</v>
-      </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16">
-        <f>N8-S8-T8-U8-V8-W8</f>
-        <v>181779</v>
-      </c>
-      <c r="Q8" s="16">
-        <f>Q7+P8</f>
-        <v>1274519</v>
-      </c>
       <c r="S8" s="16">
         <v>5040</v>
       </c>
@@ -1003,9 +1008,9 @@
       </c>
       <c r="W8" s="16"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9">
@@ -1027,29 +1032,29 @@
         <v>18000</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>186997</v>
       </c>
       <c r="K9">
+        <f t="shared" si="4"/>
+        <v>1461516</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N9" s="16">
+        <v>213963</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16">
+        <f t="shared" si="0"/>
+        <v>186997</v>
+      </c>
+      <c r="Q9" s="16">
         <f t="shared" si="2"/>
         <v>1461516</v>
       </c>
-      <c r="L9" s="3">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="N9" s="16">
-        <v>213963</v>
-      </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16">
-        <f>N9-S9-T9-U9-V9-W9</f>
-        <v>186997</v>
-      </c>
-      <c r="Q9" s="16">
-        <f>Q8+P9</f>
-        <v>1461516</v>
-      </c>
       <c r="S9" s="16">
         <v>5040</v>
       </c>
@@ -1064,9 +1069,9 @@
       </c>
       <c r="W9" s="16"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10">
@@ -1088,29 +1093,29 @@
         <v>18000</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>192347</v>
       </c>
       <c r="K10">
+        <f t="shared" si="4"/>
+        <v>1653863</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="16">
+        <v>219313</v>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16">
+        <f t="shared" si="0"/>
+        <v>192347</v>
+      </c>
+      <c r="Q10" s="16">
         <f t="shared" si="2"/>
         <v>1653863</v>
       </c>
-      <c r="L10" s="9">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="N10" s="16">
-        <v>219313</v>
-      </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16">
-        <f>N10-S10-T10-U10-V10-W10</f>
-        <v>192347</v>
-      </c>
-      <c r="Q10" s="16">
-        <f>Q9+P10</f>
-        <v>1653863</v>
-      </c>
       <c r="S10" s="16">
         <v>5040</v>
       </c>
@@ -1125,9 +1130,9 @@
       </c>
       <c r="W10" s="16"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11">
@@ -1149,29 +1154,29 @@
         <v>18000</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>197829</v>
       </c>
       <c r="K11">
+        <f t="shared" si="4"/>
+        <v>1851692</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N11" s="16">
+        <v>224795</v>
+      </c>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16">
+        <f t="shared" si="0"/>
+        <v>197829</v>
+      </c>
+      <c r="Q11" s="16">
         <f t="shared" si="2"/>
         <v>1851692</v>
       </c>
-      <c r="L11" s="5">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N11" s="16">
-        <v>224795</v>
-      </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16">
-        <f>N11-S11-T11-U11-V11-W11</f>
-        <v>197829</v>
-      </c>
-      <c r="Q11" s="16">
-        <f>Q10+P11</f>
-        <v>1851692</v>
-      </c>
       <c r="S11" s="16">
         <v>5040</v>
       </c>
@@ -1186,9 +1191,9 @@
       </c>
       <c r="W11" s="16"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12">
@@ -1210,29 +1215,29 @@
         <v>18000</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>203449</v>
       </c>
       <c r="K12">
+        <f t="shared" si="4"/>
+        <v>2055141</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N12" s="16">
+        <v>230415</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16">
+        <f t="shared" si="0"/>
+        <v>203449</v>
+      </c>
+      <c r="Q12" s="16">
         <f t="shared" si="2"/>
         <v>2055141</v>
       </c>
-      <c r="L12" s="6">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="N12" s="16">
-        <v>230415</v>
-      </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16">
-        <f>N12-S12-T12-U12-V12-W12</f>
-        <v>203449</v>
-      </c>
-      <c r="Q12" s="16">
-        <f>Q11+P12</f>
-        <v>2055141</v>
-      </c>
       <c r="S12" s="16">
         <v>5040</v>
       </c>
@@ -1247,9 +1252,9 @@
       </c>
       <c r="W12" s="16"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13">
@@ -1271,29 +1276,29 @@
         <v>18000</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>209210</v>
       </c>
       <c r="K13">
+        <f t="shared" si="4"/>
+        <v>2264351</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N13" s="16">
+        <v>236176</v>
+      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16">
+        <f t="shared" si="0"/>
+        <v>209210</v>
+      </c>
+      <c r="Q13" s="16">
         <f t="shared" si="2"/>
         <v>2264351</v>
       </c>
-      <c r="L13" s="7">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="N13" s="16">
-        <v>236176</v>
-      </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16">
-        <f>N13-S13-T13-U13-V13-W13</f>
-        <v>209210</v>
-      </c>
-      <c r="Q13" s="16">
-        <f>Q12+P13</f>
-        <v>2264351</v>
-      </c>
       <c r="S13" s="16">
         <v>5040</v>
       </c>
@@ -1308,9 +1313,9 @@
       </c>
       <c r="W13" s="16"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14">
@@ -1332,29 +1337,29 @@
         <v>18000</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>215114</v>
       </c>
       <c r="K14">
+        <f t="shared" si="4"/>
+        <v>2479465</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N14" s="16">
+        <v>242080</v>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16">
+        <f t="shared" si="0"/>
+        <v>215114</v>
+      </c>
+      <c r="Q14" s="16">
         <f t="shared" si="2"/>
         <v>2479465</v>
       </c>
-      <c r="L14" s="8">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="N14" s="16">
-        <v>242080</v>
-      </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16">
-        <f>N14-S14-T14-U14-V14-W14</f>
-        <v>215114</v>
-      </c>
-      <c r="Q14" s="16">
-        <f>Q13+P14</f>
-        <v>2479465</v>
-      </c>
       <c r="S14" s="16">
         <v>5040</v>
       </c>
@@ -1369,9 +1374,9 @@
       </c>
       <c r="W14" s="16"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15">
@@ -1393,29 +1398,29 @@
         <v>18000</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>221166</v>
       </c>
       <c r="K15">
+        <f t="shared" si="4"/>
+        <v>2700631</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="N15" s="16">
+        <v>248132</v>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16">
+        <f t="shared" si="0"/>
+        <v>221166</v>
+      </c>
+      <c r="Q15" s="16">
         <f t="shared" si="2"/>
         <v>2700631</v>
       </c>
-      <c r="L15" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="N15" s="16">
-        <v>248132</v>
-      </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16">
-        <f>N15-S15-T15-U15-V15-W15</f>
-        <v>221166</v>
-      </c>
-      <c r="Q15" s="16">
-        <f>Q14+P15</f>
-        <v>2700631</v>
-      </c>
       <c r="S15" s="16">
         <v>5040</v>
       </c>
@@ -1430,9 +1435,9 @@
       </c>
       <c r="W15" s="16"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16">
@@ -1454,29 +1459,29 @@
         <v>18000</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>227369</v>
       </c>
       <c r="K16">
+        <f t="shared" si="4"/>
+        <v>2928000</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N16" s="16">
+        <v>254335</v>
+      </c>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16">
+        <f t="shared" si="0"/>
+        <v>227369</v>
+      </c>
+      <c r="Q16" s="16">
         <f t="shared" si="2"/>
         <v>2928000</v>
       </c>
-      <c r="L16" s="9">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="N16" s="16">
-        <v>254335</v>
-      </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16">
-        <f>N16-S16-T16-U16-V16-W16</f>
-        <v>227369</v>
-      </c>
-      <c r="Q16" s="16">
-        <f>Q15+P16</f>
-        <v>2928000</v>
-      </c>
       <c r="S16" s="16">
         <v>5040</v>
       </c>
@@ -1491,9 +1496,9 @@
       </c>
       <c r="W16" s="16"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17">
@@ -1515,29 +1520,29 @@
         <v>18000</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>233728</v>
       </c>
       <c r="K17">
+        <f t="shared" si="4"/>
+        <v>3161728</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N17" s="16">
+        <v>260694</v>
+      </c>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16">
+        <f t="shared" si="0"/>
+        <v>233728</v>
+      </c>
+      <c r="Q17" s="16">
         <f t="shared" si="2"/>
         <v>3161728</v>
       </c>
-      <c r="L17" s="5">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="N17" s="16">
-        <v>260694</v>
-      </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16">
-        <f>N17-S17-T17-U17-V17-W17</f>
-        <v>233728</v>
-      </c>
-      <c r="Q17" s="16">
-        <f>Q16+P17</f>
-        <v>3161728</v>
-      </c>
       <c r="S17" s="16">
         <v>5040</v>
       </c>
@@ -1552,9 +1557,9 @@
       </c>
       <c r="W17" s="16"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18">
@@ -1576,29 +1581,29 @@
         <v>18000</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240245</v>
       </c>
       <c r="K18">
+        <f t="shared" si="4"/>
+        <v>3401973</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="N18" s="16">
+        <v>267211</v>
+      </c>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16">
+        <f t="shared" si="0"/>
+        <v>240245</v>
+      </c>
+      <c r="Q18" s="16">
         <f t="shared" si="2"/>
         <v>3401973</v>
       </c>
-      <c r="L18" s="6">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="N18" s="16">
-        <v>267211</v>
-      </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16">
-        <f>N18-S18-T18-U18-V18-W18</f>
-        <v>240245</v>
-      </c>
-      <c r="Q18" s="16">
-        <f>Q17+P18</f>
-        <v>3401973</v>
-      </c>
       <c r="S18" s="16">
         <v>5040</v>
       </c>
@@ -1613,9 +1618,9 @@
       </c>
       <c r="W18" s="16"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19">
@@ -1637,29 +1642,29 @@
         <v>18000</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>246925</v>
       </c>
       <c r="K19">
+        <f t="shared" si="4"/>
+        <v>3648898</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="N19" s="16">
+        <v>273891</v>
+      </c>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16">
+        <f t="shared" si="0"/>
+        <v>246925</v>
+      </c>
+      <c r="Q19" s="16">
         <f t="shared" si="2"/>
         <v>3648898</v>
       </c>
-      <c r="L19" s="7">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="N19" s="16">
-        <v>273891</v>
-      </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16">
-        <f>N19-S19-T19-U19-V19-W19</f>
-        <v>246925</v>
-      </c>
-      <c r="Q19" s="16">
-        <f>Q18+P19</f>
-        <v>3648898</v>
-      </c>
       <c r="S19" s="16">
         <v>5040</v>
       </c>
@@ -1674,9 +1679,9 @@
       </c>
       <c r="W19" s="16"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20">
@@ -1701,29 +1706,29 @@
         <v>28074</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>225699</v>
       </c>
       <c r="K20">
+        <f t="shared" si="4"/>
+        <v>3874597</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="N20" s="16">
+        <v>280739</v>
+      </c>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16">
+        <f t="shared" si="0"/>
+        <v>225699</v>
+      </c>
+      <c r="Q20" s="16">
         <f t="shared" si="2"/>
         <v>3874597</v>
       </c>
-      <c r="L20" s="8">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="N20" s="16">
-        <v>280739</v>
-      </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16">
-        <f>N20-S20-T20-U20-V20-W20</f>
-        <v>225699</v>
-      </c>
-      <c r="Q20" s="16">
-        <f>Q19+P20</f>
-        <v>3874597</v>
-      </c>
       <c r="S20" s="16">
         <v>5040</v>
       </c>
@@ -1740,9 +1745,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21">
@@ -1767,29 +1772,29 @@
         <v>28074</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>232717</v>
       </c>
       <c r="K21">
+        <f t="shared" si="4"/>
+        <v>4107314</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="N21" s="16">
+        <v>287757</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16">
+        <f t="shared" si="0"/>
+        <v>232717</v>
+      </c>
+      <c r="Q21" s="16">
         <f t="shared" si="2"/>
         <v>4107314</v>
       </c>
-      <c r="L21" s="3">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="N21" s="16">
-        <v>287757</v>
-      </c>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16">
-        <f>N21-S21-T21-U21-V21-W21</f>
-        <v>232717</v>
-      </c>
-      <c r="Q21" s="16">
-        <f>Q20+P21</f>
-        <v>4107314</v>
-      </c>
       <c r="S21" s="16">
         <v>5040</v>
       </c>
@@ -1806,9 +1811,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22">
@@ -1833,29 +1838,29 @@
         <v>28074</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>239911</v>
       </c>
       <c r="K22">
+        <f t="shared" si="4"/>
+        <v>4347225</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="N22" s="16">
+        <v>294951</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16">
+        <f t="shared" si="0"/>
+        <v>239911</v>
+      </c>
+      <c r="Q22" s="16">
         <f t="shared" si="2"/>
         <v>4347225</v>
       </c>
-      <c r="L22" s="9">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="N22" s="16">
-        <v>294951</v>
-      </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16">
-        <f>N22-S22-T22-U22-V22-W22</f>
-        <v>239911</v>
-      </c>
-      <c r="Q22" s="16">
-        <f>Q21+P22</f>
-        <v>4347225</v>
-      </c>
       <c r="S22" s="16">
         <v>5040</v>
       </c>
@@ -1872,9 +1877,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23">
@@ -1899,29 +1904,29 @@
         <v>28074</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>247285</v>
       </c>
       <c r="K23">
+        <f t="shared" si="4"/>
+        <v>4594510</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="N23" s="16">
+        <v>302325</v>
+      </c>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16">
+        <f t="shared" si="0"/>
+        <v>247285</v>
+      </c>
+      <c r="Q23" s="16">
         <f t="shared" si="2"/>
         <v>4594510</v>
       </c>
-      <c r="L23" s="5">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="N23" s="16">
-        <v>302325</v>
-      </c>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16">
-        <f>N23-S23-T23-U23-V23-W23</f>
-        <v>247285</v>
-      </c>
-      <c r="Q23" s="16">
-        <f>Q22+P23</f>
-        <v>4594510</v>
-      </c>
       <c r="S23" s="16">
         <v>5040</v>
       </c>
@@ -1938,9 +1943,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24">
@@ -1965,29 +1970,29 @@
         <v>28074</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>254843</v>
       </c>
       <c r="K24">
+        <f t="shared" si="4"/>
+        <v>4849353</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="N24" s="16">
+        <v>309883</v>
+      </c>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16">
+        <f t="shared" si="0"/>
+        <v>254843</v>
+      </c>
+      <c r="Q24" s="16">
         <f t="shared" si="2"/>
         <v>4849353</v>
       </c>
-      <c r="L24" s="6">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="N24" s="16">
-        <v>309883</v>
-      </c>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16">
-        <f>N24-S24-T24-U24-V24-W24</f>
-        <v>254843</v>
-      </c>
-      <c r="Q24" s="16">
-        <f>Q23+P24</f>
-        <v>4849353</v>
-      </c>
       <c r="S24" s="16">
         <v>5040</v>
       </c>
@@ -2004,9 +2009,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25">
@@ -2031,29 +2036,29 @@
         <v>28074</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>262590</v>
       </c>
       <c r="K25">
+        <f t="shared" si="4"/>
+        <v>5111943</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="N25" s="16">
+        <v>317630</v>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16">
+        <f t="shared" si="0"/>
+        <v>262590</v>
+      </c>
+      <c r="Q25" s="16">
         <f t="shared" si="2"/>
         <v>5111943</v>
       </c>
-      <c r="L25" s="7">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="N25" s="16">
-        <v>317630</v>
-      </c>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16">
-        <f>N25-S25-T25-U25-V25-W25</f>
-        <v>262590</v>
-      </c>
-      <c r="Q25" s="16">
-        <f>Q24+P25</f>
-        <v>5111943</v>
-      </c>
       <c r="S25" s="16">
         <v>5040</v>
       </c>
@@ -2070,9 +2075,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26">
@@ -2097,29 +2102,29 @@
         <v>28074</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>270531</v>
       </c>
       <c r="K26">
+        <f t="shared" si="4"/>
+        <v>5382474</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="N26" s="16">
+        <v>325571</v>
+      </c>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16">
+        <f t="shared" si="0"/>
+        <v>270531</v>
+      </c>
+      <c r="Q26" s="16">
         <f t="shared" si="2"/>
         <v>5382474</v>
       </c>
-      <c r="L26" s="8">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="N26" s="16">
-        <v>325571</v>
-      </c>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16">
-        <f>N26-S26-T26-U26-V26-W26</f>
-        <v>270531</v>
-      </c>
-      <c r="Q26" s="16">
-        <f>Q25+P26</f>
-        <v>5382474</v>
-      </c>
       <c r="S26" s="16">
         <v>5040</v>
       </c>
@@ -2136,9 +2141,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27">
@@ -2163,29 +2168,29 @@
         <v>28074</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>278670</v>
       </c>
       <c r="K27">
+        <f t="shared" si="4"/>
+        <v>5661144</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="N27" s="16">
+        <v>333710</v>
+      </c>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16">
+        <f t="shared" si="0"/>
+        <v>278670</v>
+      </c>
+      <c r="Q27" s="16">
         <f t="shared" si="2"/>
         <v>5661144</v>
       </c>
-      <c r="L27" s="3">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="N27" s="16">
-        <v>333710</v>
-      </c>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16">
-        <f>N27-S27-T27-U27-V27-W27</f>
-        <v>278670</v>
-      </c>
-      <c r="Q27" s="16">
-        <f>Q26+P27</f>
-        <v>5661144</v>
-      </c>
       <c r="S27" s="16">
         <v>5040</v>
       </c>
@@ -2202,9 +2207,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28">
@@ -2229,29 +2234,29 @@
         <v>28074</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>287013</v>
       </c>
       <c r="K28">
+        <f t="shared" si="4"/>
+        <v>5948157</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="N28" s="16">
+        <v>342053</v>
+      </c>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16">
+        <f t="shared" si="0"/>
+        <v>287013</v>
+      </c>
+      <c r="Q28" s="16">
         <f t="shared" si="2"/>
         <v>5948157</v>
       </c>
-      <c r="L28" s="9">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="N28" s="16">
-        <v>342053</v>
-      </c>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16">
-        <f>N28-S28-T28-U28-V28-W28</f>
-        <v>287013</v>
-      </c>
-      <c r="Q28" s="16">
-        <f>Q27+P28</f>
-        <v>5948157</v>
-      </c>
       <c r="S28" s="16">
         <v>5040</v>
       </c>
@@ -2268,9 +2273,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29">
@@ -2295,29 +2300,29 @@
         <v>28074</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>295564</v>
       </c>
       <c r="K29">
+        <f t="shared" si="4"/>
+        <v>6243721</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="N29" s="16">
+        <v>350604</v>
+      </c>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16">
+        <f t="shared" si="0"/>
+        <v>295564</v>
+      </c>
+      <c r="Q29" s="16">
         <f t="shared" si="2"/>
         <v>6243721</v>
       </c>
-      <c r="L29" s="5">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="N29" s="16">
-        <v>350604</v>
-      </c>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16">
-        <f>N29-S29-T29-U29-V29-W29</f>
-        <v>295564</v>
-      </c>
-      <c r="Q29" s="16">
-        <f>Q28+P29</f>
-        <v>6243721</v>
-      </c>
       <c r="S29" s="16">
         <v>5040</v>
       </c>
@@ -2334,9 +2339,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30">
@@ -2361,29 +2366,29 @@
         <v>28074</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>304329</v>
       </c>
       <c r="K30">
+        <f t="shared" si="4"/>
+        <v>6548050</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="N30" s="16">
+        <v>359369</v>
+      </c>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16">
+        <f t="shared" si="0"/>
+        <v>304329</v>
+      </c>
+      <c r="Q30" s="16">
         <f t="shared" si="2"/>
         <v>6548050</v>
       </c>
-      <c r="L30" s="6">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="N30" s="16">
-        <v>359369</v>
-      </c>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16">
-        <f>N30-S30-T30-U30-V30-W30</f>
-        <v>304329</v>
-      </c>
-      <c r="Q30" s="16">
-        <f>Q29+P30</f>
-        <v>6548050</v>
-      </c>
       <c r="S30" s="16">
         <v>5040</v>
       </c>
@@ -2400,9 +2405,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31">
@@ -2427,29 +2432,29 @@
         <v>28074</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>313313</v>
       </c>
       <c r="K31">
+        <f t="shared" si="4"/>
+        <v>6861363</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="N31" s="16">
+        <v>368353</v>
+      </c>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16">
+        <f t="shared" si="0"/>
+        <v>313313</v>
+      </c>
+      <c r="Q31" s="16">
         <f t="shared" si="2"/>
         <v>6861363</v>
       </c>
-      <c r="L31" s="7">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="N31" s="16">
-        <v>368353</v>
-      </c>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16">
-        <f>N31-S31-T31-U31-V31-W31</f>
-        <v>313313</v>
-      </c>
-      <c r="Q31" s="16">
-        <f>Q30+P31</f>
-        <v>6861363</v>
-      </c>
       <c r="S31" s="16">
         <v>5040</v>
       </c>
@@ -2466,9 +2471,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32">
@@ -2497,11 +2502,11 @@
         <v>830535</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7691898</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="N32" s="16">
@@ -2513,7 +2518,7 @@
         <v>830535</v>
       </c>
       <c r="Q32" s="16">
-        <f>Q31+P32</f>
+        <f t="shared" si="2"/>
         <v>7691898</v>
       </c>
       <c r="S32" s="16">
@@ -2532,9 +2537,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33">
@@ -2563,11 +2568,11 @@
         <v>349961</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8041859</v>
       </c>
       <c r="L33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="N33" s="16">
@@ -2579,7 +2584,7 @@
         <v>349961</v>
       </c>
       <c r="Q33" s="16">
-        <f>Q32+P33</f>
+        <f t="shared" si="2"/>
         <v>8041859</v>
       </c>
       <c r="S33" s="16">
@@ -2598,9 +2603,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34">
@@ -2625,15 +2630,15 @@
         <v>28074</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>359636</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8401495</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="N34" s="16">
@@ -2645,7 +2650,7 @@
         <v>359636</v>
       </c>
       <c r="Q34" s="16">
-        <f>Q33+P34</f>
+        <f t="shared" si="2"/>
         <v>8401495</v>
       </c>
       <c r="S34" s="16">
@@ -2664,9 +2669,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35">
@@ -2691,15 +2696,15 @@
         <v>28074</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>369553</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8771048</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="N35" s="16">
@@ -2711,7 +2716,7 @@
         <v>369553</v>
       </c>
       <c r="Q35" s="16">
-        <f>Q34+P35</f>
+        <f t="shared" si="2"/>
         <v>8771048</v>
       </c>
       <c r="S35" s="16">
@@ -2730,9 +2735,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36">
@@ -2757,15 +2762,15 @@
         <v>28074</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>379718</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9150766</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="N36" s="16">
@@ -2777,7 +2782,7 @@
         <v>379718</v>
       </c>
       <c r="Q36" s="16">
-        <f>Q35+P36</f>
+        <f t="shared" si="2"/>
         <v>9150766</v>
       </c>
       <c r="S36" s="16">
@@ -2796,9 +2801,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37">
@@ -2823,11 +2828,11 @@
         <v>28074</v>
       </c>
       <c r="J37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-37040</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9113726</v>
       </c>
       <c r="L37" s="10" t="s">
@@ -2842,7 +2847,7 @@
         <v>-37040</v>
       </c>
       <c r="Q37" s="16">
-        <f>Q36+P37</f>
+        <f t="shared" si="2"/>
         <v>9113726</v>
       </c>
       <c r="S37" s="16">
@@ -2861,9 +2866,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38">
@@ -2895,7 +2900,7 @@
         <v>-337040</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8776686</v>
       </c>
       <c r="L38" s="10" t="s">
@@ -2912,7 +2917,7 @@
         <v>-337040</v>
       </c>
       <c r="Q38" s="16">
-        <f>Q37+P38</f>
+        <f t="shared" si="2"/>
         <v>8776686</v>
       </c>
       <c r="S38" s="16">
@@ -2931,9 +2936,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B39">
@@ -2965,7 +2970,7 @@
         <v>-337040</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8439646</v>
       </c>
       <c r="L39" s="10" t="s">
@@ -2982,7 +2987,7 @@
         <v>-337040</v>
       </c>
       <c r="Q39" s="16">
-        <f>Q38+P39</f>
+        <f t="shared" si="2"/>
         <v>8439646</v>
       </c>
       <c r="S39" s="16">
@@ -3001,9 +3006,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B40">
@@ -3028,11 +3033,11 @@
         <v>28074</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-37040</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8402606</v>
       </c>
       <c r="L40" s="10" t="s">
@@ -3047,7 +3052,7 @@
         <v>-37040</v>
       </c>
       <c r="Q40" s="16">
-        <f>Q39+P40</f>
+        <f t="shared" si="2"/>
         <v>8402606</v>
       </c>
       <c r="S40" s="16">
@@ -3066,9 +3071,9 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B41">
@@ -3090,15 +3095,15 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" ref="H41:H42" si="4">28074+ROUNDUP(471523*10%, 0)</f>
+        <f t="shared" ref="H41:H42" si="6">28074+ROUNDUP(471523*10%, 0)</f>
         <v>75227</v>
       </c>
       <c r="J41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-84193</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8318413</v>
       </c>
       <c r="L41" s="10" t="s">
@@ -3113,7 +3118,7 @@
         <v>-84193</v>
       </c>
       <c r="Q41" s="16">
-        <f>Q40+P41</f>
+        <f t="shared" si="2"/>
         <v>8318413</v>
       </c>
       <c r="S41" s="16">
@@ -3129,13 +3134,13 @@
         <v>0</v>
       </c>
       <c r="W41" s="17">
-        <f t="shared" ref="W41:W42" si="5">28074+ROUNDUP(471523*10%, 0)</f>
+        <f t="shared" ref="W41:W42" si="7">28074+ROUNDUP(471523*10%, 0)</f>
         <v>75227</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B42">
@@ -3157,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>75227</v>
       </c>
       <c r="I42">
@@ -3183,7 +3188,7 @@
         <v>1663682.6</v>
       </c>
       <c r="P42" s="17">
-        <f>N42-S42-T42-U42-V42-W42-O42</f>
+        <f t="shared" ref="P42:P59" si="8">N42-S42-T42-U42-V42-W42-O42</f>
         <v>-1747875.6</v>
       </c>
       <c r="Q42" s="17">
@@ -3203,13 +3208,13 @@
         <v>0</v>
       </c>
       <c r="W42" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B43">
@@ -3242,7 +3247,7 @@
         <v>-1588799</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" ref="K43:K57" si="6">ROUNDDOWN(K42+J43, 0)</f>
+        <f t="shared" ref="K43:K57" si="9">ROUNDDOWN(K42+J43, 0)</f>
         <v>4981738</v>
       </c>
       <c r="L43" s="10" t="s">
@@ -3255,11 +3260,11 @@
         <v>2000000</v>
       </c>
       <c r="P43" s="17">
-        <f>N43-S43-T43-U43-V43-W43-O43</f>
+        <f t="shared" si="8"/>
         <v>-1588799</v>
       </c>
       <c r="Q43" s="17">
-        <f>ROUNDDOWN(Q42+P43, 0)</f>
+        <f t="shared" ref="Q43:Q57" si="10">ROUNDDOWN(Q42+P43, 0)</f>
         <v>4981738</v>
       </c>
       <c r="S43" s="16">
@@ -3279,9 +3284,9 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B44">
@@ -3303,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" ref="H44:H61" si="7">H43</f>
+        <f t="shared" ref="H44:H61" si="11">H43</f>
         <v>75227</v>
       </c>
       <c r="I44">
@@ -3329,11 +3334,11 @@
         <v>2490869</v>
       </c>
       <c r="P44" s="17">
-        <f>N44-S44-T44-U44-V44-W44-O44</f>
+        <f t="shared" si="8"/>
         <v>-2067283</v>
       </c>
       <c r="Q44" s="17">
-        <f>ROUNDDOWN(Q43+P44, 0)</f>
+        <f t="shared" si="10"/>
         <v>2914455</v>
       </c>
       <c r="S44" s="16">
@@ -3349,13 +3354,13 @@
         <v>0</v>
       </c>
       <c r="W44" s="17">
-        <f t="shared" ref="W44:W61" si="8">W43</f>
+        <f t="shared" ref="W44:W61" si="12">W43</f>
         <v>75227</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B45">
@@ -3377,18 +3382,18 @@
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>75227</v>
       </c>
       <c r="I45">
         <v>1000000</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" ref="J45:J59" si="9">C45-D45-E45-F45-G45-H45-I45</f>
+        <f t="shared" ref="J45:J59" si="13">C45-D45-E45-F45-G45-H45-I45</f>
         <v>-563719</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2350736</v>
       </c>
       <c r="L45" s="10" t="s">
@@ -3401,11 +3406,11 @@
         <v>1000000</v>
       </c>
       <c r="P45" s="17">
-        <f>N45-S45-T45-U45-V45-W45-O45</f>
+        <f t="shared" si="8"/>
         <v>-563719</v>
       </c>
       <c r="Q45" s="17">
-        <f>ROUNDDOWN(Q44+P45, 0)</f>
+        <f t="shared" si="10"/>
         <v>2350736</v>
       </c>
       <c r="S45" s="16">
@@ -3421,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="W45" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B46" s="12">
@@ -3449,16 +3454,16 @@
         <v>0</v>
       </c>
       <c r="H46" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>75227</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="13">
+        <f t="shared" si="13"/>
+        <v>449292</v>
+      </c>
+      <c r="K46" s="13">
         <f t="shared" si="9"/>
-        <v>449292</v>
-      </c>
-      <c r="K46" s="13">
-        <f t="shared" si="6"/>
         <v>2800028</v>
       </c>
       <c r="L46" s="14" t="s">
@@ -3469,11 +3474,11 @@
       </c>
       <c r="O46" s="18"/>
       <c r="P46" s="19">
-        <f>N46-S46-T46-U46-V46-W46-O46</f>
+        <f t="shared" si="8"/>
         <v>449292</v>
       </c>
       <c r="Q46" s="19">
-        <f>ROUNDDOWN(Q45+P46, 0)</f>
+        <f t="shared" si="10"/>
         <v>2800028</v>
       </c>
       <c r="S46" s="18">
@@ -3489,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="W46" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B47">
@@ -3517,15 +3522,15 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>75227</v>
       </c>
       <c r="J47" s="1">
+        <f t="shared" si="13"/>
+        <v>462630</v>
+      </c>
+      <c r="K47" s="1">
         <f t="shared" si="9"/>
-        <v>462630</v>
-      </c>
-      <c r="K47" s="1">
-        <f t="shared" si="6"/>
         <v>3262658</v>
       </c>
       <c r="L47" s="10" t="s">
@@ -3536,11 +3541,11 @@
       </c>
       <c r="O47" s="16"/>
       <c r="P47" s="17">
-        <f>N47-S47-T47-U47-V47-W47-O47</f>
+        <f t="shared" si="8"/>
         <v>462630</v>
       </c>
       <c r="Q47" s="17">
-        <f>ROUNDDOWN(Q46+P47, 0)</f>
+        <f t="shared" si="10"/>
         <v>3262658</v>
       </c>
       <c r="S47" s="16">
@@ -3556,13 +3561,13 @@
         <v>0</v>
       </c>
       <c r="W47" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B48">
@@ -3584,15 +3589,15 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>75227</v>
       </c>
       <c r="J48" s="1">
+        <f t="shared" si="13"/>
+        <v>476300</v>
+      </c>
+      <c r="K48" s="1">
         <f t="shared" si="9"/>
-        <v>476300</v>
-      </c>
-      <c r="K48" s="1">
-        <f t="shared" si="6"/>
         <v>3738958</v>
       </c>
       <c r="L48" s="10" t="s">
@@ -3603,11 +3608,11 @@
       </c>
       <c r="O48" s="16"/>
       <c r="P48" s="17">
-        <f>N48-S48-T48-U48-V48-W48-O48</f>
+        <f t="shared" si="8"/>
         <v>476300</v>
       </c>
       <c r="Q48" s="17">
-        <f>ROUNDDOWN(Q47+P48, 0)</f>
+        <f t="shared" si="10"/>
         <v>3738958</v>
       </c>
       <c r="S48" s="16">
@@ -3623,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="W48" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B49">
@@ -3651,18 +3656,18 @@
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>75227</v>
       </c>
       <c r="I49">
         <v>1000000</v>
       </c>
       <c r="J49" s="1">
+        <f t="shared" si="13"/>
+        <v>-509688</v>
+      </c>
+      <c r="K49" s="1">
         <f t="shared" si="9"/>
-        <v>-509688</v>
-      </c>
-      <c r="K49" s="1">
-        <f t="shared" si="6"/>
         <v>3229270</v>
       </c>
       <c r="L49" s="10" t="s">
@@ -3675,11 +3680,11 @@
         <v>1000000</v>
       </c>
       <c r="P49" s="17">
-        <f>N49-S49-T49-U49-V49-W49-O49</f>
+        <f t="shared" si="8"/>
         <v>-509688</v>
       </c>
       <c r="Q49" s="17">
-        <f>ROUNDDOWN(Q48+P49, 0)</f>
+        <f t="shared" si="10"/>
         <v>3229270</v>
       </c>
       <c r="S49" s="16">
@@ -3695,13 +3700,13 @@
         <v>0</v>
       </c>
       <c r="W49" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B50">
@@ -3723,18 +3728,18 @@
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>75227</v>
       </c>
       <c r="I50">
         <v>720000</v>
       </c>
       <c r="J50" s="1">
+        <f t="shared" si="13"/>
+        <v>-215325</v>
+      </c>
+      <c r="K50" s="1">
         <f t="shared" si="9"/>
-        <v>-215325</v>
-      </c>
-      <c r="K50" s="1">
-        <f t="shared" si="6"/>
         <v>3013945</v>
       </c>
       <c r="L50" s="10" t="s">
@@ -3747,11 +3752,11 @@
         <v>720000</v>
       </c>
       <c r="P50" s="17">
-        <f>N50-S50-T50-U50-V50-W50-O50</f>
+        <f t="shared" si="8"/>
         <v>-215325</v>
       </c>
       <c r="Q50" s="17">
-        <f>ROUNDDOWN(Q49+P50, 0)</f>
+        <f t="shared" si="10"/>
         <v>3013945</v>
       </c>
       <c r="S50" s="16">
@@ -3767,20 +3772,20 @@
         <v>0</v>
       </c>
       <c r="W50" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B51">
         <v>60</v>
       </c>
       <c r="C51">
-        <v>603590</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>5040</v>
@@ -3795,16 +3800,16 @@
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>75227</v>
       </c>
       <c r="J51" s="1">
+        <f t="shared" si="13"/>
+        <v>-84193</v>
+      </c>
+      <c r="K51" s="1">
         <f t="shared" si="9"/>
-        <v>519397</v>
-      </c>
-      <c r="K51" s="1">
-        <f t="shared" si="6"/>
-        <v>3533342</v>
+        <v>2929752</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>22</v>
@@ -3816,11 +3821,11 @@
         <v>603590</v>
       </c>
       <c r="P51" s="1">
-        <f>N51-S51-T51-U51-V51-W51-O51</f>
+        <f t="shared" si="8"/>
         <v>519397</v>
       </c>
       <c r="Q51" s="1">
-        <f>ROUNDDOWN(Q50+P51, 0)</f>
+        <f t="shared" si="10"/>
         <v>3533342</v>
       </c>
       <c r="S51">
@@ -3836,13 +3841,13 @@
         <v>0</v>
       </c>
       <c r="W51" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B52">
@@ -3864,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>75227</v>
       </c>
       <c r="J52" s="1">
+        <f t="shared" si="13"/>
+        <v>-84193</v>
+      </c>
+      <c r="K52" s="1">
         <f t="shared" si="9"/>
-        <v>-84193</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="6"/>
-        <v>3449149</v>
+        <v>2845559</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>20</v>
@@ -3882,11 +3887,11 @@
         <v>618680</v>
       </c>
       <c r="P52" s="1">
-        <f>N52-S52-T52-U52-V52-W52-O52</f>
+        <f t="shared" si="8"/>
         <v>534487</v>
       </c>
       <c r="Q52" s="1">
-        <f>ROUNDDOWN(Q51+P52, 0)</f>
+        <f t="shared" si="10"/>
         <v>4067829</v>
       </c>
       <c r="S52">
@@ -3902,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="W52" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B53">
@@ -3930,19 +3935,19 @@
         <v>0</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>75227</v>
       </c>
       <c r="I53">
-        <v>1800000</v>
+        <v>720000</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="9"/>
-        <v>-1884193</v>
+        <f t="shared" si="13"/>
+        <v>-804193</v>
       </c>
       <c r="K53" s="1">
         <f>ROUNDDOWN(K52+J53, 0)</f>
-        <v>1564956</v>
+        <v>2041366</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>21</v>
@@ -3954,11 +3959,11 @@
         <v>1800000</v>
       </c>
       <c r="P53" s="1">
-        <f>N53-S53-T53-U53-V53-W53-O53</f>
+        <f t="shared" si="8"/>
         <v>-1250046</v>
       </c>
       <c r="Q53" s="1">
-        <f>ROUNDDOWN(Q52+P53, 0)</f>
+        <f t="shared" si="10"/>
         <v>2817783</v>
       </c>
       <c r="S53">
@@ -3974,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="W53" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="B54">
@@ -4002,20 +4007,20 @@
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>75227</v>
       </c>
       <c r="I54">
         <f>K53*0.2</f>
-        <v>312991.2</v>
+        <v>408273.2</v>
       </c>
       <c r="J54" s="1">
+        <f t="shared" si="13"/>
+        <v>-492466.2</v>
+      </c>
+      <c r="K54" s="1">
         <f t="shared" si="9"/>
-        <v>-397184.2</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" si="6"/>
-        <v>1167771</v>
+        <v>1548899</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>14</v>
@@ -4028,11 +4033,11 @@
         <v>563556.6</v>
       </c>
       <c r="P54" s="1">
-        <f>N54-S54-T54-U54-V54-W54-O54</f>
+        <f t="shared" si="8"/>
         <v>2250.4000000000233</v>
       </c>
       <c r="Q54" s="1">
-        <f>ROUNDDOWN(Q53+P54, 0)</f>
+        <f t="shared" si="10"/>
         <v>2820033</v>
       </c>
       <c r="S54">
@@ -4048,13 +4053,13 @@
         <v>0</v>
       </c>
       <c r="W54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="B55">
@@ -4076,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>75227</v>
       </c>
       <c r="I55">
@@ -4084,12 +4089,12 @@
         <v>32500</v>
       </c>
       <c r="J55" s="1">
+        <f t="shared" si="13"/>
+        <v>-116693</v>
+      </c>
+      <c r="K55" s="1">
         <f t="shared" si="9"/>
-        <v>-116693</v>
-      </c>
-      <c r="K55" s="1">
-        <f t="shared" si="6"/>
-        <v>1051078</v>
+        <v>1432206</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>23</v>
@@ -4102,11 +4107,11 @@
         <v>32500</v>
       </c>
       <c r="P55" s="1">
-        <f>N55-S55-T55-U55-V55-W55-O55</f>
+        <f t="shared" si="8"/>
         <v>549557</v>
       </c>
       <c r="Q55" s="1">
-        <f>ROUNDDOWN(Q54+P55, 0)</f>
+        <f t="shared" si="10"/>
         <v>3369590</v>
       </c>
       <c r="S55">
@@ -4122,13 +4127,13 @@
         <v>0</v>
       </c>
       <c r="W55" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="B56">
@@ -4150,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>75227</v>
       </c>
       <c r="I56">
@@ -4158,15 +4163,18 @@
         <v>1832500</v>
       </c>
       <c r="J56" s="1">
+        <f t="shared" si="13"/>
+        <v>-1916693</v>
+      </c>
+      <c r="K56" s="1">
         <f t="shared" si="9"/>
-        <v>-1916693</v>
-      </c>
-      <c r="K56" s="1">
-        <f t="shared" si="6"/>
-        <v>-865615</v>
+        <v>-484487</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>15</v>
+      </c>
+      <c r="M56" t="s">
+        <v>25</v>
       </c>
       <c r="N56" s="15">
         <v>682906</v>
@@ -4176,11 +4184,11 @@
         <v>1832500</v>
       </c>
       <c r="P56" s="1">
-        <f>N56-S56-T56-U56-V56-W56-O56</f>
+        <f t="shared" si="8"/>
         <v>-1233787</v>
       </c>
       <c r="Q56" s="1">
-        <f>ROUNDDOWN(Q55+P56, 0)</f>
+        <f t="shared" si="10"/>
         <v>2135803</v>
       </c>
       <c r="S56">
@@ -4196,13 +4204,13 @@
         <v>0</v>
       </c>
       <c r="W56" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B57">
@@ -4224,16 +4232,16 @@
         <v>0</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>75227</v>
       </c>
       <c r="J57" s="1">
+        <f t="shared" si="13"/>
+        <v>-84193</v>
+      </c>
+      <c r="K57" s="1">
         <f t="shared" si="9"/>
-        <v>-84193</v>
-      </c>
-      <c r="K57" s="1">
-        <f t="shared" si="6"/>
-        <v>-949808</v>
+        <v>-568680</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>21</v>
@@ -4242,11 +4250,11 @@
         <v>699979</v>
       </c>
       <c r="P57" s="1">
-        <f>N57-S57-T57-U57-V57-W57-O57</f>
+        <f t="shared" si="8"/>
         <v>615786</v>
       </c>
       <c r="Q57" s="1">
-        <f>ROUNDDOWN(Q56+P57, 0)</f>
+        <f t="shared" si="10"/>
         <v>2751589</v>
       </c>
       <c r="S57">
@@ -4262,13 +4270,13 @@
         <v>0</v>
       </c>
       <c r="W57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="B58">
@@ -4290,22 +4298,22 @@
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>75227</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-84193</v>
       </c>
       <c r="K58" s="11">
-        <f t="shared" si="2"/>
-        <v>-1034001</v>
+        <f t="shared" si="4"/>
+        <v>-652873</v>
       </c>
       <c r="N58" s="15">
         <v>717479</v>
       </c>
       <c r="P58" s="1">
-        <f>N58-S58-T58-U58-V58-W58-O58</f>
+        <f t="shared" si="8"/>
         <v>633286</v>
       </c>
       <c r="Q58" s="11">
@@ -4325,13 +4333,13 @@
         <v>0</v>
       </c>
       <c r="W58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="B59">
@@ -4353,22 +4361,22 @@
         <v>0</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>75227</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-84193</v>
       </c>
       <c r="K59" s="11">
-        <f t="shared" si="2"/>
-        <v>-1118194</v>
+        <f t="shared" si="4"/>
+        <v>-737066</v>
       </c>
       <c r="N59" s="15">
         <v>735416</v>
       </c>
       <c r="P59" s="1">
-        <f>N59-S59-T59-U59-V59-W59-O59</f>
+        <f t="shared" si="8"/>
         <v>651223</v>
       </c>
       <c r="Q59" s="11">
@@ -4388,13 +4396,13 @@
         <v>0</v>
       </c>
       <c r="W59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="B60">
@@ -4416,16 +4424,16 @@
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>75227</v>
       </c>
       <c r="J60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-84193</v>
       </c>
       <c r="K60" s="11">
-        <f t="shared" si="2"/>
-        <v>-1202387</v>
+        <f t="shared" si="4"/>
+        <v>-821259</v>
       </c>
       <c r="N60" s="15">
         <v>753801</v>
@@ -4451,13 +4459,13 @@
         <v>0</v>
       </c>
       <c r="W60" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="B61">
@@ -4479,16 +4487,16 @@
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>75227</v>
       </c>
       <c r="J61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-84193</v>
       </c>
       <c r="K61" s="11">
-        <f t="shared" si="2"/>
-        <v>-1286580</v>
+        <f t="shared" si="4"/>
+        <v>-905452</v>
       </c>
       <c r="N61" s="15">
         <v>772646</v>
@@ -4514,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
     </row>
@@ -4532,9 +4540,9 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4545,7 +4553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4556,7 +4564,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -4568,7 +4576,7 @@
         <v>184500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A61" si="0">A3+1</f>
         <v>2</v>
@@ -4580,7 +4588,7 @@
         <v>189113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4592,7 +4600,7 @@
         <v>193840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4604,7 +4612,7 @@
         <v>198686</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4616,7 +4624,7 @@
         <v>203653</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4628,7 +4636,7 @@
         <v>208745</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4640,7 +4648,7 @@
         <v>213963</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4652,7 +4660,7 @@
         <v>219313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4664,7 +4672,7 @@
         <v>224795</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4676,7 +4684,7 @@
         <v>230415</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4688,7 +4696,7 @@
         <v>236176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4700,7 +4708,7 @@
         <v>242080</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4712,7 +4720,7 @@
         <v>248132</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4724,7 +4732,7 @@
         <v>254335</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4736,7 +4744,7 @@
         <v>260694</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4748,7 +4756,7 @@
         <v>267211</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4760,7 +4768,7 @@
         <v>273891</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4772,7 +4780,7 @@
         <v>280739</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4784,7 +4792,7 @@
         <v>287757</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4796,7 +4804,7 @@
         <v>294951</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4808,7 +4816,7 @@
         <v>302325</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4820,7 +4828,7 @@
         <v>309883</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4832,7 +4840,7 @@
         <v>317630</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4844,7 +4852,7 @@
         <v>325571</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4856,7 +4864,7 @@
         <v>333710</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4868,7 +4876,7 @@
         <v>342053</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4880,7 +4888,7 @@
         <v>350604</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4892,7 +4900,7 @@
         <v>359369</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4904,7 +4912,7 @@
         <v>368353</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4916,7 +4924,7 @@
         <v>377562</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4928,7 +4936,7 @@
         <v>387001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4940,7 +4948,7 @@
         <v>396676</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4952,7 +4960,7 @@
         <v>406593</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4964,7 +4972,7 @@
         <v>416758</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4976,7 +4984,7 @@
         <v>427177</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4988,7 +4996,7 @@
         <v>437856</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5000,7 +5008,7 @@
         <v>448803</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5012,7 +5020,7 @@
         <v>460023</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5024,7 +5032,7 @@
         <v>471523</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5036,7 +5044,7 @@
         <v>483311</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5048,7 +5056,7 @@
         <v>495394</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5060,7 +5068,7 @@
         <v>507779</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5072,7 +5080,7 @@
         <v>520474</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5084,7 +5092,7 @@
         <v>533485</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5096,7 +5104,7 @@
         <v>546823</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5108,7 +5116,7 @@
         <v>560493</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5120,7 +5128,7 @@
         <v>574505</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5132,7 +5140,7 @@
         <v>588868</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5144,7 +5152,7 @@
         <v>603590</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5156,7 +5164,7 @@
         <v>618680</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -5168,7 +5176,7 @@
         <v>634147</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -5180,7 +5188,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -5192,7 +5200,7 @@
         <v>666250</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5204,7 +5212,7 @@
         <v>682906</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -5216,7 +5224,7 @@
         <v>699979</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -5228,7 +5236,7 @@
         <v>717479</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -5240,7 +5248,7 @@
         <v>735416</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -5252,7 +5260,7 @@
         <v>753801</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0648C697-8738-47B3-9CFB-B6F41273EF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4D7B22-DC50-4DF0-8DF9-526A140B1D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7360" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>step</t>
   </si>
@@ -567,9 +567,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="64" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="64" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I57" sqref="I57"/>
+      <selection pane="topRight" activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3956,15 +3956,15 @@
         <v>634147</v>
       </c>
       <c r="O53">
-        <v>1800000</v>
+        <v>720000</v>
       </c>
       <c r="P53" s="1">
         <f t="shared" si="8"/>
-        <v>-1250046</v>
+        <v>-170046</v>
       </c>
       <c r="Q53" s="1">
         <f t="shared" si="10"/>
-        <v>2817783</v>
+        <v>3897783</v>
       </c>
       <c r="S53">
         <v>5040</v>
@@ -4030,15 +4030,15 @@
       </c>
       <c r="O54">
         <f>Q53*0.2</f>
-        <v>563556.6</v>
+        <v>779556.60000000009</v>
       </c>
       <c r="P54" s="1">
         <f t="shared" si="8"/>
-        <v>2250.4000000000233</v>
+        <v>-213749.60000000009</v>
       </c>
       <c r="Q54" s="1">
         <f t="shared" si="10"/>
-        <v>2820033</v>
+        <v>3684033</v>
       </c>
       <c r="S54">
         <v>5040</v>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="Q55" s="1">
         <f t="shared" si="10"/>
-        <v>3369590</v>
+        <v>4233590</v>
       </c>
       <c r="S55">
         <v>5040</v>
@@ -4184,12 +4184,12 @@
         <v>1832500</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="8"/>
+        <f>N56-S56-T56-U56-V56-W56-O56</f>
         <v>-1233787</v>
       </c>
       <c r="Q56" s="1">
         <f t="shared" si="10"/>
-        <v>2135803</v>
+        <v>2999803</v>
       </c>
       <c r="S56">
         <v>5040</v>
@@ -4244,18 +4244,22 @@
         <v>-568680</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N57" s="15">
         <v>699979</v>
       </c>
+      <c r="O57">
+        <f>O55</f>
+        <v>32500</v>
+      </c>
       <c r="P57" s="1">
         <f t="shared" si="8"/>
-        <v>615786</v>
+        <v>583286</v>
       </c>
       <c r="Q57" s="1">
         <f t="shared" si="10"/>
-        <v>2751589</v>
+        <v>3583089</v>
       </c>
       <c r="S57">
         <v>5040</v>
@@ -4309,16 +4313,23 @@
         <f t="shared" si="4"/>
         <v>-652873</v>
       </c>
+      <c r="L58" t="s">
+        <v>21</v>
+      </c>
       <c r="N58" s="15">
         <v>717479</v>
       </c>
+      <c r="O58">
+        <f>720000+O55</f>
+        <v>752500</v>
+      </c>
       <c r="P58" s="1">
         <f t="shared" si="8"/>
-        <v>633286</v>
+        <v>-119214</v>
       </c>
       <c r="Q58" s="11">
         <f>Q57+P58</f>
-        <v>3384875</v>
+        <v>3463875</v>
       </c>
       <c r="S58">
         <v>5040</v>
@@ -4372,16 +4383,23 @@
         <f t="shared" si="4"/>
         <v>-737066</v>
       </c>
+      <c r="L59" t="s">
+        <v>15</v>
+      </c>
       <c r="N59" s="15">
         <v>735416</v>
       </c>
+      <c r="O59">
+        <f>1800000+O55</f>
+        <v>1832500</v>
+      </c>
       <c r="P59" s="1">
         <f t="shared" si="8"/>
-        <v>651223</v>
+        <v>-1181277</v>
       </c>
       <c r="Q59" s="11">
         <f>Q58+P59</f>
-        <v>4036098</v>
+        <v>2282598</v>
       </c>
       <c r="S59">
         <v>5040</v>
@@ -4435,8 +4453,15 @@
         <f t="shared" si="4"/>
         <v>-821259</v>
       </c>
+      <c r="L60" t="s">
+        <v>20</v>
+      </c>
       <c r="N60" s="15">
         <v>753801</v>
+      </c>
+      <c r="O60">
+        <f>O55</f>
+        <v>32500</v>
       </c>
       <c r="P60">
         <f>N60-S60-T60-U60-V60-W60</f>
@@ -4444,7 +4469,7 @@
       </c>
       <c r="Q60" s="11">
         <f>Q59+P60</f>
-        <v>4705706</v>
+        <v>2952206</v>
       </c>
       <c r="S60">
         <v>5040</v>
@@ -4498,8 +4523,15 @@
         <f t="shared" si="4"/>
         <v>-905452</v>
       </c>
+      <c r="L61" t="s">
+        <v>10</v>
+      </c>
       <c r="N61" s="15">
         <v>772646</v>
+      </c>
+      <c r="O61">
+        <f>O60</f>
+        <v>32500</v>
       </c>
       <c r="P61">
         <f>N61-S61-T61-U61-V61-W61</f>
@@ -4507,7 +4539,7 @@
       </c>
       <c r="Q61" s="11">
         <f>Q60+P61</f>
-        <v>5394159</v>
+        <v>3640659</v>
       </c>
       <c r="S61">
         <v>5040</v>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4D7B22-DC50-4DF0-8DF9-526A140B1D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB04605-BA27-4018-A59C-EF01408B2CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
+    <workbookView xWindow="10900" yWindow="90" windowWidth="9600" windowHeight="7730" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
@@ -567,9 +567,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="64" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O62" sqref="O62"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="59" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T55" sqref="T55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -578,8 +578,9 @@
     <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3463,7 +3464,7 @@
         <v>449292</v>
       </c>
       <c r="K46" s="13">
-        <f t="shared" si="9"/>
+        <f>ROUNDDOWN(K45+J46, 0)</f>
         <v>2800028</v>
       </c>
       <c r="L46" s="14" t="s">
@@ -3959,7 +3960,7 @@
         <v>720000</v>
       </c>
       <c r="P53" s="1">
-        <f t="shared" si="8"/>
+        <f>N53-S53-T53-U53-V53-W53-O53</f>
         <v>-170046</v>
       </c>
       <c r="Q53" s="1">
@@ -4033,7 +4034,7 @@
         <v>779556.60000000009</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="8"/>
+        <f>N54-S54-T54-U54-V54-W54-O54</f>
         <v>-213749.60000000009</v>
       </c>
       <c r="Q54" s="1">
@@ -4085,16 +4086,15 @@
         <v>75227</v>
       </c>
       <c r="I55">
-        <f>650000*0.05</f>
-        <v>32500</v>
+        <v>13325</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="13"/>
-        <v>-116693</v>
+        <v>-97518</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="9"/>
-        <v>1432206</v>
+        <v>1451381</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>23</v>
@@ -4103,16 +4103,15 @@
         <v>666250</v>
       </c>
       <c r="O55">
-        <f>650000*0.05</f>
-        <v>32500</v>
+        <v>13325</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" si="8"/>
-        <v>549557</v>
+        <v>568732</v>
       </c>
       <c r="Q55" s="1">
         <f t="shared" si="10"/>
-        <v>4233590</v>
+        <v>4252765</v>
       </c>
       <c r="S55">
         <v>5040</v>
@@ -4160,15 +4159,15 @@
       </c>
       <c r="I56">
         <f>1800000+I55</f>
-        <v>1832500</v>
+        <v>1813325</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" si="13"/>
-        <v>-1916693</v>
+        <v>-1897518</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="9"/>
-        <v>-484487</v>
+        <v>-446137</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>15</v>
@@ -4181,15 +4180,15 @@
       </c>
       <c r="O56">
         <f>1800000+O55</f>
-        <v>1832500</v>
+        <v>1813325</v>
       </c>
       <c r="P56" s="1">
         <f>N56-S56-T56-U56-V56-W56-O56</f>
-        <v>-1233787</v>
+        <v>-1214612</v>
       </c>
       <c r="Q56" s="1">
         <f t="shared" si="10"/>
-        <v>2999803</v>
+        <v>3038153</v>
       </c>
       <c r="S56">
         <v>5040</v>
@@ -4241,7 +4240,7 @@
       </c>
       <c r="K57" s="1">
         <f t="shared" si="9"/>
-        <v>-568680</v>
+        <v>-530330</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>19</v>
@@ -4251,15 +4250,15 @@
       </c>
       <c r="O57">
         <f>O55</f>
-        <v>32500</v>
+        <v>13325</v>
       </c>
       <c r="P57" s="1">
         <f t="shared" si="8"/>
-        <v>583286</v>
+        <v>602461</v>
       </c>
       <c r="Q57" s="1">
         <f t="shared" si="10"/>
-        <v>3583089</v>
+        <v>3640614</v>
       </c>
       <c r="S57">
         <v>5040</v>
@@ -4311,7 +4310,7 @@
       </c>
       <c r="K58" s="11">
         <f t="shared" si="4"/>
-        <v>-652873</v>
+        <v>-614523</v>
       </c>
       <c r="L58" t="s">
         <v>21</v>
@@ -4321,15 +4320,15 @@
       </c>
       <c r="O58">
         <f>720000+O55</f>
-        <v>752500</v>
+        <v>733325</v>
       </c>
       <c r="P58" s="1">
         <f t="shared" si="8"/>
-        <v>-119214</v>
+        <v>-100039</v>
       </c>
       <c r="Q58" s="11">
         <f>Q57+P58</f>
-        <v>3463875</v>
+        <v>3540575</v>
       </c>
       <c r="S58">
         <v>5040</v>
@@ -4381,7 +4380,7 @@
       </c>
       <c r="K59" s="11">
         <f t="shared" si="4"/>
-        <v>-737066</v>
+        <v>-698716</v>
       </c>
       <c r="L59" t="s">
         <v>15</v>
@@ -4391,15 +4390,15 @@
       </c>
       <c r="O59">
         <f>1800000+O55</f>
-        <v>1832500</v>
+        <v>1813325</v>
       </c>
       <c r="P59" s="1">
         <f t="shared" si="8"/>
-        <v>-1181277</v>
+        <v>-1162102</v>
       </c>
       <c r="Q59" s="11">
         <f>Q58+P59</f>
-        <v>2282598</v>
+        <v>2378473</v>
       </c>
       <c r="S59">
         <v>5040</v>
@@ -4451,7 +4450,7 @@
       </c>
       <c r="K60" s="11">
         <f t="shared" si="4"/>
-        <v>-821259</v>
+        <v>-782909</v>
       </c>
       <c r="L60" t="s">
         <v>20</v>
@@ -4461,7 +4460,7 @@
       </c>
       <c r="O60">
         <f>O55</f>
-        <v>32500</v>
+        <v>13325</v>
       </c>
       <c r="P60">
         <f>N60-S60-T60-U60-V60-W60</f>
@@ -4469,7 +4468,7 @@
       </c>
       <c r="Q60" s="11">
         <f>Q59+P60</f>
-        <v>2952206</v>
+        <v>3048081</v>
       </c>
       <c r="S60">
         <v>5040</v>
@@ -4521,7 +4520,7 @@
       </c>
       <c r="K61" s="11">
         <f t="shared" si="4"/>
-        <v>-905452</v>
+        <v>-867102</v>
       </c>
       <c r="L61" t="s">
         <v>10</v>
@@ -4531,7 +4530,7 @@
       </c>
       <c r="O61">
         <f>O60</f>
-        <v>32500</v>
+        <v>13325</v>
       </c>
       <c r="P61">
         <f>N61-S61-T61-U61-V61-W61</f>
@@ -4539,7 +4538,7 @@
       </c>
       <c r="Q61" s="11">
         <f>Q60+P61</f>
-        <v>3640659</v>
+        <v>3736534</v>
       </c>
       <c r="S61">
         <v>5040</v>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB04605-BA27-4018-A59C-EF01408B2CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20772A03-D40B-5540-9159-C5EE1378C5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10900" yWindow="90" windowWidth="9600" windowHeight="7730" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
+    <workbookView xWindow="-23880" yWindow="4120" windowWidth="23880" windowHeight="16180" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -149,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,8 +206,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -222,11 +230,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -251,6 +303,10 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,84 +623,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="59" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T55" sqref="T55"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="9" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="L1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -665,7 +721,8 @@
       <c r="L2" s="2">
         <v>0</v>
       </c>
-      <c r="N2" s="16">
+      <c r="M2" s="21"/>
+      <c r="N2" s="22">
         <v>180000</v>
       </c>
       <c r="O2" s="16"/>
@@ -683,7 +740,7 @@
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>1</v>
@@ -709,7 +766,7 @@
         <f>L2+1</f>
         <v>1</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="20">
         <v>184500</v>
       </c>
       <c r="O3" s="16"/>
@@ -729,7 +786,7 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A61" si="3">A3+1</f>
         <v>2</v>
@@ -780,7 +837,7 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -831,7 +888,7 @@
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -887,7 +944,7 @@
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -948,7 +1005,7 @@
       </c>
       <c r="W7" s="16"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1009,7 +1066,7 @@
       </c>
       <c r="W8" s="16"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1070,7 +1127,7 @@
       </c>
       <c r="W9" s="16"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -1131,7 +1188,7 @@
       </c>
       <c r="W10" s="16"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -1192,7 +1249,7 @@
       </c>
       <c r="W11" s="16"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -1253,7 +1310,7 @@
       </c>
       <c r="W12" s="16"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -1314,7 +1371,7 @@
       </c>
       <c r="W13" s="16"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -1375,7 +1432,7 @@
       </c>
       <c r="W14" s="16"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -1436,7 +1493,7 @@
       </c>
       <c r="W15" s="16"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -1497,7 +1554,7 @@
       </c>
       <c r="W16" s="16"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -1558,7 +1615,7 @@
       </c>
       <c r="W17" s="16"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -1619,7 +1676,7 @@
       </c>
       <c r="W18" s="16"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -1680,7 +1737,7 @@
       </c>
       <c r="W19" s="16"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1746,7 +1803,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -1812,7 +1869,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -1878,7 +1935,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -1944,7 +2001,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -2010,7 +2067,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -2076,7 +2133,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -2142,7 +2199,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -2208,7 +2265,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -2274,7 +2331,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -2340,7 +2397,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -2406,7 +2463,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -2472,7 +2529,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -2538,7 +2595,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -2604,7 +2661,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -2670,7 +2727,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -2736,7 +2793,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -2802,7 +2859,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -2867,7 +2924,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -2937,7 +2994,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -3007,7 +3064,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -3072,7 +3129,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -3139,7 +3196,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -3213,7 +3270,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -3285,7 +3342,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -3359,7 +3416,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -3431,7 +3488,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -3499,7 +3556,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -3566,7 +3623,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -3633,7 +3690,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -3705,7 +3762,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -3777,7 +3834,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="3"/>
         <v>49</v>
@@ -3846,7 +3903,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -3912,7 +3969,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="3"/>
         <v>51</v>
@@ -3984,7 +4041,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -4012,16 +4069,16 @@
         <v>75227</v>
       </c>
       <c r="I54">
-        <f>K53*0.2</f>
-        <v>408273.2</v>
+        <f>ROUNDDOWN(K53*0.2, 0)</f>
+        <v>408273</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" si="13"/>
-        <v>-492466.2</v>
+        <v>-492466</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="9"/>
-        <v>1548899</v>
+        <v>1548900</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>14</v>
@@ -4058,7 +4115,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -4094,7 +4151,7 @@
       </c>
       <c r="K55" s="1">
         <f t="shared" si="9"/>
-        <v>1451381</v>
+        <v>1451382</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>23</v>
@@ -4130,7 +4187,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -4167,7 +4224,7 @@
       </c>
       <c r="K56" s="1">
         <f t="shared" si="9"/>
-        <v>-446137</v>
+        <v>-446136</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>15</v>
@@ -4207,7 +4264,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -4240,7 +4297,7 @@
       </c>
       <c r="K57" s="1">
         <f t="shared" si="9"/>
-        <v>-530330</v>
+        <v>-530329</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>19</v>
@@ -4277,7 +4334,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -4310,7 +4367,7 @@
       </c>
       <c r="K58" s="11">
         <f t="shared" si="4"/>
-        <v>-614523</v>
+        <v>-614522</v>
       </c>
       <c r="L58" t="s">
         <v>21</v>
@@ -4347,7 +4404,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -4380,7 +4437,7 @@
       </c>
       <c r="K59" s="11">
         <f t="shared" si="4"/>
-        <v>-698716</v>
+        <v>-698715</v>
       </c>
       <c r="L59" t="s">
         <v>15</v>
@@ -4417,7 +4474,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -4450,7 +4507,7 @@
       </c>
       <c r="K60" s="11">
         <f t="shared" si="4"/>
-        <v>-782909</v>
+        <v>-782908</v>
       </c>
       <c r="L60" t="s">
         <v>20</v>
@@ -4487,7 +4544,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -4520,7 +4577,7 @@
       </c>
       <c r="K61" s="11">
         <f t="shared" si="4"/>
-        <v>-867102</v>
+        <v>-867101</v>
       </c>
       <c r="L61" t="s">
         <v>10</v>
@@ -4571,9 +4628,9 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4584,7 +4641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4595,7 +4652,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -4607,7 +4664,7 @@
         <v>184500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A61" si="0">A3+1</f>
         <v>2</v>
@@ -4619,7 +4676,7 @@
         <v>189113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4631,7 +4688,7 @@
         <v>193840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4643,7 +4700,7 @@
         <v>198686</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4655,7 +4712,7 @@
         <v>203653</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4667,7 +4724,7 @@
         <v>208745</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4679,7 +4736,7 @@
         <v>213963</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4691,7 +4748,7 @@
         <v>219313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4703,7 +4760,7 @@
         <v>224795</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4715,7 +4772,7 @@
         <v>230415</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4727,7 +4784,7 @@
         <v>236176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4739,7 +4796,7 @@
         <v>242080</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4751,7 +4808,7 @@
         <v>248132</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4763,7 +4820,7 @@
         <v>254335</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4775,7 +4832,7 @@
         <v>260694</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4787,7 +4844,7 @@
         <v>267211</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4799,7 +4856,7 @@
         <v>273891</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4811,7 +4868,7 @@
         <v>280739</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4823,7 +4880,7 @@
         <v>287757</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4835,7 +4892,7 @@
         <v>294951</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4847,7 +4904,7 @@
         <v>302325</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4859,7 +4916,7 @@
         <v>309883</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4871,7 +4928,7 @@
         <v>317630</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4883,7 +4940,7 @@
         <v>325571</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4895,7 +4952,7 @@
         <v>333710</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4907,7 +4964,7 @@
         <v>342053</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4919,7 +4976,7 @@
         <v>350604</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4931,7 +4988,7 @@
         <v>359369</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4943,7 +5000,7 @@
         <v>368353</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4955,7 +5012,7 @@
         <v>377562</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4967,7 +5024,7 @@
         <v>387001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4979,7 +5036,7 @@
         <v>396676</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4991,7 +5048,7 @@
         <v>406593</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5003,7 +5060,7 @@
         <v>416758</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5015,7 +5072,7 @@
         <v>427177</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5027,7 +5084,7 @@
         <v>437856</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5039,7 +5096,7 @@
         <v>448803</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5051,7 +5108,7 @@
         <v>460023</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5063,7 +5120,7 @@
         <v>471523</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5075,7 +5132,7 @@
         <v>483311</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5087,7 +5144,7 @@
         <v>495394</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5099,7 +5156,7 @@
         <v>507779</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5111,7 +5168,7 @@
         <v>520474</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5123,7 +5180,7 @@
         <v>533485</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5135,7 +5192,7 @@
         <v>546823</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5147,7 +5204,7 @@
         <v>560493</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5159,7 +5216,7 @@
         <v>574505</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5171,7 +5228,7 @@
         <v>588868</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5183,7 +5240,7 @@
         <v>603590</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5195,7 +5252,7 @@
         <v>618680</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -5207,7 +5264,7 @@
         <v>634147</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -5219,7 +5276,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -5231,7 +5288,7 @@
         <v>666250</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5243,7 +5300,7 @@
         <v>682906</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -5255,7 +5312,7 @@
         <v>699979</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -5267,7 +5324,7 @@
         <v>717479</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -5279,7 +5336,7 @@
         <v>735416</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -5291,7 +5348,7 @@
         <v>753801</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20772A03-D40B-5540-9159-C5EE1378C5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DD8145-91E7-C24D-8079-031C5BC1DEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23880" yWindow="4120" windowWidth="23880" windowHeight="16180" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
@@ -625,7 +625,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
+      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DD8145-91E7-C24D-8079-031C5BC1DEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBB6A68-9E60-49CE-92AC-AF903D9537E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23880" yWindow="4120" windowWidth="23880" windowHeight="16180" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>step</t>
   </si>
@@ -110,9 +108,6 @@
   </si>
   <si>
     <t>Not Retired</t>
-  </si>
-  <si>
-    <t>&lt;--end</t>
   </si>
 </sst>
 </file>
@@ -623,25 +618,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -700,7 +695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -740,7 +735,7 @@
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>1</v>
@@ -786,7 +781,7 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A61" si="3">A3+1</f>
         <v>2</v>
@@ -837,7 +832,7 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -888,7 +883,7 @@
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -944,7 +939,7 @@
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -1005,7 +1000,7 @@
       </c>
       <c r="W7" s="16"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1066,7 +1061,7 @@
       </c>
       <c r="W8" s="16"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1127,7 +1122,7 @@
       </c>
       <c r="W9" s="16"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -1188,7 +1183,7 @@
       </c>
       <c r="W10" s="16"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -1249,7 +1244,7 @@
       </c>
       <c r="W11" s="16"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -1310,7 +1305,7 @@
       </c>
       <c r="W12" s="16"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -1371,7 +1366,7 @@
       </c>
       <c r="W13" s="16"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -1432,7 +1427,7 @@
       </c>
       <c r="W14" s="16"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -1493,7 +1488,7 @@
       </c>
       <c r="W15" s="16"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -1554,7 +1549,7 @@
       </c>
       <c r="W16" s="16"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -1615,7 +1610,7 @@
       </c>
       <c r="W17" s="16"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -1676,7 +1671,7 @@
       </c>
       <c r="W18" s="16"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -1737,7 +1732,7 @@
       </c>
       <c r="W19" s="16"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1803,7 +1798,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -1869,7 +1864,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -1935,7 +1930,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -2001,7 +1996,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -2067,7 +2062,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -2133,7 +2128,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -2199,7 +2194,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -2265,7 +2260,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -2331,7 +2326,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -2397,7 +2392,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -2463,7 +2458,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -2529,7 +2524,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -2595,7 +2590,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -2661,7 +2656,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -2727,7 +2722,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -2793,7 +2788,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -2859,7 +2854,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -2924,7 +2919,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -2994,7 +2989,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -3064,7 +3059,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -3129,7 +3124,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -3196,7 +3191,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -3270,7 +3265,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -3342,7 +3337,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -3416,7 +3411,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -3488,7 +3483,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="12">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -3556,7 +3551,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -3623,7 +3618,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -3690,7 +3685,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -3762,7 +3757,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -3834,7 +3829,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="3"/>
         <v>49</v>
@@ -3903,7 +3898,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -3969,7 +3964,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="3"/>
         <v>51</v>
@@ -4041,7 +4036,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -4115,7 +4110,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -4187,7 +4182,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -4215,37 +4210,34 @@
         <v>75227</v>
       </c>
       <c r="I56">
-        <f>1800000+I55</f>
-        <v>1813325</v>
+        <f>300000+I55</f>
+        <v>313325</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" si="13"/>
-        <v>-1897518</v>
+        <v>-397518</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="9"/>
-        <v>-446136</v>
+        <v>1053864</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M56" t="s">
-        <v>25</v>
-      </c>
       <c r="N56" s="15">
         <v>682906</v>
       </c>
       <c r="O56">
-        <f>1800000+O55</f>
-        <v>1813325</v>
+        <f>300000+O55</f>
+        <v>313325</v>
       </c>
       <c r="P56" s="1">
         <f>N56-S56-T56-U56-V56-W56-O56</f>
-        <v>-1214612</v>
+        <v>285388</v>
       </c>
       <c r="Q56" s="1">
         <f t="shared" si="10"/>
-        <v>3038153</v>
+        <v>4538153</v>
       </c>
       <c r="S56">
         <v>5040</v>
@@ -4264,7 +4256,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -4297,7 +4289,7 @@
       </c>
       <c r="K57" s="1">
         <f t="shared" si="9"/>
-        <v>-530329</v>
+        <v>969671</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>19</v>
@@ -4315,7 +4307,7 @@
       </c>
       <c r="Q57" s="1">
         <f t="shared" si="10"/>
-        <v>3640614</v>
+        <v>5140614</v>
       </c>
       <c r="S57">
         <v>5040</v>
@@ -4334,7 +4326,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -4367,7 +4359,7 @@
       </c>
       <c r="K58" s="11">
         <f t="shared" si="4"/>
-        <v>-614522</v>
+        <v>885478</v>
       </c>
       <c r="L58" t="s">
         <v>21</v>
@@ -4385,7 +4377,7 @@
       </c>
       <c r="Q58" s="11">
         <f>Q57+P58</f>
-        <v>3540575</v>
+        <v>5040575</v>
       </c>
       <c r="S58">
         <v>5040</v>
@@ -4404,7 +4396,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -4437,7 +4429,7 @@
       </c>
       <c r="K59" s="11">
         <f t="shared" si="4"/>
-        <v>-698715</v>
+        <v>801285</v>
       </c>
       <c r="L59" t="s">
         <v>15</v>
@@ -4446,16 +4438,16 @@
         <v>735416</v>
       </c>
       <c r="O59">
-        <f>1800000+O55</f>
-        <v>1813325</v>
+        <f>300000+O55</f>
+        <v>313325</v>
       </c>
       <c r="P59" s="1">
         <f t="shared" si="8"/>
-        <v>-1162102</v>
+        <v>337898</v>
       </c>
       <c r="Q59" s="11">
         <f>Q58+P59</f>
-        <v>2378473</v>
+        <v>5378473</v>
       </c>
       <c r="S59">
         <v>5040</v>
@@ -4474,7 +4466,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -4507,7 +4499,7 @@
       </c>
       <c r="K60" s="11">
         <f t="shared" si="4"/>
-        <v>-782908</v>
+        <v>717092</v>
       </c>
       <c r="L60" t="s">
         <v>20</v>
@@ -4525,7 +4517,7 @@
       </c>
       <c r="Q60" s="11">
         <f>Q59+P60</f>
-        <v>3048081</v>
+        <v>6048081</v>
       </c>
       <c r="S60">
         <v>5040</v>
@@ -4544,7 +4536,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -4577,7 +4569,7 @@
       </c>
       <c r="K61" s="11">
         <f t="shared" si="4"/>
-        <v>-867101</v>
+        <v>632899</v>
       </c>
       <c r="L61" t="s">
         <v>10</v>
@@ -4595,7 +4587,7 @@
       </c>
       <c r="Q61" s="11">
         <f>Q60+P61</f>
-        <v>3736534</v>
+        <v>6736534</v>
       </c>
       <c r="S61">
         <v>5040</v>
@@ -4628,9 +4620,9 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4641,7 +4633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4652,7 +4644,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -4664,7 +4656,7 @@
         <v>184500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A61" si="0">A3+1</f>
         <v>2</v>
@@ -4676,7 +4668,7 @@
         <v>189113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4688,7 +4680,7 @@
         <v>193840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4700,7 +4692,7 @@
         <v>198686</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4712,7 +4704,7 @@
         <v>203653</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4724,7 +4716,7 @@
         <v>208745</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4736,7 +4728,7 @@
         <v>213963</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4748,7 +4740,7 @@
         <v>219313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4760,7 +4752,7 @@
         <v>224795</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4772,7 +4764,7 @@
         <v>230415</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4784,7 +4776,7 @@
         <v>236176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4796,7 +4788,7 @@
         <v>242080</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4808,7 +4800,7 @@
         <v>248132</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4820,7 +4812,7 @@
         <v>254335</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4832,7 +4824,7 @@
         <v>260694</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4844,7 +4836,7 @@
         <v>267211</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4856,7 +4848,7 @@
         <v>273891</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4868,7 +4860,7 @@
         <v>280739</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4880,7 +4872,7 @@
         <v>287757</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4892,7 +4884,7 @@
         <v>294951</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4904,7 +4896,7 @@
         <v>302325</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4916,7 +4908,7 @@
         <v>309883</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4928,7 +4920,7 @@
         <v>317630</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4940,7 +4932,7 @@
         <v>325571</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4952,7 +4944,7 @@
         <v>333710</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4964,7 +4956,7 @@
         <v>342053</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4976,7 +4968,7 @@
         <v>350604</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4988,7 +4980,7 @@
         <v>359369</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5000,7 +4992,7 @@
         <v>368353</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5012,7 +5004,7 @@
         <v>377562</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5024,7 +5016,7 @@
         <v>387001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5036,7 +5028,7 @@
         <v>396676</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5048,7 +5040,7 @@
         <v>406593</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5060,7 +5052,7 @@
         <v>416758</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5072,7 +5064,7 @@
         <v>427177</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5084,7 +5076,7 @@
         <v>437856</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5096,7 +5088,7 @@
         <v>448803</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5108,7 +5100,7 @@
         <v>460023</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5120,7 +5112,7 @@
         <v>471523</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5132,7 +5124,7 @@
         <v>483311</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5144,7 +5136,7 @@
         <v>495394</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5156,7 +5148,7 @@
         <v>507779</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5168,7 +5160,7 @@
         <v>520474</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5180,7 +5172,7 @@
         <v>533485</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5192,7 +5184,7 @@
         <v>546823</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5204,7 +5196,7 @@
         <v>560493</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5216,7 +5208,7 @@
         <v>574505</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5228,7 +5220,7 @@
         <v>588868</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5240,7 +5232,7 @@
         <v>603590</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5252,7 +5244,7 @@
         <v>618680</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -5264,7 +5256,7 @@
         <v>634147</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -5276,7 +5268,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -5288,7 +5280,7 @@
         <v>666250</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5300,7 +5292,7 @@
         <v>682906</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -5312,7 +5304,7 @@
         <v>699979</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -5324,7 +5316,7 @@
         <v>717479</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -5336,7 +5328,7 @@
         <v>735416</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -5348,7 +5340,7 @@
         <v>753801</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBB6A68-9E60-49CE-92AC-AF903D9537E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3FEBFF-1623-7744-9334-387DE81CA333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
+    <workbookView xWindow="-23880" yWindow="4120" windowWidth="23880" windowHeight="16180" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>step</t>
   </si>
@@ -108,6 +110,9 @@
   </si>
   <si>
     <t>Not Retired</t>
+  </si>
+  <si>
+    <t>&lt;- ends</t>
   </si>
 </sst>
 </file>
@@ -618,25 +623,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -695,7 +700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -735,7 +740,7 @@
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>1</v>
@@ -781,7 +786,7 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A61" si="3">A3+1</f>
         <v>2</v>
@@ -832,7 +837,7 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -883,7 +888,7 @@
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -939,7 +944,7 @@
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -1000,7 +1005,7 @@
       </c>
       <c r="W7" s="16"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1061,7 +1066,7 @@
       </c>
       <c r="W8" s="16"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1122,7 +1127,7 @@
       </c>
       <c r="W9" s="16"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -1183,7 +1188,7 @@
       </c>
       <c r="W10" s="16"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -1244,7 +1249,7 @@
       </c>
       <c r="W11" s="16"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -1305,7 +1310,7 @@
       </c>
       <c r="W12" s="16"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -1366,7 +1371,7 @@
       </c>
       <c r="W13" s="16"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -1427,7 +1432,7 @@
       </c>
       <c r="W14" s="16"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -1488,7 +1493,7 @@
       </c>
       <c r="W15" s="16"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -1549,7 +1554,7 @@
       </c>
       <c r="W16" s="16"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -1610,7 +1615,7 @@
       </c>
       <c r="W17" s="16"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -1671,7 +1676,7 @@
       </c>
       <c r="W18" s="16"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -1732,7 +1737,7 @@
       </c>
       <c r="W19" s="16"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1798,7 +1803,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -1864,7 +1869,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -1930,7 +1935,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -1996,7 +2001,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -2062,7 +2067,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -2128,7 +2133,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -2194,7 +2199,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -2260,7 +2265,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -2326,7 +2331,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -2392,7 +2397,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -2458,7 +2463,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -2524,7 +2529,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -2590,7 +2595,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -2656,7 +2661,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -2722,7 +2727,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -2788,7 +2793,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -2854,7 +2859,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -2919,7 +2924,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -2989,7 +2994,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -3059,7 +3064,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -3124,7 +3129,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -3191,7 +3196,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -3265,7 +3270,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -3337,7 +3342,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -3411,7 +3416,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -3483,7 +3488,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -3551,7 +3556,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -3618,7 +3623,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -3685,7 +3690,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -3757,7 +3762,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -3829,7 +3834,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="3"/>
         <v>49</v>
@@ -3898,7 +3903,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -3964,7 +3969,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="3"/>
         <v>51</v>
@@ -4036,7 +4041,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -4110,7 +4115,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -4182,7 +4187,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -4256,7 +4261,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -4283,13 +4288,16 @@
         <f t="shared" si="11"/>
         <v>75227</v>
       </c>
+      <c r="I57">
+        <v>13325</v>
+      </c>
       <c r="J57" s="1">
         <f t="shared" si="13"/>
-        <v>-84193</v>
+        <v>-97518</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" si="9"/>
-        <v>969671</v>
+        <v>956346</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>19</v>
@@ -4326,7 +4334,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -4353,15 +4361,18 @@
         <f t="shared" si="11"/>
         <v>75227</v>
       </c>
+      <c r="I58">
+        <v>733325</v>
+      </c>
       <c r="J58" s="1">
         <f t="shared" si="13"/>
-        <v>-84193</v>
+        <v>-817518</v>
       </c>
       <c r="K58" s="11">
-        <f t="shared" si="4"/>
-        <v>885478</v>
-      </c>
-      <c r="L58" t="s">
+        <f>ROUNDDOWN(K57+J58, 0)</f>
+        <v>138828</v>
+      </c>
+      <c r="L58" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N58" s="15">
@@ -4396,7 +4407,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -4423,16 +4434,22 @@
         <f t="shared" si="11"/>
         <v>75227</v>
       </c>
+      <c r="I59">
+        <v>313325</v>
+      </c>
       <c r="J59" s="1">
         <f t="shared" si="13"/>
-        <v>-84193</v>
+        <v>-397518</v>
       </c>
       <c r="K59" s="11">
         <f t="shared" si="4"/>
-        <v>801285</v>
-      </c>
-      <c r="L59" t="s">
+        <v>-258690</v>
+      </c>
+      <c r="L59" s="10" t="s">
         <v>15</v>
+      </c>
+      <c r="M59" t="s">
+        <v>25</v>
       </c>
       <c r="N59" s="15">
         <v>735416</v>
@@ -4466,7 +4483,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -4493,15 +4510,18 @@
         <f t="shared" si="11"/>
         <v>75227</v>
       </c>
+      <c r="I60">
+        <v>13325</v>
+      </c>
       <c r="J60">
         <f t="shared" si="1"/>
         <v>-84193</v>
       </c>
       <c r="K60" s="11">
         <f t="shared" si="4"/>
-        <v>717092</v>
-      </c>
-      <c r="L60" t="s">
+        <v>-342883</v>
+      </c>
+      <c r="L60" s="10" t="s">
         <v>20</v>
       </c>
       <c r="N60" s="15">
@@ -4536,7 +4556,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -4563,15 +4583,18 @@
         <f t="shared" si="11"/>
         <v>75227</v>
       </c>
+      <c r="I61">
+        <v>13325</v>
+      </c>
       <c r="J61">
         <f t="shared" si="1"/>
         <v>-84193</v>
       </c>
       <c r="K61" s="11">
         <f t="shared" si="4"/>
-        <v>632899</v>
-      </c>
-      <c r="L61" t="s">
+        <v>-427076</v>
+      </c>
+      <c r="L61" s="10" t="s">
         <v>10</v>
       </c>
       <c r="N61" s="15">
@@ -4620,9 +4643,9 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4633,7 +4656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4644,7 +4667,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -4656,7 +4679,7 @@
         <v>184500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A61" si="0">A3+1</f>
         <v>2</v>
@@ -4668,7 +4691,7 @@
         <v>189113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4680,7 +4703,7 @@
         <v>193840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4692,7 +4715,7 @@
         <v>198686</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4704,7 +4727,7 @@
         <v>203653</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4716,7 +4739,7 @@
         <v>208745</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4728,7 +4751,7 @@
         <v>213963</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4740,7 +4763,7 @@
         <v>219313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4752,7 +4775,7 @@
         <v>224795</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4764,7 +4787,7 @@
         <v>230415</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4776,7 +4799,7 @@
         <v>236176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4788,7 +4811,7 @@
         <v>242080</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4800,7 +4823,7 @@
         <v>248132</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4812,7 +4835,7 @@
         <v>254335</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4824,7 +4847,7 @@
         <v>260694</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4836,7 +4859,7 @@
         <v>267211</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4848,7 +4871,7 @@
         <v>273891</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4860,7 +4883,7 @@
         <v>280739</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4872,7 +4895,7 @@
         <v>287757</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4884,7 +4907,7 @@
         <v>294951</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4896,7 +4919,7 @@
         <v>302325</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4908,7 +4931,7 @@
         <v>309883</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4920,7 +4943,7 @@
         <v>317630</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4932,7 +4955,7 @@
         <v>325571</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4944,7 +4967,7 @@
         <v>333710</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4956,7 +4979,7 @@
         <v>342053</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4968,7 +4991,7 @@
         <v>350604</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4980,7 +5003,7 @@
         <v>359369</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4992,7 +5015,7 @@
         <v>368353</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5004,7 +5027,7 @@
         <v>377562</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5016,7 +5039,7 @@
         <v>387001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5028,7 +5051,7 @@
         <v>396676</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5040,7 +5063,7 @@
         <v>406593</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5052,7 +5075,7 @@
         <v>416758</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5064,7 +5087,7 @@
         <v>427177</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5076,7 +5099,7 @@
         <v>437856</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5088,7 +5111,7 @@
         <v>448803</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5100,7 +5123,7 @@
         <v>460023</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5112,7 +5135,7 @@
         <v>471523</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5124,7 +5147,7 @@
         <v>483311</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5136,7 +5159,7 @@
         <v>495394</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5148,7 +5171,7 @@
         <v>507779</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5160,7 +5183,7 @@
         <v>520474</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5172,7 +5195,7 @@
         <v>533485</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5184,7 +5207,7 @@
         <v>546823</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5196,7 +5219,7 @@
         <v>560493</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5208,7 +5231,7 @@
         <v>574505</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5220,7 +5243,7 @@
         <v>588868</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5232,7 +5255,7 @@
         <v>603590</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5244,7 +5267,7 @@
         <v>618680</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -5256,7 +5279,7 @@
         <v>634147</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -5268,7 +5291,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -5280,7 +5303,7 @@
         <v>666250</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5292,7 +5315,7 @@
         <v>682906</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -5304,7 +5327,7 @@
         <v>699979</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -5316,7 +5339,7 @@
         <v>717479</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -5328,7 +5351,7 @@
         <v>735416</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -5340,7 +5363,7 @@
         <v>753801</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3FEBFF-1623-7744-9334-387DE81CA333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C78641B-4F24-42E1-89D8-F9A3D92D0A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23880" yWindow="4120" windowWidth="23880" windowHeight="16180" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="7515" activeTab="1" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
-    <sheet name="Case_2" sheetId="2" r:id="rId2"/>
+    <sheet name="Real_case_2" sheetId="3" r:id="rId2"/>
+    <sheet name="Case_2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
   <si>
     <t>step</t>
   </si>
@@ -113,6 +112,21 @@
   </si>
   <si>
     <t>&lt;- ends</t>
+  </si>
+  <si>
+    <t>Critical3</t>
+  </si>
+  <si>
+    <t>medical4</t>
+  </si>
+  <si>
+    <t>saving2</t>
+  </si>
+  <si>
+    <t>saving4</t>
+  </si>
+  <si>
+    <t>note: car accident relate to which plan</t>
   </si>
 </sst>
 </file>
@@ -623,25 +637,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M61" sqref="M61"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -700,7 +714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -740,7 +754,7 @@
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>1</v>
@@ -786,7 +800,7 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A61" si="3">A3+1</f>
         <v>2</v>
@@ -837,7 +851,7 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -888,7 +902,7 @@
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -944,7 +958,7 @@
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -1005,7 +1019,7 @@
       </c>
       <c r="W7" s="16"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1066,7 +1080,7 @@
       </c>
       <c r="W8" s="16"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1127,7 +1141,7 @@
       </c>
       <c r="W9" s="16"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -1188,7 +1202,7 @@
       </c>
       <c r="W10" s="16"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -1249,7 +1263,7 @@
       </c>
       <c r="W11" s="16"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -1310,7 +1324,7 @@
       </c>
       <c r="W12" s="16"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -1371,7 +1385,7 @@
       </c>
       <c r="W13" s="16"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -1432,7 +1446,7 @@
       </c>
       <c r="W14" s="16"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -1493,7 +1507,7 @@
       </c>
       <c r="W15" s="16"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -1554,7 +1568,7 @@
       </c>
       <c r="W16" s="16"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -1615,7 +1629,7 @@
       </c>
       <c r="W17" s="16"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -1676,7 +1690,7 @@
       </c>
       <c r="W18" s="16"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -1737,7 +1751,7 @@
       </c>
       <c r="W19" s="16"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1803,7 +1817,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -1869,7 +1883,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -1935,7 +1949,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -2001,7 +2015,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -2067,7 +2081,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -2133,7 +2147,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -2199,7 +2213,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -2265,7 +2279,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -2331,7 +2345,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -2397,7 +2411,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -2463,7 +2477,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -2529,7 +2543,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -2595,7 +2609,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -2661,7 +2675,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -2727,7 +2741,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -2793,7 +2807,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -2859,7 +2873,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -2924,7 +2938,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -2994,7 +3008,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -3064,7 +3078,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -3129,7 +3143,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -3196,7 +3210,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -3270,7 +3284,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -3342,7 +3356,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -3416,7 +3430,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -3488,7 +3502,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="12">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -3556,7 +3570,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -3623,7 +3637,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -3690,7 +3704,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -3762,7 +3776,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -3834,7 +3848,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="3"/>
         <v>49</v>
@@ -3903,7 +3917,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -3969,7 +3983,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="3"/>
         <v>51</v>
@@ -4041,7 +4055,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -4115,7 +4129,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -4187,7 +4201,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -4261,7 +4275,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -4334,7 +4348,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -4407,7 +4421,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -4483,7 +4497,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -4531,7 +4545,7 @@
         <f>O55</f>
         <v>13325</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="1">
         <f>N60-S60-T60-U60-V60-W60</f>
         <v>669608</v>
       </c>
@@ -4556,7 +4570,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -4636,16 +4650,3858 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC56D9E7-8CB0-440E-8035-579192D8154D}">
+  <dimension ref="A1:X61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>180000</v>
+      </c>
+      <c r="J2">
+        <f>C2-D2-E2-F2-G2-H2</f>
+        <v>180000</v>
+      </c>
+      <c r="K2">
+        <f>J2</f>
+        <v>180000</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22">
+        <v>180000</v>
+      </c>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16">
+        <f t="shared" ref="P2:P31" si="0">N2-S2-T2-U2-V2-W2</f>
+        <v>180000</v>
+      </c>
+      <c r="Q2" s="16">
+        <f>P2</f>
+        <v>180000</v>
+      </c>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>184500</v>
+      </c>
+      <c r="E3">
+        <v>10080</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J61" si="1">C3-D3-E3-F3-G3-H3</f>
+        <v>174420</v>
+      </c>
+      <c r="K3">
+        <f>K2+J3</f>
+        <v>354420</v>
+      </c>
+      <c r="L3" s="3">
+        <f>L2+1</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="20">
+        <v>184500</v>
+      </c>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16">
+        <f t="shared" si="0"/>
+        <v>179460</v>
+      </c>
+      <c r="Q3" s="16">
+        <f t="shared" ref="Q3:Q41" si="2">Q2+P3</f>
+        <v>359460</v>
+      </c>
+      <c r="S3" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <f t="shared" ref="A4:A61" si="3">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>189113</v>
+      </c>
+      <c r="E4">
+        <v>10080</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>179033</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K61" si="4">K3+J4</f>
+        <v>533453</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" ref="L4:L36" si="5">L3+1</f>
+        <v>2</v>
+      </c>
+      <c r="N4" s="16">
+        <v>189113</v>
+      </c>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16">
+        <f t="shared" si="0"/>
+        <v>181073</v>
+      </c>
+      <c r="Q4" s="16">
+        <f t="shared" si="2"/>
+        <v>540533</v>
+      </c>
+      <c r="S4" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T4" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>193840</v>
+      </c>
+      <c r="D5">
+        <v>1654</v>
+      </c>
+      <c r="E5">
+        <v>10080</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>182106</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>715559</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N5" s="16">
+        <v>193840</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16">
+        <f t="shared" si="0"/>
+        <v>185800</v>
+      </c>
+      <c r="Q5" s="16">
+        <f t="shared" si="2"/>
+        <v>726333</v>
+      </c>
+      <c r="S5" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T5" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>198686</v>
+      </c>
+      <c r="D6">
+        <v>1654</v>
+      </c>
+      <c r="E6">
+        <v>10080</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>186952</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>902511</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N6" s="16">
+        <v>198686</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16">
+        <f t="shared" si="0"/>
+        <v>189720</v>
+      </c>
+      <c r="Q6" s="16">
+        <f t="shared" si="2"/>
+        <v>916053</v>
+      </c>
+      <c r="S6" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T6" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U6" s="16">
+        <v>926</v>
+      </c>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>203653</v>
+      </c>
+      <c r="D7">
+        <v>1654</v>
+      </c>
+      <c r="E7">
+        <v>10080</v>
+      </c>
+      <c r="F7">
+        <v>30000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>161919</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>1064430</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N7" s="16">
+        <v>203653</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16">
+        <f t="shared" si="0"/>
+        <v>176687</v>
+      </c>
+      <c r="Q7" s="16">
+        <f t="shared" si="2"/>
+        <v>1092740</v>
+      </c>
+      <c r="S7" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T7" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U7" s="16">
+        <v>926</v>
+      </c>
+      <c r="V7" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W7" s="16"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>208745</v>
+      </c>
+      <c r="D8">
+        <v>1654</v>
+      </c>
+      <c r="E8">
+        <v>10080</v>
+      </c>
+      <c r="F8">
+        <v>30000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>167011</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>1231441</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N8" s="16">
+        <v>208745</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16">
+        <f t="shared" si="0"/>
+        <v>181779</v>
+      </c>
+      <c r="Q8" s="16">
+        <f t="shared" si="2"/>
+        <v>1274519</v>
+      </c>
+      <c r="S8" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T8" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U8" s="16">
+        <v>926</v>
+      </c>
+      <c r="V8" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W8" s="16"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>213963</v>
+      </c>
+      <c r="D9">
+        <v>1654</v>
+      </c>
+      <c r="E9">
+        <v>10080</v>
+      </c>
+      <c r="F9">
+        <v>30000</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>172229</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>1403670</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N9" s="16">
+        <v>213963</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16">
+        <f t="shared" si="0"/>
+        <v>186997</v>
+      </c>
+      <c r="Q9" s="16">
+        <f t="shared" si="2"/>
+        <v>1461516</v>
+      </c>
+      <c r="S9" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T9" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U9" s="16">
+        <v>926</v>
+      </c>
+      <c r="V9" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W9" s="16"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>219313</v>
+      </c>
+      <c r="D10">
+        <v>1654</v>
+      </c>
+      <c r="E10">
+        <v>10080</v>
+      </c>
+      <c r="F10">
+        <v>30000</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>177579</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>1581249</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="16">
+        <v>219313</v>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16">
+        <f t="shared" si="0"/>
+        <v>192347</v>
+      </c>
+      <c r="Q10" s="16">
+        <f t="shared" si="2"/>
+        <v>1653863</v>
+      </c>
+      <c r="S10" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T10" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U10" s="16">
+        <v>926</v>
+      </c>
+      <c r="V10" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W10" s="16"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>224795</v>
+      </c>
+      <c r="D11">
+        <v>1654</v>
+      </c>
+      <c r="E11">
+        <v>10080</v>
+      </c>
+      <c r="F11">
+        <v>30000</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>183061</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>1764310</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N11" s="16">
+        <v>224795</v>
+      </c>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16">
+        <f t="shared" si="0"/>
+        <v>197829</v>
+      </c>
+      <c r="Q11" s="16">
+        <f t="shared" si="2"/>
+        <v>1851692</v>
+      </c>
+      <c r="S11" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T11" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U11" s="16">
+        <v>926</v>
+      </c>
+      <c r="V11" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W11" s="16"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>230415</v>
+      </c>
+      <c r="D12">
+        <v>1654</v>
+      </c>
+      <c r="E12">
+        <v>10080</v>
+      </c>
+      <c r="F12">
+        <v>30000</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>188681</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>1952991</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N12" s="16">
+        <v>230415</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16">
+        <f t="shared" si="0"/>
+        <v>203449</v>
+      </c>
+      <c r="Q12" s="16">
+        <f t="shared" si="2"/>
+        <v>2055141</v>
+      </c>
+      <c r="S12" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T12" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U12" s="16">
+        <v>926</v>
+      </c>
+      <c r="V12" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W12" s="16"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>236176</v>
+      </c>
+      <c r="D13">
+        <v>1654</v>
+      </c>
+      <c r="E13">
+        <v>10080</v>
+      </c>
+      <c r="F13">
+        <v>30000</v>
+      </c>
+      <c r="G13">
+        <v>18000</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>176442</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>2129433</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N13" s="16">
+        <v>236176</v>
+      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16">
+        <f t="shared" si="0"/>
+        <v>209210</v>
+      </c>
+      <c r="Q13" s="16">
+        <f t="shared" si="2"/>
+        <v>2264351</v>
+      </c>
+      <c r="S13" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T13" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U13" s="16">
+        <v>926</v>
+      </c>
+      <c r="V13" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W13" s="16"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>242080</v>
+      </c>
+      <c r="D14">
+        <v>1654</v>
+      </c>
+      <c r="E14">
+        <v>10080</v>
+      </c>
+      <c r="F14">
+        <v>30000</v>
+      </c>
+      <c r="G14">
+        <v>18000</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>182346</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>2311779</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N14" s="16">
+        <v>242080</v>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16">
+        <f t="shared" si="0"/>
+        <v>215114</v>
+      </c>
+      <c r="Q14" s="16">
+        <f t="shared" si="2"/>
+        <v>2479465</v>
+      </c>
+      <c r="S14" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T14" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U14" s="16">
+        <v>926</v>
+      </c>
+      <c r="V14" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W14" s="16"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>248132</v>
+      </c>
+      <c r="D15">
+        <v>1654</v>
+      </c>
+      <c r="E15">
+        <v>10080</v>
+      </c>
+      <c r="F15">
+        <v>30000</v>
+      </c>
+      <c r="G15">
+        <v>18000</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>188398</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>2500177</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="N15" s="16">
+        <v>248132</v>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16">
+        <f t="shared" si="0"/>
+        <v>221166</v>
+      </c>
+      <c r="Q15" s="16">
+        <f t="shared" si="2"/>
+        <v>2700631</v>
+      </c>
+      <c r="S15" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T15" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U15" s="16">
+        <v>926</v>
+      </c>
+      <c r="V15" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W15" s="16"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>254335</v>
+      </c>
+      <c r="D16">
+        <v>1654</v>
+      </c>
+      <c r="E16">
+        <v>10080</v>
+      </c>
+      <c r="F16">
+        <v>30000</v>
+      </c>
+      <c r="G16">
+        <v>18000</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>194601</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>2694778</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N16" s="16">
+        <v>254335</v>
+      </c>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16">
+        <f t="shared" si="0"/>
+        <v>227369</v>
+      </c>
+      <c r="Q16" s="16">
+        <f t="shared" si="2"/>
+        <v>2928000</v>
+      </c>
+      <c r="S16" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T16" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U16" s="16">
+        <v>926</v>
+      </c>
+      <c r="V16" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W16" s="16"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>260694</v>
+      </c>
+      <c r="D17">
+        <v>1654</v>
+      </c>
+      <c r="E17">
+        <v>10080</v>
+      </c>
+      <c r="F17">
+        <v>30000</v>
+      </c>
+      <c r="G17">
+        <v>18000</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>200960</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>2895738</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N17" s="16">
+        <v>260694</v>
+      </c>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16">
+        <f t="shared" si="0"/>
+        <v>233728</v>
+      </c>
+      <c r="Q17" s="16">
+        <f t="shared" si="2"/>
+        <v>3161728</v>
+      </c>
+      <c r="S17" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T17" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U17" s="16">
+        <v>926</v>
+      </c>
+      <c r="V17" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W17" s="16"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>267211</v>
+      </c>
+      <c r="D18">
+        <v>1654</v>
+      </c>
+      <c r="E18">
+        <v>10080</v>
+      </c>
+      <c r="F18">
+        <v>30000</v>
+      </c>
+      <c r="G18">
+        <v>18000</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>207477</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>3103215</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="N18" s="16">
+        <v>267211</v>
+      </c>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16">
+        <f t="shared" si="0"/>
+        <v>240245</v>
+      </c>
+      <c r="Q18" s="16">
+        <f t="shared" si="2"/>
+        <v>3401973</v>
+      </c>
+      <c r="S18" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T18" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U18" s="16">
+        <v>926</v>
+      </c>
+      <c r="V18" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W18" s="16"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>273891</v>
+      </c>
+      <c r="D19">
+        <v>1654</v>
+      </c>
+      <c r="E19">
+        <v>10080</v>
+      </c>
+      <c r="F19">
+        <v>30000</v>
+      </c>
+      <c r="G19">
+        <v>18000</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>214157</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>3317372</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="N19" s="16">
+        <v>273891</v>
+      </c>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16">
+        <f t="shared" si="0"/>
+        <v>246925</v>
+      </c>
+      <c r="Q19" s="16">
+        <f t="shared" si="2"/>
+        <v>3648898</v>
+      </c>
+      <c r="S19" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T19" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U19" s="16">
+        <v>926</v>
+      </c>
+      <c r="V19" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W19" s="16"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>280739</v>
+      </c>
+      <c r="D20">
+        <v>1654</v>
+      </c>
+      <c r="E20">
+        <v>10080</v>
+      </c>
+      <c r="F20">
+        <v>30000</v>
+      </c>
+      <c r="G20">
+        <v>18000</v>
+      </c>
+      <c r="H20">
+        <v>28074</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>192931</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>3510303</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="N20" s="16">
+        <v>280739</v>
+      </c>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16">
+        <f t="shared" si="0"/>
+        <v>225699</v>
+      </c>
+      <c r="Q20" s="16">
+        <f t="shared" si="2"/>
+        <v>3874597</v>
+      </c>
+      <c r="S20" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T20" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U20" s="16">
+        <v>926</v>
+      </c>
+      <c r="V20" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W20" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>287757</v>
+      </c>
+      <c r="D21">
+        <v>1654</v>
+      </c>
+      <c r="E21">
+        <v>10080</v>
+      </c>
+      <c r="F21">
+        <v>30000</v>
+      </c>
+      <c r="G21">
+        <v>18000</v>
+      </c>
+      <c r="H21">
+        <v>28074</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>199949</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>3710252</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="N21" s="16">
+        <v>287757</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16">
+        <f t="shared" si="0"/>
+        <v>232717</v>
+      </c>
+      <c r="Q21" s="16">
+        <f t="shared" si="2"/>
+        <v>4107314</v>
+      </c>
+      <c r="S21" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T21" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U21" s="16">
+        <v>926</v>
+      </c>
+      <c r="V21" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W21" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>294951</v>
+      </c>
+      <c r="D22">
+        <v>1654</v>
+      </c>
+      <c r="E22">
+        <v>10080</v>
+      </c>
+      <c r="F22">
+        <v>30000</v>
+      </c>
+      <c r="G22">
+        <v>18000</v>
+      </c>
+      <c r="H22">
+        <v>28074</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>207143</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>3917395</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="N22" s="16">
+        <v>294951</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16">
+        <f t="shared" si="0"/>
+        <v>239911</v>
+      </c>
+      <c r="Q22" s="16">
+        <f t="shared" si="2"/>
+        <v>4347225</v>
+      </c>
+      <c r="S22" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T22" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U22" s="16">
+        <v>926</v>
+      </c>
+      <c r="V22" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W22" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>302325</v>
+      </c>
+      <c r="D23">
+        <v>1654</v>
+      </c>
+      <c r="E23">
+        <v>10080</v>
+      </c>
+      <c r="F23">
+        <v>30000</v>
+      </c>
+      <c r="G23">
+        <v>18000</v>
+      </c>
+      <c r="H23">
+        <v>28074</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>214517</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>4131912</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="N23" s="16">
+        <v>302325</v>
+      </c>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16">
+        <f t="shared" si="0"/>
+        <v>247285</v>
+      </c>
+      <c r="Q23" s="16">
+        <f t="shared" si="2"/>
+        <v>4594510</v>
+      </c>
+      <c r="S23" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T23" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U23" s="16">
+        <v>926</v>
+      </c>
+      <c r="V23" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W23" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>309883</v>
+      </c>
+      <c r="D24">
+        <v>1654</v>
+      </c>
+      <c r="E24">
+        <v>10080</v>
+      </c>
+      <c r="F24">
+        <v>30000</v>
+      </c>
+      <c r="G24">
+        <v>18000</v>
+      </c>
+      <c r="H24">
+        <v>28074</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>222075</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>4353987</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="N24" s="16">
+        <v>309883</v>
+      </c>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16">
+        <f t="shared" si="0"/>
+        <v>254843</v>
+      </c>
+      <c r="Q24" s="16">
+        <f t="shared" si="2"/>
+        <v>4849353</v>
+      </c>
+      <c r="S24" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T24" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U24" s="16">
+        <v>926</v>
+      </c>
+      <c r="V24" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W24" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>317630</v>
+      </c>
+      <c r="D25">
+        <v>1654</v>
+      </c>
+      <c r="E25">
+        <v>10080</v>
+      </c>
+      <c r="F25">
+        <v>30000</v>
+      </c>
+      <c r="G25">
+        <v>18000</v>
+      </c>
+      <c r="H25">
+        <v>28074</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>229822</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>4583809</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="N25" s="16">
+        <v>317630</v>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16">
+        <f t="shared" si="0"/>
+        <v>262590</v>
+      </c>
+      <c r="Q25" s="16">
+        <f t="shared" si="2"/>
+        <v>5111943</v>
+      </c>
+      <c r="S25" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T25" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U25" s="16">
+        <v>926</v>
+      </c>
+      <c r="V25" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W25" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>325571</v>
+      </c>
+      <c r="D26">
+        <v>1654</v>
+      </c>
+      <c r="E26">
+        <v>10080</v>
+      </c>
+      <c r="F26">
+        <v>30000</v>
+      </c>
+      <c r="G26">
+        <v>18000</v>
+      </c>
+      <c r="H26">
+        <v>28074</v>
+      </c>
+      <c r="I26">
+        <v>120000</v>
+      </c>
+      <c r="J26">
+        <f>C26-D26-E26-F26-G26-H26-I26</f>
+        <v>117763</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>4701572</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="N26" s="16">
+        <v>325571</v>
+      </c>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16">
+        <f t="shared" si="0"/>
+        <v>270531</v>
+      </c>
+      <c r="Q26" s="16">
+        <f t="shared" si="2"/>
+        <v>5382474</v>
+      </c>
+      <c r="S26" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T26" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U26" s="16">
+        <v>926</v>
+      </c>
+      <c r="V26" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W26" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>333710</v>
+      </c>
+      <c r="D27">
+        <v>1654</v>
+      </c>
+      <c r="E27">
+        <v>10080</v>
+      </c>
+      <c r="F27">
+        <v>30000</v>
+      </c>
+      <c r="G27">
+        <v>18000</v>
+      </c>
+      <c r="H27">
+        <v>28074</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>245902</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>4947474</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="N27" s="16">
+        <v>333710</v>
+      </c>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16">
+        <f t="shared" si="0"/>
+        <v>278670</v>
+      </c>
+      <c r="Q27" s="16">
+        <f t="shared" si="2"/>
+        <v>5661144</v>
+      </c>
+      <c r="S27" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T27" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U27" s="16">
+        <v>926</v>
+      </c>
+      <c r="V27" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W27" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>342053</v>
+      </c>
+      <c r="D28">
+        <v>1654</v>
+      </c>
+      <c r="E28">
+        <v>10080</v>
+      </c>
+      <c r="F28">
+        <v>30000</v>
+      </c>
+      <c r="G28">
+        <v>18000</v>
+      </c>
+      <c r="H28">
+        <v>28074</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>254245</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>5201719</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="N28" s="16">
+        <v>342053</v>
+      </c>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16">
+        <f t="shared" si="0"/>
+        <v>287013</v>
+      </c>
+      <c r="Q28" s="16">
+        <f t="shared" si="2"/>
+        <v>5948157</v>
+      </c>
+      <c r="S28" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T28" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U28" s="16">
+        <v>926</v>
+      </c>
+      <c r="V28" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W28" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>350604</v>
+      </c>
+      <c r="D29">
+        <v>1654</v>
+      </c>
+      <c r="E29">
+        <v>10080</v>
+      </c>
+      <c r="F29">
+        <v>30000</v>
+      </c>
+      <c r="G29">
+        <v>18000</v>
+      </c>
+      <c r="H29">
+        <v>28074</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>262796</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>5464515</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="N29" s="16">
+        <v>350604</v>
+      </c>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16">
+        <f t="shared" si="0"/>
+        <v>295564</v>
+      </c>
+      <c r="Q29" s="16">
+        <f t="shared" si="2"/>
+        <v>6243721</v>
+      </c>
+      <c r="S29" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T29" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U29" s="16">
+        <v>926</v>
+      </c>
+      <c r="V29" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W29" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>359369</v>
+      </c>
+      <c r="D30">
+        <v>1654</v>
+      </c>
+      <c r="E30">
+        <v>10080</v>
+      </c>
+      <c r="F30">
+        <v>30000</v>
+      </c>
+      <c r="G30">
+        <v>18000</v>
+      </c>
+      <c r="H30">
+        <v>28074</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>271561</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>5736076</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="N30" s="16">
+        <v>359369</v>
+      </c>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16">
+        <f t="shared" si="0"/>
+        <v>304329</v>
+      </c>
+      <c r="Q30" s="16">
+        <f t="shared" si="2"/>
+        <v>6548050</v>
+      </c>
+      <c r="S30" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T30" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U30" s="16">
+        <v>926</v>
+      </c>
+      <c r="V30" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W30" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>41</v>
+      </c>
+      <c r="C31">
+        <v>368353</v>
+      </c>
+      <c r="D31">
+        <v>1654</v>
+      </c>
+      <c r="E31">
+        <v>10080</v>
+      </c>
+      <c r="F31">
+        <v>30000</v>
+      </c>
+      <c r="G31">
+        <v>18000</v>
+      </c>
+      <c r="H31">
+        <v>28074</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>280545</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>6016621</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="N31" s="16">
+        <v>368353</v>
+      </c>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16">
+        <f t="shared" si="0"/>
+        <v>313313</v>
+      </c>
+      <c r="Q31" s="16">
+        <f t="shared" si="2"/>
+        <v>6861363</v>
+      </c>
+      <c r="S31" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T31" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U31" s="16">
+        <v>926</v>
+      </c>
+      <c r="V31" s="16">
+        <v>18000</v>
+      </c>
+      <c r="W31" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>42</v>
+      </c>
+      <c r="C32">
+        <v>377562</v>
+      </c>
+      <c r="D32">
+        <v>1654</v>
+      </c>
+      <c r="E32">
+        <v>10080</v>
+      </c>
+      <c r="G32">
+        <v>18000</v>
+      </c>
+      <c r="H32">
+        <v>28074</v>
+      </c>
+      <c r="I32">
+        <v>816689</v>
+      </c>
+      <c r="J32">
+        <f>C32-D32-E32-F32-G32-H32+816689</f>
+        <v>1136443</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>7153064</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="N32" s="16">
+        <v>377562</v>
+      </c>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16">
+        <f>N32-S32-T32-U32-V32-W32+490013</f>
+        <v>830535</v>
+      </c>
+      <c r="Q32" s="16">
+        <f t="shared" si="2"/>
+        <v>7691898</v>
+      </c>
+      <c r="S32" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T32" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U32" s="16">
+        <v>926</v>
+      </c>
+      <c r="V32" s="16">
+        <v>0</v>
+      </c>
+      <c r="W32" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <v>387001</v>
+      </c>
+      <c r="D33">
+        <v>1654</v>
+      </c>
+      <c r="E33">
+        <v>10080</v>
+      </c>
+      <c r="G33">
+        <v>18000</v>
+      </c>
+      <c r="H33">
+        <v>28074</v>
+      </c>
+      <c r="J33">
+        <f>C33-D33-E33-F33-G33-H33</f>
+        <v>329193</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>7482257</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="N33" s="16">
+        <v>387001</v>
+      </c>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16">
+        <f>N33-S33-T33-U33-V33-W33</f>
+        <v>349961</v>
+      </c>
+      <c r="Q33" s="16">
+        <f t="shared" si="2"/>
+        <v>8041859</v>
+      </c>
+      <c r="S33" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T33" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U33" s="16">
+        <v>926</v>
+      </c>
+      <c r="V33" s="16">
+        <v>0</v>
+      </c>
+      <c r="W33" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>44</v>
+      </c>
+      <c r="C34">
+        <v>396676</v>
+      </c>
+      <c r="D34">
+        <v>1654</v>
+      </c>
+      <c r="E34">
+        <v>10080</v>
+      </c>
+      <c r="G34">
+        <v>18000</v>
+      </c>
+      <c r="H34">
+        <v>28074</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>338868</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>7821125</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="N34" s="16">
+        <v>396676</v>
+      </c>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16">
+        <f>N34-S34-T34-U34-V34-W34</f>
+        <v>359636</v>
+      </c>
+      <c r="Q34" s="16">
+        <f t="shared" si="2"/>
+        <v>8401495</v>
+      </c>
+      <c r="S34" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T34" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U34" s="16">
+        <v>926</v>
+      </c>
+      <c r="V34" s="16">
+        <v>0</v>
+      </c>
+      <c r="W34" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>406593</v>
+      </c>
+      <c r="D35">
+        <v>1654</v>
+      </c>
+      <c r="E35">
+        <v>10080</v>
+      </c>
+      <c r="G35">
+        <v>18000</v>
+      </c>
+      <c r="H35">
+        <v>28074</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>348785</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>8169910</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="N35" s="16">
+        <v>406593</v>
+      </c>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16">
+        <f>N35-S35-T35-U35-V35-W35</f>
+        <v>369553</v>
+      </c>
+      <c r="Q35" s="16">
+        <f t="shared" si="2"/>
+        <v>8771048</v>
+      </c>
+      <c r="S35" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T35" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U35" s="16">
+        <v>926</v>
+      </c>
+      <c r="V35" s="16">
+        <v>0</v>
+      </c>
+      <c r="W35" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>416758</v>
+      </c>
+      <c r="D36">
+        <v>1654</v>
+      </c>
+      <c r="E36">
+        <v>10080</v>
+      </c>
+      <c r="G36">
+        <v>18000</v>
+      </c>
+      <c r="H36">
+        <v>28074</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>358950</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>8528860</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="N36" s="16">
+        <v>416758</v>
+      </c>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16">
+        <f>N36-S36-T36-U36-V36-W36</f>
+        <v>379718</v>
+      </c>
+      <c r="Q36" s="16">
+        <f t="shared" si="2"/>
+        <v>9150766</v>
+      </c>
+      <c r="S36" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T36" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U36" s="16">
+        <v>926</v>
+      </c>
+      <c r="V36" s="16">
+        <v>0</v>
+      </c>
+      <c r="W36" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1654</v>
+      </c>
+      <c r="E37">
+        <v>10080</v>
+      </c>
+      <c r="G37">
+        <v>18000</v>
+      </c>
+      <c r="H37">
+        <v>28074</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>-57808</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>8471052</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N37" s="16">
+        <v>0</v>
+      </c>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16">
+        <f>N37-S37-T37-U37-V37-W37</f>
+        <v>-37040</v>
+      </c>
+      <c r="Q37" s="16">
+        <f t="shared" si="2"/>
+        <v>9113726</v>
+      </c>
+      <c r="S37" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T37" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U37" s="16">
+        <v>926</v>
+      </c>
+      <c r="V37" s="16">
+        <v>0</v>
+      </c>
+      <c r="W37" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1654</v>
+      </c>
+      <c r="E38">
+        <v>10080</v>
+      </c>
+      <c r="H38">
+        <v>28074</v>
+      </c>
+      <c r="I38">
+        <f>300000-490013</f>
+        <v>-190013</v>
+      </c>
+      <c r="J38">
+        <f>C38-D38-E38-F38-G38-H38-I38</f>
+        <v>150205</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>8621257</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" s="16">
+        <v>0</v>
+      </c>
+      <c r="O38" s="16">
+        <v>300000</v>
+      </c>
+      <c r="P38" s="16">
+        <f>N38-S38-T38-U38-V38-W38-O38</f>
+        <v>-337040</v>
+      </c>
+      <c r="Q38" s="16">
+        <f t="shared" si="2"/>
+        <v>8776686</v>
+      </c>
+      <c r="S38" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T38" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U38" s="16">
+        <v>926</v>
+      </c>
+      <c r="V38" s="16">
+        <v>0</v>
+      </c>
+      <c r="W38" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>48</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1654</v>
+      </c>
+      <c r="E39">
+        <v>10080</v>
+      </c>
+      <c r="H39">
+        <v>28074</v>
+      </c>
+      <c r="I39">
+        <v>300000</v>
+      </c>
+      <c r="J39">
+        <f>C39-D39-E39-F39-G39-H39-I39</f>
+        <v>-339808</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>8281449</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" s="16">
+        <v>0</v>
+      </c>
+      <c r="O39" s="16">
+        <v>300000</v>
+      </c>
+      <c r="P39" s="16">
+        <f>N39-S39-T39-U39-V39-W39-O39</f>
+        <v>-337040</v>
+      </c>
+      <c r="Q39" s="16">
+        <f t="shared" si="2"/>
+        <v>8439646</v>
+      </c>
+      <c r="S39" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T39" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U39" s="16">
+        <v>926</v>
+      </c>
+      <c r="V39" s="16">
+        <v>0</v>
+      </c>
+      <c r="W39" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>49</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1654</v>
+      </c>
+      <c r="E40">
+        <v>10080</v>
+      </c>
+      <c r="H40">
+        <v>28074</v>
+      </c>
+      <c r="I40">
+        <v>120000</v>
+      </c>
+      <c r="J40">
+        <f>C40-D40-E40-F40-G40-H40-I40</f>
+        <v>-159808</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>8121641</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N40" s="16">
+        <v>0</v>
+      </c>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16">
+        <f>N40-S40-T40-U40-V40-W40</f>
+        <v>-37040</v>
+      </c>
+      <c r="Q40" s="16">
+        <f t="shared" si="2"/>
+        <v>8402606</v>
+      </c>
+      <c r="S40" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T40" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U40" s="16">
+        <v>926</v>
+      </c>
+      <c r="V40" s="16">
+        <v>0</v>
+      </c>
+      <c r="W40" s="16">
+        <v>28074</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>50</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1654</v>
+      </c>
+      <c r="E41">
+        <v>10080</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" ref="H41:H42" si="6">28074+ROUNDUP(471523*10%, 0)</f>
+        <v>75227</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>-86961</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>8034680</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="16">
+        <v>0</v>
+      </c>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16">
+        <f>N41-S41-T41-U41-V41-W41</f>
+        <v>-84193</v>
+      </c>
+      <c r="Q41" s="16">
+        <f t="shared" si="2"/>
+        <v>8318413</v>
+      </c>
+      <c r="S41" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T41" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U41" s="16">
+        <v>926</v>
+      </c>
+      <c r="V41" s="16">
+        <v>0</v>
+      </c>
+      <c r="W41" s="17">
+        <f t="shared" ref="W41:W42" si="7">28074+ROUNDUP(471523*10%, 0)</f>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>51</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1654</v>
+      </c>
+      <c r="E42">
+        <v>10080</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I42">
+        <f>K41*0.2</f>
+        <v>1606936</v>
+      </c>
+      <c r="J42" s="1">
+        <f>C42-D42-E42-F42-G42-H42-I42</f>
+        <v>-1693897</v>
+      </c>
+      <c r="K42" s="1">
+        <f>ROUNDDOWN(K41+J42,0)</f>
+        <v>6340783</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42" s="16">
+        <v>0</v>
+      </c>
+      <c r="O42" s="16">
+        <f>Q41*0.2</f>
+        <v>1663682.6</v>
+      </c>
+      <c r="P42" s="17">
+        <f t="shared" ref="P42:P59" si="8">N42-S42-T42-U42-V42-W42-O42</f>
+        <v>-1747875.6</v>
+      </c>
+      <c r="Q42" s="17">
+        <f>ROUNDDOWN(Q41+P42,0)</f>
+        <v>6570537</v>
+      </c>
+      <c r="S42" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T42" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U42" s="16">
+        <v>926</v>
+      </c>
+      <c r="V42" s="16">
+        <v>0</v>
+      </c>
+      <c r="W42" s="17">
+        <f t="shared" si="7"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>495394</v>
+      </c>
+      <c r="D43">
+        <v>1654</v>
+      </c>
+      <c r="E43">
+        <v>10080</v>
+      </c>
+      <c r="H43" s="1">
+        <f>28074+ROUNDUP(471523*10%, 0)</f>
+        <v>75227</v>
+      </c>
+      <c r="I43">
+        <v>2000000</v>
+      </c>
+      <c r="J43" s="1">
+        <f>C43-D43-E43-F43-G43-H43-I43</f>
+        <v>-1591567</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" ref="K43:K57" si="9">ROUNDDOWN(K42+J43, 0)</f>
+        <v>4749216</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43" s="16">
+        <v>495394</v>
+      </c>
+      <c r="O43" s="16">
+        <v>2000000</v>
+      </c>
+      <c r="P43" s="17">
+        <f t="shared" si="8"/>
+        <v>-1588799</v>
+      </c>
+      <c r="Q43" s="17">
+        <f t="shared" ref="Q43:Q57" si="10">ROUNDDOWN(Q42+P43, 0)</f>
+        <v>4981738</v>
+      </c>
+      <c r="S43" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T43" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U43" s="16">
+        <v>926</v>
+      </c>
+      <c r="V43" s="16">
+        <v>0</v>
+      </c>
+      <c r="W43" s="17">
+        <f>28074+ROUNDUP(471523*10%, 0)</f>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>507779</v>
+      </c>
+      <c r="D44">
+        <v>1654</v>
+      </c>
+      <c r="E44">
+        <v>10080</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" ref="H44:H61" si="11">H43</f>
+        <v>75227</v>
+      </c>
+      <c r="I44">
+        <f>K43/2</f>
+        <v>2374608</v>
+      </c>
+      <c r="J44" s="1">
+        <f>C44-D44-E44-F44-G44-H44-I44</f>
+        <v>-1953790</v>
+      </c>
+      <c r="K44" s="1">
+        <f>ROUNDDOWN(K43+J44, 0)</f>
+        <v>2795426</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" s="16">
+        <v>507779</v>
+      </c>
+      <c r="O44" s="16">
+        <f>Q43/2</f>
+        <v>2490869</v>
+      </c>
+      <c r="P44" s="17">
+        <f t="shared" si="8"/>
+        <v>-2067283</v>
+      </c>
+      <c r="Q44" s="17">
+        <f t="shared" si="10"/>
+        <v>2914455</v>
+      </c>
+      <c r="S44" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T44" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U44" s="16">
+        <v>926</v>
+      </c>
+      <c r="V44" s="16">
+        <v>0</v>
+      </c>
+      <c r="W44" s="17">
+        <f t="shared" ref="W44:W61" si="12">W43</f>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>54</v>
+      </c>
+      <c r="C45">
+        <v>520474</v>
+      </c>
+      <c r="D45">
+        <v>1654</v>
+      </c>
+      <c r="E45">
+        <v>10080</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="11"/>
+        <v>75227</v>
+      </c>
+      <c r="I45">
+        <v>1000000</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" ref="J45:J59" si="13">C45-D45-E45-F45-G45-H45-I45</f>
+        <v>-566487</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="9"/>
+        <v>2228939</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" s="16">
+        <v>520474</v>
+      </c>
+      <c r="O45" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="P45" s="17">
+        <f t="shared" si="8"/>
+        <v>-563719</v>
+      </c>
+      <c r="Q45" s="17">
+        <f t="shared" si="10"/>
+        <v>2350736</v>
+      </c>
+      <c r="S45" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T45" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U45" s="16">
+        <v>926</v>
+      </c>
+      <c r="V45" s="16">
+        <v>0</v>
+      </c>
+      <c r="W45" s="17">
+        <f t="shared" si="12"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A46" s="12">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="12">
+        <v>55</v>
+      </c>
+      <c r="C46" s="12">
+        <v>533485</v>
+      </c>
+      <c r="D46">
+        <v>1654</v>
+      </c>
+      <c r="E46">
+        <v>10080</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="13">
+        <f t="shared" si="11"/>
+        <v>75227</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="13">
+        <f t="shared" si="13"/>
+        <v>446524</v>
+      </c>
+      <c r="K46" s="13">
+        <f>ROUNDDOWN(K45+J46, 0)</f>
+        <v>2675463</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="18">
+        <v>533485</v>
+      </c>
+      <c r="O46" s="18"/>
+      <c r="P46" s="19">
+        <f t="shared" si="8"/>
+        <v>449292</v>
+      </c>
+      <c r="Q46" s="19">
+        <f t="shared" si="10"/>
+        <v>2800028</v>
+      </c>
+      <c r="S46" s="18">
+        <v>5040</v>
+      </c>
+      <c r="T46" s="18">
+        <v>3000</v>
+      </c>
+      <c r="U46" s="18">
+        <v>926</v>
+      </c>
+      <c r="V46" s="18">
+        <v>0</v>
+      </c>
+      <c r="W46" s="19">
+        <f t="shared" si="12"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>56</v>
+      </c>
+      <c r="C47">
+        <v>546823</v>
+      </c>
+      <c r="D47">
+        <v>1654</v>
+      </c>
+      <c r="E47">
+        <v>10080</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="11"/>
+        <v>75227</v>
+      </c>
+      <c r="I47">
+        <v>120000</v>
+      </c>
+      <c r="J47" s="1">
+        <f>C47-D47-E47-F47-G47-H47-I47</f>
+        <v>339862</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="9"/>
+        <v>3015325</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" s="16">
+        <v>546823</v>
+      </c>
+      <c r="O47" s="16"/>
+      <c r="P47" s="17">
+        <f t="shared" si="8"/>
+        <v>462630</v>
+      </c>
+      <c r="Q47" s="17">
+        <f t="shared" si="10"/>
+        <v>3262658</v>
+      </c>
+      <c r="S47" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T47" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U47" s="16">
+        <v>926</v>
+      </c>
+      <c r="V47" s="16">
+        <v>0</v>
+      </c>
+      <c r="W47" s="17">
+        <f t="shared" si="12"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>57</v>
+      </c>
+      <c r="C48">
+        <v>560493</v>
+      </c>
+      <c r="D48">
+        <v>1654</v>
+      </c>
+      <c r="E48">
+        <v>10080</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="11"/>
+        <v>75227</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="13"/>
+        <v>473532</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="9"/>
+        <v>3488857</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="16">
+        <v>560493</v>
+      </c>
+      <c r="O48" s="16"/>
+      <c r="P48" s="17">
+        <f t="shared" si="8"/>
+        <v>476300</v>
+      </c>
+      <c r="Q48" s="17">
+        <f t="shared" si="10"/>
+        <v>3738958</v>
+      </c>
+      <c r="S48" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T48" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U48" s="16">
+        <v>926</v>
+      </c>
+      <c r="V48" s="16">
+        <v>0</v>
+      </c>
+      <c r="W48" s="17">
+        <f t="shared" si="12"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>58</v>
+      </c>
+      <c r="C49">
+        <v>574505</v>
+      </c>
+      <c r="D49">
+        <v>1654</v>
+      </c>
+      <c r="E49">
+        <v>10080</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="11"/>
+        <v>75227</v>
+      </c>
+      <c r="I49">
+        <v>1000000</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="13"/>
+        <v>-512456</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="9"/>
+        <v>2976401</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N49" s="16">
+        <v>574505</v>
+      </c>
+      <c r="O49">
+        <v>1000000</v>
+      </c>
+      <c r="P49" s="17">
+        <f t="shared" si="8"/>
+        <v>-509688</v>
+      </c>
+      <c r="Q49" s="17">
+        <f t="shared" si="10"/>
+        <v>3229270</v>
+      </c>
+      <c r="S49" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T49" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U49" s="16">
+        <v>926</v>
+      </c>
+      <c r="V49" s="16">
+        <v>0</v>
+      </c>
+      <c r="W49" s="17">
+        <f t="shared" si="12"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>59</v>
+      </c>
+      <c r="C50">
+        <v>588868</v>
+      </c>
+      <c r="D50">
+        <v>1654</v>
+      </c>
+      <c r="E50">
+        <v>10080</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="11"/>
+        <v>75227</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="13"/>
+        <v>501907</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="9"/>
+        <v>3478308</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" s="16">
+        <v>588868</v>
+      </c>
+      <c r="O50">
+        <v>720000</v>
+      </c>
+      <c r="P50" s="17">
+        <f t="shared" si="8"/>
+        <v>-215325</v>
+      </c>
+      <c r="Q50" s="17">
+        <f t="shared" si="10"/>
+        <v>3013945</v>
+      </c>
+      <c r="S50" s="16">
+        <v>5040</v>
+      </c>
+      <c r="T50" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U50" s="16">
+        <v>926</v>
+      </c>
+      <c r="V50" s="16">
+        <v>0</v>
+      </c>
+      <c r="W50" s="17">
+        <f t="shared" si="12"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1654</v>
+      </c>
+      <c r="E51">
+        <v>10080</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="11"/>
+        <v>75227</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="13"/>
+        <v>-86961</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="9"/>
+        <v>3391347</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="15">
+        <v>603590</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="8"/>
+        <v>519397</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="10"/>
+        <v>3533342</v>
+      </c>
+      <c r="S51">
+        <v>5040</v>
+      </c>
+      <c r="T51">
+        <v>3000</v>
+      </c>
+      <c r="U51">
+        <v>926</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
+        <f t="shared" si="12"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>61</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1654</v>
+      </c>
+      <c r="E52">
+        <v>10080</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="11"/>
+        <v>75227</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="13"/>
+        <v>-86961</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="9"/>
+        <v>3304386</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="15">
+        <v>618680</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="8"/>
+        <v>534487</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" si="10"/>
+        <v>4067829</v>
+      </c>
+      <c r="S52">
+        <v>5040</v>
+      </c>
+      <c r="T52">
+        <v>3000</v>
+      </c>
+      <c r="U52">
+        <v>926</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1">
+        <f t="shared" si="12"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>62</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1654</v>
+      </c>
+      <c r="E53">
+        <v>10080</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="11"/>
+        <v>75227</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="13"/>
+        <v>-86961</v>
+      </c>
+      <c r="K53" s="1">
+        <f>ROUNDDOWN(K52+J53, 0)</f>
+        <v>3217425</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" s="15">
+        <v>634147</v>
+      </c>
+      <c r="O53">
+        <v>720000</v>
+      </c>
+      <c r="P53" s="1">
+        <f>N53-S53-T53-U53-V53-W53-O53</f>
+        <v>-170046</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" si="10"/>
+        <v>3897783</v>
+      </c>
+      <c r="S53">
+        <v>5040</v>
+      </c>
+      <c r="T53">
+        <v>3000</v>
+      </c>
+      <c r="U53">
+        <v>926</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53" s="1">
+        <f t="shared" si="12"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>63</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1654</v>
+      </c>
+      <c r="E54">
+        <v>10080</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="11"/>
+        <v>75227</v>
+      </c>
+      <c r="I54">
+        <f>ROUNDDOWN(K53*0.2, 0)</f>
+        <v>643485</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="13"/>
+        <v>-730446</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="9"/>
+        <v>2486979</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54" s="15">
+        <v>650000</v>
+      </c>
+      <c r="O54">
+        <f>Q53*0.2</f>
+        <v>779556.60000000009</v>
+      </c>
+      <c r="P54" s="1">
+        <f>N54-S54-T54-U54-V54-W54-O54</f>
+        <v>-213749.60000000009</v>
+      </c>
+      <c r="Q54" s="1">
+        <f t="shared" si="10"/>
+        <v>3684033</v>
+      </c>
+      <c r="S54">
+        <v>5040</v>
+      </c>
+      <c r="T54">
+        <v>3000</v>
+      </c>
+      <c r="U54">
+        <v>926</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54" s="1">
+        <f t="shared" si="12"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>64</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1654</v>
+      </c>
+      <c r="E55">
+        <v>10080</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="11"/>
+        <v>75227</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="13"/>
+        <v>-86961</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="9"/>
+        <v>2400018</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" s="15">
+        <v>666250</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" si="8"/>
+        <v>582057</v>
+      </c>
+      <c r="Q55" s="1">
+        <f t="shared" si="10"/>
+        <v>4266090</v>
+      </c>
+      <c r="S55">
+        <v>5040</v>
+      </c>
+      <c r="T55">
+        <v>3000</v>
+      </c>
+      <c r="U55">
+        <v>926</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55" s="1">
+        <f t="shared" si="12"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>65</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1654</v>
+      </c>
+      <c r="E56">
+        <v>10080</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="11"/>
+        <v>75227</v>
+      </c>
+      <c r="I56">
+        <f>300000+I55</f>
+        <v>300000</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="13"/>
+        <v>-386961</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="9"/>
+        <v>2013057</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N56" s="15">
+        <v>682906</v>
+      </c>
+      <c r="O56">
+        <f>300000+O55</f>
+        <v>300000</v>
+      </c>
+      <c r="P56" s="1">
+        <f>N56-S56-T56-U56-V56-W56-O56</f>
+        <v>298713</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" si="10"/>
+        <v>4564803</v>
+      </c>
+      <c r="S56">
+        <v>5040</v>
+      </c>
+      <c r="T56">
+        <v>3000</v>
+      </c>
+      <c r="U56">
+        <v>926</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56" s="1">
+        <f t="shared" si="12"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>66</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1654</v>
+      </c>
+      <c r="E57">
+        <v>10080</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="11"/>
+        <v>75227</v>
+      </c>
+      <c r="I57">
+        <v>120000</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="13"/>
+        <v>-206961</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="9"/>
+        <v>1806096</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N57" s="15">
+        <v>699979</v>
+      </c>
+      <c r="O57">
+        <f>O55</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="1">
+        <f t="shared" si="8"/>
+        <v>615786</v>
+      </c>
+      <c r="Q57" s="1">
+        <f t="shared" si="10"/>
+        <v>5180589</v>
+      </c>
+      <c r="S57">
+        <v>5040</v>
+      </c>
+      <c r="T57">
+        <v>3000</v>
+      </c>
+      <c r="U57">
+        <v>926</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57" s="1">
+        <f t="shared" si="12"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>67</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1654</v>
+      </c>
+      <c r="E58">
+        <v>10080</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="11"/>
+        <v>75227</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="13"/>
+        <v>-86961</v>
+      </c>
+      <c r="K58" s="11">
+        <f>ROUNDDOWN(K57+J58, 0)</f>
+        <v>1719135</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" s="15">
+        <v>717479</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" s="1">
+        <f t="shared" si="8"/>
+        <v>633286</v>
+      </c>
+      <c r="Q58" s="11">
+        <f>Q57+P58</f>
+        <v>5813875</v>
+      </c>
+      <c r="S58">
+        <v>5040</v>
+      </c>
+      <c r="T58">
+        <v>3000</v>
+      </c>
+      <c r="U58">
+        <v>926</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1">
+        <f t="shared" si="12"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>68</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1654</v>
+      </c>
+      <c r="E59">
+        <v>10080</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="11"/>
+        <v>75227</v>
+      </c>
+      <c r="I59">
+        <v>300000</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="13"/>
+        <v>-386961</v>
+      </c>
+      <c r="K59" s="11">
+        <f t="shared" si="4"/>
+        <v>1332174</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M59" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" s="15">
+        <v>735416</v>
+      </c>
+      <c r="O59">
+        <f>300000+O55</f>
+        <v>300000</v>
+      </c>
+      <c r="P59" s="1">
+        <f t="shared" si="8"/>
+        <v>351223</v>
+      </c>
+      <c r="Q59" s="11">
+        <f>Q58+P59</f>
+        <v>6165098</v>
+      </c>
+      <c r="S59">
+        <v>5040</v>
+      </c>
+      <c r="T59">
+        <v>3000</v>
+      </c>
+      <c r="U59">
+        <v>926</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59" s="1">
+        <f t="shared" si="12"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>69</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1654</v>
+      </c>
+      <c r="E60">
+        <v>10080</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="11"/>
+        <v>75227</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>-86961</v>
+      </c>
+      <c r="K60" s="11">
+        <f t="shared" si="4"/>
+        <v>1245213</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="15">
+        <v>753801</v>
+      </c>
+      <c r="O60">
+        <f>O55</f>
+        <v>0</v>
+      </c>
+      <c r="P60" s="1">
+        <f>N60-S60-T60-U60-V60-W60</f>
+        <v>669608</v>
+      </c>
+      <c r="Q60" s="11">
+        <f>Q59+P60</f>
+        <v>6834706</v>
+      </c>
+      <c r="S60">
+        <v>5040</v>
+      </c>
+      <c r="T60">
+        <v>3000</v>
+      </c>
+      <c r="U60">
+        <v>926</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60" s="1">
+        <f t="shared" si="12"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>70</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>1654</v>
+      </c>
+      <c r="E61">
+        <v>10080</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="11"/>
+        <v>75227</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>-86961</v>
+      </c>
+      <c r="K61" s="11">
+        <f t="shared" si="4"/>
+        <v>1158252</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N61" s="15">
+        <v>772646</v>
+      </c>
+      <c r="O61">
+        <f>O60</f>
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f>N61-S61-T61-U61-V61-W61</f>
+        <v>688453</v>
+      </c>
+      <c r="Q61" s="11">
+        <f>Q60+P61</f>
+        <v>7523159</v>
+      </c>
+      <c r="S61">
+        <v>5040</v>
+      </c>
+      <c r="T61">
+        <v>3000</v>
+      </c>
+      <c r="U61">
+        <v>926</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61" s="1">
+        <f t="shared" si="12"/>
+        <v>75227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507B19AC-821E-4BF3-8060-DA2E83BB31C6}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4656,7 +8512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4667,7 +8523,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -4679,7 +8535,7 @@
         <v>184500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A61" si="0">A3+1</f>
         <v>2</v>
@@ -4691,7 +8547,7 @@
         <v>189113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4703,7 +8559,7 @@
         <v>193840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4715,7 +8571,7 @@
         <v>198686</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4727,7 +8583,7 @@
         <v>203653</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4739,7 +8595,7 @@
         <v>208745</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4751,7 +8607,7 @@
         <v>213963</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4763,7 +8619,7 @@
         <v>219313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4775,7 +8631,7 @@
         <v>224795</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4787,7 +8643,7 @@
         <v>230415</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4799,7 +8655,7 @@
         <v>236176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4811,7 +8667,7 @@
         <v>242080</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4823,7 +8679,7 @@
         <v>248132</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4835,7 +8691,7 @@
         <v>254335</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4847,7 +8703,7 @@
         <v>260694</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4859,7 +8715,7 @@
         <v>267211</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4871,7 +8727,7 @@
         <v>273891</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4883,7 +8739,7 @@
         <v>280739</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4895,7 +8751,7 @@
         <v>287757</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4907,7 +8763,7 @@
         <v>294951</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4919,7 +8775,7 @@
         <v>302325</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4931,7 +8787,7 @@
         <v>309883</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4943,7 +8799,7 @@
         <v>317630</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4955,7 +8811,7 @@
         <v>325571</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4967,7 +8823,7 @@
         <v>333710</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4979,7 +8835,7 @@
         <v>342053</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4991,7 +8847,7 @@
         <v>350604</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5003,7 +8859,7 @@
         <v>359369</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5015,7 +8871,7 @@
         <v>368353</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5027,7 +8883,7 @@
         <v>377562</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5039,7 +8895,7 @@
         <v>387001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5051,7 +8907,7 @@
         <v>396676</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5063,7 +8919,7 @@
         <v>406593</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5075,7 +8931,7 @@
         <v>416758</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5087,7 +8943,7 @@
         <v>427177</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5099,7 +8955,7 @@
         <v>437856</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5111,7 +8967,7 @@
         <v>448803</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5123,7 +8979,7 @@
         <v>460023</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5135,7 +8991,7 @@
         <v>471523</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5147,7 +9003,7 @@
         <v>483311</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5159,7 +9015,7 @@
         <v>495394</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5171,7 +9027,7 @@
         <v>507779</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5183,7 +9039,7 @@
         <v>520474</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5195,7 +9051,7 @@
         <v>533485</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5207,7 +9063,7 @@
         <v>546823</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5219,7 +9075,7 @@
         <v>560493</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5231,7 +9087,7 @@
         <v>574505</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5243,7 +9099,7 @@
         <v>588868</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5255,7 +9111,7 @@
         <v>603590</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5267,7 +9123,7 @@
         <v>618680</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -5279,7 +9135,7 @@
         <v>634147</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -5291,7 +9147,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -5303,7 +9159,7 @@
         <v>666250</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5315,7 +9171,7 @@
         <v>682906</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -5327,7 +9183,7 @@
         <v>699979</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -5339,7 +9195,7 @@
         <v>717479</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -5351,7 +9207,7 @@
         <v>735416</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -5363,7 +9219,7 @@
         <v>753801</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C78641B-4F24-42E1-89D8-F9A3D92D0A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A1D10A-5DA0-0644-8D3B-EADBFD5A4189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="7515" activeTab="1" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
+    <workbookView xWindow="-23880" yWindow="4120" windowWidth="23880" windowHeight="16180" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
-    <sheet name="Real_case_2" sheetId="3" r:id="rId2"/>
-    <sheet name="Case_2" sheetId="2" r:id="rId3"/>
+    <sheet name="Case_2" sheetId="3" r:id="rId2"/>
+    <sheet name="Wage" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
   <si>
     <t>step</t>
   </si>
@@ -127,6 +129,18 @@
   </si>
   <si>
     <t>note: car accident relate to which plan</t>
+  </si>
+  <si>
+    <t>smk 6</t>
+  </si>
+  <si>
+    <t>ca 12</t>
+  </si>
+  <si>
+    <t>lb 24</t>
+  </si>
+  <si>
+    <t>nk 18</t>
   </si>
 </sst>
 </file>
@@ -292,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -321,6 +335,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,25 +654,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7:G31"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -714,7 +731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -754,7 +771,7 @@
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>1</v>
@@ -800,7 +817,7 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A61" si="3">A3+1</f>
         <v>2</v>
@@ -851,7 +868,7 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -902,7 +919,7 @@
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -958,7 +975,7 @@
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -1019,7 +1036,7 @@
       </c>
       <c r="W7" s="16"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1050,9 +1067,8 @@
         <f t="shared" si="4"/>
         <v>1274519</v>
       </c>
-      <c r="L8" s="8">
-        <f t="shared" si="5"/>
-        <v>6</v>
+      <c r="L8" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="N8" s="16">
         <v>208745</v>
@@ -1080,7 +1096,7 @@
       </c>
       <c r="W8" s="16"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1112,7 +1128,6 @@
         <v>1461516</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="N9" s="16">
@@ -1141,7 +1156,7 @@
       </c>
       <c r="W9" s="16"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -1202,7 +1217,7 @@
       </c>
       <c r="W10" s="16"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -1263,7 +1278,7 @@
       </c>
       <c r="W11" s="16"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -1324,7 +1339,7 @@
       </c>
       <c r="W12" s="16"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -1385,7 +1400,7 @@
       </c>
       <c r="W13" s="16"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -1416,9 +1431,8 @@
         <f t="shared" si="4"/>
         <v>2479465</v>
       </c>
-      <c r="L14" s="8">
-        <f t="shared" si="5"/>
-        <v>12</v>
+      <c r="L14" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="N14" s="16">
         <v>242080</v>
@@ -1446,7 +1460,7 @@
       </c>
       <c r="W14" s="16"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -1478,7 +1492,6 @@
         <v>2700631</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="N15" s="16">
@@ -1507,7 +1520,7 @@
       </c>
       <c r="W15" s="16"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -1568,7 +1581,7 @@
       </c>
       <c r="W16" s="16"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -1629,7 +1642,7 @@
       </c>
       <c r="W17" s="16"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -1690,7 +1703,7 @@
       </c>
       <c r="W18" s="16"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -1751,7 +1764,7 @@
       </c>
       <c r="W19" s="16"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1785,9 +1798,8 @@
         <f t="shared" si="4"/>
         <v>3874597</v>
       </c>
-      <c r="L20" s="8">
-        <f t="shared" si="5"/>
-        <v>18</v>
+      <c r="L20" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="N20" s="16">
         <v>280739</v>
@@ -1817,7 +1829,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -1852,7 +1864,6 @@
         <v>4107314</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="N21" s="16">
@@ -1883,7 +1894,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -1949,7 +1960,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -2015,7 +2026,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -2081,7 +2092,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -2147,7 +2158,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -2181,9 +2192,8 @@
         <f t="shared" si="4"/>
         <v>5382474</v>
       </c>
-      <c r="L26" s="8">
-        <f t="shared" si="5"/>
-        <v>24</v>
+      <c r="L26" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="N26" s="16">
         <v>325571</v>
@@ -2213,7 +2223,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -2248,7 +2258,6 @@
         <v>5661144</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="N27" s="16">
@@ -2279,7 +2288,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -2345,7 +2354,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -2411,7 +2420,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -2477,7 +2486,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -2543,7 +2552,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -2609,7 +2618,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -2675,7 +2684,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -2741,7 +2750,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -2807,7 +2816,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -2873,7 +2882,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -2938,7 +2947,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -3008,7 +3017,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -3078,7 +3087,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -3143,7 +3152,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -3210,7 +3219,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -3284,7 +3293,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -3356,7 +3365,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -3430,7 +3439,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -3502,7 +3511,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -3570,7 +3579,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -3637,7 +3646,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -3704,7 +3713,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -3776,7 +3785,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -3848,7 +3857,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="3"/>
         <v>49</v>
@@ -3917,7 +3926,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -3983,7 +3992,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="3"/>
         <v>51</v>
@@ -4055,7 +4064,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -4129,7 +4138,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -4201,7 +4210,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -4275,7 +4284,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -4348,7 +4357,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -4421,7 +4430,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -4497,7 +4506,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -4570,7 +4579,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -4653,17 +4662,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC56D9E7-8CB0-440E-8035-579192D8154D}">
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -4726,7 +4735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -4769,7 +4778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>1</v>
@@ -4815,7 +4824,7 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A61" si="3">A3+1</f>
         <v>2</v>
@@ -4863,7 +4872,7 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -4914,7 +4923,7 @@
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4967,7 +4976,7 @@
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5025,7 +5034,7 @@
       </c>
       <c r="W7" s="16"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -5053,9 +5062,8 @@
         <f t="shared" si="4"/>
         <v>1231441</v>
       </c>
-      <c r="L8" s="8">
-        <f t="shared" si="5"/>
-        <v>6</v>
+      <c r="L8" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="N8" s="16">
         <v>208745</v>
@@ -5083,7 +5091,7 @@
       </c>
       <c r="W8" s="16"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5112,7 +5120,6 @@
         <v>1403670</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="N9" s="16">
@@ -5141,7 +5148,7 @@
       </c>
       <c r="W9" s="16"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -5170,7 +5177,7 @@
         <v>1581249</v>
       </c>
       <c r="L10" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L10:L25" si="6">L9+1</f>
         <v>8</v>
       </c>
       <c r="N10" s="16">
@@ -5199,7 +5206,7 @@
       </c>
       <c r="W10" s="16"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -5228,7 +5235,7 @@
         <v>1764310</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="N11" s="16">
@@ -5257,7 +5264,7 @@
       </c>
       <c r="W11" s="16"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -5286,7 +5293,7 @@
         <v>1952991</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="N12" s="16">
@@ -5315,7 +5322,7 @@
       </c>
       <c r="W12" s="16"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -5347,7 +5354,7 @@
         <v>2129433</v>
       </c>
       <c r="L13" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="N13" s="16">
@@ -5376,7 +5383,7 @@
       </c>
       <c r="W13" s="16"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -5407,9 +5414,8 @@
         <f t="shared" si="4"/>
         <v>2311779</v>
       </c>
-      <c r="L14" s="8">
-        <f t="shared" si="5"/>
-        <v>12</v>
+      <c r="L14" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="N14" s="16">
         <v>242080</v>
@@ -5437,7 +5443,7 @@
       </c>
       <c r="W14" s="16"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -5469,7 +5475,6 @@
         <v>2500177</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="N15" s="16">
@@ -5498,7 +5503,7 @@
       </c>
       <c r="W15" s="16"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -5530,7 +5535,7 @@
         <v>2694778</v>
       </c>
       <c r="L16" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="N16" s="16">
@@ -5559,7 +5564,7 @@
       </c>
       <c r="W16" s="16"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -5591,7 +5596,7 @@
         <v>2895738</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="N17" s="16">
@@ -5620,7 +5625,7 @@
       </c>
       <c r="W17" s="16"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -5652,7 +5657,7 @@
         <v>3103215</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="N18" s="16">
@@ -5681,7 +5686,7 @@
       </c>
       <c r="W18" s="16"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -5713,7 +5718,7 @@
         <v>3317372</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="N19" s="16">
@@ -5742,7 +5747,7 @@
       </c>
       <c r="W19" s="16"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -5776,9 +5781,8 @@
         <f t="shared" si="4"/>
         <v>3510303</v>
       </c>
-      <c r="L20" s="8">
-        <f t="shared" si="5"/>
-        <v>18</v>
+      <c r="L20" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="N20" s="16">
         <v>280739</v>
@@ -5808,7 +5812,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -5843,7 +5847,6 @@
         <v>3710252</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="N21" s="16">
@@ -5874,7 +5877,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -5909,7 +5912,7 @@
         <v>3917395</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="N22" s="16">
@@ -5940,7 +5943,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -5975,7 +5978,7 @@
         <v>4131912</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="N23" s="16">
@@ -6006,7 +6009,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -6041,7 +6044,7 @@
         <v>4353987</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="N24" s="16">
@@ -6072,7 +6075,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -6107,7 +6110,7 @@
         <v>4583809</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="N25" s="16">
@@ -6138,7 +6141,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -6175,9 +6178,8 @@
         <f t="shared" si="4"/>
         <v>4701572</v>
       </c>
-      <c r="L26" s="8">
-        <f t="shared" si="5"/>
-        <v>24</v>
+      <c r="L26" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="N26" s="16">
         <v>325571</v>
@@ -6207,7 +6209,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -6242,7 +6244,6 @@
         <v>4947474</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="N27" s="16">
@@ -6273,7 +6274,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -6339,7 +6340,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6405,7 +6406,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -6471,7 +6472,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -6537,7 +6538,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -6603,7 +6604,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -6666,7 +6667,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -6729,7 +6730,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -6792,7 +6793,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -6855,7 +6856,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -6917,7 +6918,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -6982,7 +6983,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -7046,7 +7047,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -7108,7 +7109,7 @@
         <v>28074</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -7126,7 +7127,7 @@
         <v>10080</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" ref="H41:H42" si="6">28074+ROUNDUP(471523*10%, 0)</f>
+        <f t="shared" ref="H41:H42" si="7">28074+ROUNDUP(471523*10%, 0)</f>
         <v>75227</v>
       </c>
       <c r="J41">
@@ -7165,11 +7166,11 @@
         <v>0</v>
       </c>
       <c r="W41" s="17">
-        <f t="shared" ref="W41:W42" si="7">28074+ROUNDUP(471523*10%, 0)</f>
+        <f t="shared" ref="W41:W42" si="8">28074+ROUNDUP(471523*10%, 0)</f>
         <v>75227</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -7187,7 +7188,7 @@
         <v>10080</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75227</v>
       </c>
       <c r="I42">
@@ -7213,7 +7214,7 @@
         <v>1663682.6</v>
       </c>
       <c r="P42" s="17">
-        <f t="shared" ref="P42:P59" si="8">N42-S42-T42-U42-V42-W42-O42</f>
+        <f t="shared" ref="P42:P59" si="9">N42-S42-T42-U42-V42-W42-O42</f>
         <v>-1747875.6</v>
       </c>
       <c r="Q42" s="17">
@@ -7233,11 +7234,11 @@
         <v>0</v>
       </c>
       <c r="W42" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -7266,7 +7267,7 @@
         <v>-1591567</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" ref="K43:K57" si="9">ROUNDDOWN(K42+J43, 0)</f>
+        <f t="shared" ref="K43:K57" si="10">ROUNDDOWN(K42+J43, 0)</f>
         <v>4749216</v>
       </c>
       <c r="L43" s="10" t="s">
@@ -7279,11 +7280,11 @@
         <v>2000000</v>
       </c>
       <c r="P43" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1588799</v>
       </c>
       <c r="Q43" s="17">
-        <f t="shared" ref="Q43:Q57" si="10">ROUNDDOWN(Q42+P43, 0)</f>
+        <f t="shared" ref="Q43:Q57" si="11">ROUNDDOWN(Q42+P43, 0)</f>
         <v>4981738</v>
       </c>
       <c r="S43" s="16">
@@ -7303,7 +7304,7 @@
         <v>75227</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -7321,7 +7322,7 @@
         <v>10080</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" ref="H44:H61" si="11">H43</f>
+        <f t="shared" ref="H44:H61" si="12">H43</f>
         <v>75227</v>
       </c>
       <c r="I44">
@@ -7347,11 +7348,11 @@
         <v>2490869</v>
       </c>
       <c r="P44" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2067283</v>
       </c>
       <c r="Q44" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2914455</v>
       </c>
       <c r="S44" s="16">
@@ -7367,11 +7368,11 @@
         <v>0</v>
       </c>
       <c r="W44" s="17">
-        <f t="shared" ref="W44:W61" si="12">W43</f>
+        <f t="shared" ref="W44:W61" si="13">W43</f>
         <v>75227</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -7389,18 +7390,18 @@
         <v>10080</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="I45">
         <v>1000000</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" ref="J45:J59" si="13">C45-D45-E45-F45-G45-H45-I45</f>
+        <f t="shared" ref="J45:J59" si="14">C45-D45-E45-F45-G45-H45-I45</f>
         <v>-566487</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2228939</v>
       </c>
       <c r="L45" s="10" t="s">
@@ -7413,11 +7414,11 @@
         <v>1000000</v>
       </c>
       <c r="P45" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-563719</v>
       </c>
       <c r="Q45" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2350736</v>
       </c>
       <c r="S45" s="16">
@@ -7433,11 +7434,11 @@
         <v>0</v>
       </c>
       <c r="W45" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -7457,12 +7458,12 @@
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>446524</v>
       </c>
       <c r="K46" s="13">
@@ -7477,11 +7478,11 @@
       </c>
       <c r="O46" s="18"/>
       <c r="P46" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>449292</v>
       </c>
       <c r="Q46" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2800028</v>
       </c>
       <c r="S46" s="18">
@@ -7497,11 +7498,11 @@
         <v>0</v>
       </c>
       <c r="W46" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -7519,7 +7520,7 @@
         <v>10080</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="I47">
@@ -7530,7 +7531,7 @@
         <v>339862</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3015325</v>
       </c>
       <c r="L47" s="10" t="s">
@@ -7541,11 +7542,11 @@
       </c>
       <c r="O47" s="16"/>
       <c r="P47" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>462630</v>
       </c>
       <c r="Q47" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3262658</v>
       </c>
       <c r="S47" s="16">
@@ -7561,37 +7562,37 @@
         <v>0</v>
       </c>
       <c r="W47" s="17">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>57</v>
+      </c>
+      <c r="C48">
+        <v>560493</v>
+      </c>
+      <c r="D48">
+        <v>1654</v>
+      </c>
+      <c r="E48">
+        <v>10080</v>
+      </c>
+      <c r="H48" s="1">
         <f t="shared" si="12"/>
         <v>75227</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>57</v>
-      </c>
-      <c r="C48">
-        <v>560493</v>
-      </c>
-      <c r="D48">
-        <v>1654</v>
-      </c>
-      <c r="E48">
-        <v>10080</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" si="11"/>
-        <v>75227</v>
-      </c>
       <c r="J48" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>473532</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3488857</v>
       </c>
       <c r="L48" s="10" t="s">
@@ -7602,11 +7603,11 @@
       </c>
       <c r="O48" s="16"/>
       <c r="P48" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>476300</v>
       </c>
       <c r="Q48" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3738958</v>
       </c>
       <c r="S48" s="16">
@@ -7622,40 +7623,40 @@
         <v>0</v>
       </c>
       <c r="W48" s="17">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>58</v>
+      </c>
+      <c r="C49">
+        <v>574505</v>
+      </c>
+      <c r="D49">
+        <v>1654</v>
+      </c>
+      <c r="E49">
+        <v>10080</v>
+      </c>
+      <c r="H49" s="1">
         <f t="shared" si="12"/>
         <v>75227</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>58</v>
-      </c>
-      <c r="C49">
-        <v>574505</v>
-      </c>
-      <c r="D49">
-        <v>1654</v>
-      </c>
-      <c r="E49">
-        <v>10080</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" si="11"/>
-        <v>75227</v>
-      </c>
       <c r="I49">
         <v>1000000</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-512456</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2976401</v>
       </c>
       <c r="L49" s="10" t="s">
@@ -7668,11 +7669,11 @@
         <v>1000000</v>
       </c>
       <c r="P49" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-509688</v>
       </c>
       <c r="Q49" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3229270</v>
       </c>
       <c r="S49" s="16">
@@ -7688,40 +7689,40 @@
         <v>0</v>
       </c>
       <c r="W49" s="17">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>59</v>
+      </c>
+      <c r="C50">
+        <v>588868</v>
+      </c>
+      <c r="D50">
+        <v>1654</v>
+      </c>
+      <c r="E50">
+        <v>10080</v>
+      </c>
+      <c r="H50" s="1">
         <f t="shared" si="12"/>
         <v>75227</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>59</v>
-      </c>
-      <c r="C50">
-        <v>588868</v>
-      </c>
-      <c r="D50">
-        <v>1654</v>
-      </c>
-      <c r="E50">
-        <v>10080</v>
-      </c>
-      <c r="H50" s="1">
-        <f t="shared" si="11"/>
-        <v>75227</v>
-      </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>501907</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3478308</v>
       </c>
       <c r="L50" s="10" t="s">
@@ -7734,11 +7735,11 @@
         <v>720000</v>
       </c>
       <c r="P50" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-215325</v>
       </c>
       <c r="Q50" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3013945</v>
       </c>
       <c r="S50" s="16">
@@ -7754,37 +7755,37 @@
         <v>0</v>
       </c>
       <c r="W50" s="17">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1654</v>
+      </c>
+      <c r="E51">
+        <v>10080</v>
+      </c>
+      <c r="H51" s="1">
         <f t="shared" si="12"/>
         <v>75227</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>60</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>1654</v>
-      </c>
-      <c r="E51">
-        <v>10080</v>
-      </c>
-      <c r="H51" s="1">
-        <f t="shared" si="11"/>
-        <v>75227</v>
-      </c>
       <c r="J51" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-86961</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3391347</v>
       </c>
       <c r="L51" s="10" t="s">
@@ -7797,11 +7798,11 @@
         <v>603590</v>
       </c>
       <c r="P51" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>519397</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3533342</v>
       </c>
       <c r="S51">
@@ -7817,37 +7818,37 @@
         <v>0</v>
       </c>
       <c r="W51" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>61</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1654</v>
+      </c>
+      <c r="E52">
+        <v>10080</v>
+      </c>
+      <c r="H52" s="1">
         <f t="shared" si="12"/>
         <v>75227</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>61</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>1654</v>
-      </c>
-      <c r="E52">
-        <v>10080</v>
-      </c>
-      <c r="H52" s="1">
-        <f t="shared" si="11"/>
-        <v>75227</v>
-      </c>
       <c r="J52" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-86961</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3304386</v>
       </c>
       <c r="L52" s="10" t="s">
@@ -7857,11 +7858,11 @@
         <v>618680</v>
       </c>
       <c r="P52" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>534487</v>
       </c>
       <c r="Q52" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4067829</v>
       </c>
       <c r="S52">
@@ -7877,36 +7878,36 @@
         <v>0</v>
       </c>
       <c r="W52" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>62</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1654</v>
+      </c>
+      <c r="E53">
+        <v>10080</v>
+      </c>
+      <c r="H53" s="1">
         <f t="shared" si="12"/>
         <v>75227</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>62</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>1654</v>
-      </c>
-      <c r="E53">
-        <v>10080</v>
-      </c>
-      <c r="H53" s="1">
-        <f t="shared" si="11"/>
-        <v>75227</v>
-      </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-86961</v>
       </c>
       <c r="K53" s="1">
@@ -7927,7 +7928,7 @@
         <v>-170046</v>
       </c>
       <c r="Q53" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3897783</v>
       </c>
       <c r="S53">
@@ -7943,11 +7944,11 @@
         <v>0</v>
       </c>
       <c r="W53" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -7965,7 +7966,7 @@
         <v>10080</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="I54">
@@ -7973,11 +7974,11 @@
         <v>643485</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-730446</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2486979</v>
       </c>
       <c r="L54" s="10" t="s">
@@ -7995,7 +7996,7 @@
         <v>-213749.60000000009</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3684033</v>
       </c>
       <c r="S54">
@@ -8011,40 +8012,40 @@
         <v>0</v>
       </c>
       <c r="W54" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>64</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1654</v>
+      </c>
+      <c r="E55">
+        <v>10080</v>
+      </c>
+      <c r="H55" s="1">
         <f t="shared" si="12"/>
         <v>75227</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>64</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>1654</v>
-      </c>
-      <c r="E55">
-        <v>10080</v>
-      </c>
-      <c r="H55" s="1">
-        <f t="shared" si="11"/>
-        <v>75227</v>
-      </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-86961</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2400018</v>
       </c>
       <c r="L55" s="10" t="s">
@@ -8057,11 +8058,11 @@
         <v>0</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>582057</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4266090</v>
       </c>
       <c r="S55">
@@ -8077,11 +8078,11 @@
         <v>0</v>
       </c>
       <c r="W55" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -8099,7 +8100,7 @@
         <v>10080</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="I56">
@@ -8107,11 +8108,11 @@
         <v>300000</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-386961</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2013057</v>
       </c>
       <c r="L56" s="10" t="s">
@@ -8129,7 +8130,7 @@
         <v>298713</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4564803</v>
       </c>
       <c r="S56">
@@ -8145,40 +8146,40 @@
         <v>0</v>
       </c>
       <c r="W56" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>66</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1654</v>
+      </c>
+      <c r="E57">
+        <v>10080</v>
+      </c>
+      <c r="H57" s="1">
         <f t="shared" si="12"/>
         <v>75227</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>66</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>1654</v>
-      </c>
-      <c r="E57">
-        <v>10080</v>
-      </c>
-      <c r="H57" s="1">
-        <f t="shared" si="11"/>
-        <v>75227</v>
-      </c>
       <c r="I57">
         <v>120000</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-206961</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1806096</v>
       </c>
       <c r="L57" s="10" t="s">
@@ -8192,11 +8193,11 @@
         <v>0</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>615786</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5180589</v>
       </c>
       <c r="S57">
@@ -8212,36 +8213,36 @@
         <v>0</v>
       </c>
       <c r="W57" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>67</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1654</v>
+      </c>
+      <c r="E58">
+        <v>10080</v>
+      </c>
+      <c r="H58" s="1">
         <f t="shared" si="12"/>
         <v>75227</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>67</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>1654</v>
-      </c>
-      <c r="E58">
-        <v>10080</v>
-      </c>
-      <c r="H58" s="1">
-        <f t="shared" si="11"/>
-        <v>75227</v>
-      </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-86961</v>
       </c>
       <c r="K58" s="11">
@@ -8258,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>633286</v>
       </c>
       <c r="Q58" s="11">
@@ -8278,36 +8279,36 @@
         <v>0</v>
       </c>
       <c r="W58" s="1">
+        <f t="shared" si="13"/>
+        <v>75227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>68</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1654</v>
+      </c>
+      <c r="E59">
+        <v>10080</v>
+      </c>
+      <c r="H59" s="1">
         <f t="shared" si="12"/>
         <v>75227</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>68</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>1654</v>
-      </c>
-      <c r="E59">
-        <v>10080</v>
-      </c>
-      <c r="H59" s="1">
-        <f t="shared" si="11"/>
-        <v>75227</v>
-      </c>
       <c r="I59">
         <v>300000</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-386961</v>
       </c>
       <c r="K59" s="11">
@@ -8328,7 +8329,7 @@
         <v>300000</v>
       </c>
       <c r="P59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>351223</v>
       </c>
       <c r="Q59" s="11">
@@ -8348,11 +8349,11 @@
         <v>0</v>
       </c>
       <c r="W59" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -8370,7 +8371,7 @@
         <v>10080</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="I60">
@@ -8415,11 +8416,11 @@
         <v>0</v>
       </c>
       <c r="W60" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>75227</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -8437,7 +8438,7 @@
         <v>10080</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>75227</v>
       </c>
       <c r="I61">
@@ -8482,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>75227</v>
       </c>
     </row>
@@ -8495,13 +8496,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507B19AC-821E-4BF3-8060-DA2E83BB31C6}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8512,7 +8513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8523,7 +8524,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -8535,7 +8536,7 @@
         <v>184500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A61" si="0">A3+1</f>
         <v>2</v>
@@ -8547,7 +8548,7 @@
         <v>189113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8559,7 +8560,7 @@
         <v>193840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8571,7 +8572,7 @@
         <v>198686</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8583,7 +8584,7 @@
         <v>203653</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8595,7 +8596,7 @@
         <v>208745</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8607,7 +8608,7 @@
         <v>213963</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8619,7 +8620,7 @@
         <v>219313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8631,7 +8632,7 @@
         <v>224795</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8643,7 +8644,7 @@
         <v>230415</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8655,7 +8656,7 @@
         <v>236176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8667,7 +8668,7 @@
         <v>242080</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8679,7 +8680,7 @@
         <v>248132</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8691,7 +8692,7 @@
         <v>254335</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8703,7 +8704,7 @@
         <v>260694</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8715,7 +8716,7 @@
         <v>267211</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8727,7 +8728,7 @@
         <v>273891</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8739,7 +8740,7 @@
         <v>280739</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8751,7 +8752,7 @@
         <v>287757</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8763,7 +8764,7 @@
         <v>294951</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8775,7 +8776,7 @@
         <v>302325</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8787,7 +8788,7 @@
         <v>309883</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8799,7 +8800,7 @@
         <v>317630</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -8811,7 +8812,7 @@
         <v>325571</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8823,7 +8824,7 @@
         <v>333710</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -8835,7 +8836,7 @@
         <v>342053</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -8847,7 +8848,7 @@
         <v>350604</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -8859,7 +8860,7 @@
         <v>359369</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -8871,7 +8872,7 @@
         <v>368353</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -8883,7 +8884,7 @@
         <v>377562</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -8895,7 +8896,7 @@
         <v>387001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -8907,7 +8908,7 @@
         <v>396676</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -8919,7 +8920,7 @@
         <v>406593</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -8931,7 +8932,7 @@
         <v>416758</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -8943,7 +8944,7 @@
         <v>427177</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -8955,7 +8956,7 @@
         <v>437856</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -8967,7 +8968,7 @@
         <v>448803</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -8979,7 +8980,7 @@
         <v>460023</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -8991,7 +8992,7 @@
         <v>471523</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -9003,7 +9004,7 @@
         <v>483311</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -9015,7 +9016,7 @@
         <v>495394</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -9027,7 +9028,7 @@
         <v>507779</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -9039,7 +9040,7 @@
         <v>520474</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -9051,7 +9052,7 @@
         <v>533485</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -9063,7 +9064,7 @@
         <v>546823</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -9075,7 +9076,7 @@
         <v>560493</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -9087,7 +9088,7 @@
         <v>574505</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -9099,7 +9100,7 @@
         <v>588868</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -9111,7 +9112,7 @@
         <v>603590</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -9123,7 +9124,7 @@
         <v>618680</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -9135,7 +9136,7 @@
         <v>634147</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -9147,7 +9148,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -9159,7 +9160,7 @@
         <v>666250</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -9171,7 +9172,7 @@
         <v>682906</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -9183,7 +9184,7 @@
         <v>699979</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -9195,7 +9196,7 @@
         <v>717479</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -9207,7 +9208,7 @@
         <v>735416</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -9219,7 +9220,7 @@
         <v>753801</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A1D10A-5DA0-0644-8D3B-EADBFD5A4189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C95C8C-622C-4540-9A65-6D38251110BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23880" yWindow="4120" windowWidth="23880" windowHeight="16180" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
@@ -654,9 +654,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3269,7 +3269,7 @@
         <v>1663682.6</v>
       </c>
       <c r="P42" s="17">
-        <f t="shared" ref="P42:P59" si="8">N42-S42-T42-U42-V42-W42-O42</f>
+        <f t="shared" ref="P42:P61" si="8">N42-S42-T42-U42-V42-W42-O42</f>
         <v>-1747875.6</v>
       </c>
       <c r="Q42" s="17">
@@ -4540,10 +4540,7 @@
         <f t="shared" si="1"/>
         <v>-84193</v>
       </c>
-      <c r="K60" s="11">
-        <f t="shared" si="4"/>
-        <v>-342883</v>
-      </c>
+      <c r="K60" s="11"/>
       <c r="L60" s="10" t="s">
         <v>20</v>
       </c>
@@ -4555,12 +4552,12 @@
         <v>13325</v>
       </c>
       <c r="P60" s="1">
-        <f>N60-S60-T60-U60-V60-W60</f>
-        <v>669608</v>
+        <f t="shared" si="8"/>
+        <v>656283</v>
       </c>
       <c r="Q60" s="11">
         <f>Q59+P60</f>
-        <v>6048081</v>
+        <v>6034756</v>
       </c>
       <c r="S60">
         <v>5040</v>
@@ -4613,10 +4610,7 @@
         <f t="shared" si="1"/>
         <v>-84193</v>
       </c>
-      <c r="K61" s="11">
-        <f t="shared" si="4"/>
-        <v>-427076</v>
-      </c>
+      <c r="K61" s="11"/>
       <c r="L61" s="10" t="s">
         <v>10</v>
       </c>
@@ -4627,13 +4621,13 @@
         <f>O60</f>
         <v>13325</v>
       </c>
-      <c r="P61">
-        <f>N61-S61-T61-U61-V61-W61</f>
-        <v>688453</v>
+      <c r="P61" s="1">
+        <f t="shared" si="8"/>
+        <v>675128</v>
       </c>
       <c r="Q61" s="11">
         <f>Q60+P61</f>
-        <v>6736534</v>
+        <v>6709884</v>
       </c>
       <c r="S61">
         <v>5040</v>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C95C8C-622C-4540-9A65-6D38251110BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4AFD69-88CB-2146-9E7A-C876B06DB6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23880" yWindow="4120" windowWidth="23880" windowHeight="16180" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
-    <sheet name="Case_2" sheetId="3" r:id="rId2"/>
-    <sheet name="Wage" sheetId="2" r:id="rId3"/>
+    <sheet name="Saving" sheetId="4" r:id="rId2"/>
+    <sheet name="Case_2" sheetId="3" r:id="rId3"/>
+    <sheet name="Wage" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="35">
   <si>
     <t>step</t>
   </si>
@@ -241,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -302,11 +303,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -338,6 +363,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,9 +681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P61" sqref="P61"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -839,7 +866,7 @@
         <v>181073</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K61" si="4">K3+J4</f>
+        <f t="shared" ref="K4:K59" si="4">K3+J4</f>
         <v>540533</v>
       </c>
       <c r="L4" s="4">
@@ -4391,7 +4418,7 @@
         <f t="shared" si="13"/>
         <v>-817518</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K58" s="1">
         <f>ROUNDDOWN(K57+J58, 0)</f>
         <v>138828</v>
       </c>
@@ -4464,7 +4491,7 @@
         <f t="shared" si="13"/>
         <v>-397518</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K59" s="1">
         <f t="shared" si="4"/>
         <v>-258690</v>
       </c>
@@ -4653,10 +4680,1840 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B21F16-4E4B-C24F-AFC6-C269A7672F02}">
+  <dimension ref="A1:L61"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>180000</v>
+      </c>
+      <c r="J2">
+        <f>C2-D2-E2-F2-G2-H2</f>
+        <v>180000</v>
+      </c>
+      <c r="K2">
+        <f>J2</f>
+        <v>180000</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>184500</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J61" si="0">C3-D3-E3-F3-G3-H3</f>
+        <v>184500</v>
+      </c>
+      <c r="K3">
+        <f>K2+J3</f>
+        <v>364500</v>
+      </c>
+      <c r="L3" s="3">
+        <f>L2+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <f t="shared" ref="A4:A61" si="1">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>189113</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>189113</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K59" si="2">K3+J4</f>
+        <v>553613</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" ref="L4:L36" si="3">L3+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>193840</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>193840</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>747453</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>198686</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>198686</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>946139</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>203653</v>
+      </c>
+      <c r="G7">
+        <v>18000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>185653</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>1131792</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>208745</v>
+      </c>
+      <c r="G8">
+        <v>18000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>190745</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>1322537</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>213963</v>
+      </c>
+      <c r="G9">
+        <v>18000</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>195963</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>1518500</v>
+      </c>
+      <c r="L9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>219313</v>
+      </c>
+      <c r="G10">
+        <v>18000</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>201313</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>1719813</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>224795</v>
+      </c>
+      <c r="G11">
+        <v>18000</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>206795</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>1926608</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>230415</v>
+      </c>
+      <c r="G12">
+        <v>18000</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>212415</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>2139023</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>236176</v>
+      </c>
+      <c r="G13">
+        <v>18000</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>218176</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>2357199</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>242080</v>
+      </c>
+      <c r="G14">
+        <v>18000</v>
+      </c>
+      <c r="I14">
+        <v>90000</v>
+      </c>
+      <c r="J14">
+        <f>C14-D14-E14-F14-G14-H14-I14</f>
+        <v>134080</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>2491279</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>248132</v>
+      </c>
+      <c r="G15">
+        <v>18000</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>230132</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>2721411</v>
+      </c>
+      <c r="L15" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>254335</v>
+      </c>
+      <c r="G16">
+        <v>18000</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>236335</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>2957746</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>260694</v>
+      </c>
+      <c r="G17">
+        <v>18000</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>242694</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>3200440</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>267211</v>
+      </c>
+      <c r="G18">
+        <v>18000</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>249211</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>3449651</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>273891</v>
+      </c>
+      <c r="G19">
+        <v>18000</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>255891</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>3705542</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>280739</v>
+      </c>
+      <c r="G20">
+        <v>18000</v>
+      </c>
+      <c r="H20">
+        <v>28074</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>234665</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>3940207</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>287757</v>
+      </c>
+      <c r="G21">
+        <v>18000</v>
+      </c>
+      <c r="H21">
+        <v>28074</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>241683</v>
+      </c>
+      <c r="K21" s="25">
+        <f t="shared" si="2"/>
+        <v>4181890</v>
+      </c>
+      <c r="L21" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>294951</v>
+      </c>
+      <c r="G22">
+        <v>18000</v>
+      </c>
+      <c r="H22">
+        <v>28074</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>248877</v>
+      </c>
+      <c r="K22" s="26">
+        <f t="shared" si="2"/>
+        <v>4430767</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>302325</v>
+      </c>
+      <c r="G23">
+        <v>18000</v>
+      </c>
+      <c r="H23">
+        <v>28074</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>256251</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>4687018</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>309883</v>
+      </c>
+      <c r="G24">
+        <v>18000</v>
+      </c>
+      <c r="H24">
+        <v>28074</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>263809</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>4950827</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>317630</v>
+      </c>
+      <c r="G25">
+        <v>18000</v>
+      </c>
+      <c r="H25">
+        <v>28074</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>271556</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>5222383</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>325571</v>
+      </c>
+      <c r="G26">
+        <v>18000</v>
+      </c>
+      <c r="H26">
+        <v>28074</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>279497</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>5501880</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>333710</v>
+      </c>
+      <c r="G27">
+        <v>18000</v>
+      </c>
+      <c r="H27">
+        <v>28074</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>287636</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>5789516</v>
+      </c>
+      <c r="L27" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>342053</v>
+      </c>
+      <c r="G28">
+        <v>18000</v>
+      </c>
+      <c r="H28">
+        <v>28074</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>295979</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>6085495</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>350604</v>
+      </c>
+      <c r="G29">
+        <v>18000</v>
+      </c>
+      <c r="H29">
+        <v>28074</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>304530</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>6390025</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>359369</v>
+      </c>
+      <c r="G30">
+        <v>18000</v>
+      </c>
+      <c r="H30">
+        <v>28074</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>313295</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>6703320</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>41</v>
+      </c>
+      <c r="C31">
+        <v>368353</v>
+      </c>
+      <c r="G31">
+        <v>18000</v>
+      </c>
+      <c r="H31">
+        <v>28074</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>322279</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>7025599</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>42</v>
+      </c>
+      <c r="C32">
+        <v>377562</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>28074</v>
+      </c>
+      <c r="J32">
+        <f>C32-D32-E32-F32-G32-H32+490013</f>
+        <v>839501</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>7865100</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <v>387001</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>28074</v>
+      </c>
+      <c r="J33">
+        <f>C33-D33-E33-F33-G33-H33</f>
+        <v>358927</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>8224027</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>44</v>
+      </c>
+      <c r="C34">
+        <v>396676</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>28074</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>368602</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>8592629</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>406593</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>28074</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>378519</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>8971148</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>416758</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>28074</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>388684</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>9359832</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>28074</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>-28074</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>9331758</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>28074</v>
+      </c>
+      <c r="I38">
+        <v>300000</v>
+      </c>
+      <c r="J38">
+        <f>C38-D38-E38-F38-G38-H38-I38</f>
+        <v>-328074</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>9003684</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>48</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>28074</v>
+      </c>
+      <c r="I39">
+        <v>300000</v>
+      </c>
+      <c r="J39">
+        <f>C39-D39-E39-F39-G39-H39-I39</f>
+        <v>-328074</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>8675610</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>49</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>28074</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>-28074</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>8647536</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>50</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" ref="H41:H42" si="4">28074+ROUNDUP(471523*10%, 0)</f>
+        <v>75227</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>-75227</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>8572309</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>51</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="4"/>
+        <v>75227</v>
+      </c>
+      <c r="I42">
+        <f>K41*0.2</f>
+        <v>1714461.8</v>
+      </c>
+      <c r="J42" s="1">
+        <f>C42-D42-E42-F42-G42-H42-I42</f>
+        <v>-1789688.8</v>
+      </c>
+      <c r="K42" s="1">
+        <f>ROUNDDOWN(K41+J42,0)</f>
+        <v>6782620</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>495394</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <f>28074+ROUNDUP(471523*10%, 0)</f>
+        <v>75227</v>
+      </c>
+      <c r="I43">
+        <v>2000000</v>
+      </c>
+      <c r="J43" s="1">
+        <f>C43-D43-E43-F43-G43-H43-I43</f>
+        <v>-1579833</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" ref="K43:K57" si="5">ROUNDDOWN(K42+J43, 0)</f>
+        <v>5202787</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>507779</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" ref="H44:H61" si="6">H43</f>
+        <v>75227</v>
+      </c>
+      <c r="I44">
+        <f>K43/2</f>
+        <v>2601393.5</v>
+      </c>
+      <c r="J44" s="1">
+        <f>C44-D44-E44-F44-G44-H44-I44</f>
+        <v>-2168841.5</v>
+      </c>
+      <c r="K44" s="1">
+        <f>ROUNDDOWN(K43+J44, 0)</f>
+        <v>3033945</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>54</v>
+      </c>
+      <c r="C45">
+        <v>520474</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I45">
+        <v>1000000</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" ref="J45:J59" si="7">C45-D45-E45-F45-G45-H45-I45</f>
+        <v>-554753</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="5"/>
+        <v>2479192</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="12">
+        <v>55</v>
+      </c>
+      <c r="C46" s="12">
+        <v>533485</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12">
+        <v>0</v>
+      </c>
+      <c r="H46" s="13">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="13">
+        <f t="shared" si="7"/>
+        <v>458258</v>
+      </c>
+      <c r="K46" s="13">
+        <f>ROUNDDOWN(K45+J46, 0)</f>
+        <v>2937450</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>56</v>
+      </c>
+      <c r="C47">
+        <v>546823</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="7"/>
+        <v>471596</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="5"/>
+        <v>3409046</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>57</v>
+      </c>
+      <c r="C48">
+        <v>560493</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="7"/>
+        <v>485266</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="5"/>
+        <v>3894312</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>58</v>
+      </c>
+      <c r="C49">
+        <v>574505</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I49">
+        <v>1000000</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="7"/>
+        <v>-500722</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="5"/>
+        <v>3393590</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>59</v>
+      </c>
+      <c r="C50">
+        <v>588868</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I50">
+        <v>720000</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="7"/>
+        <v>-206359</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="5"/>
+        <v>3187231</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="7"/>
+        <v>-75227</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="5"/>
+        <v>3112004</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>61</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="7"/>
+        <v>-75227</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="5"/>
+        <v>3036777</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>62</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I53">
+        <v>720000</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="7"/>
+        <v>-795227</v>
+      </c>
+      <c r="K53" s="1">
+        <f>ROUNDDOWN(K52+J53, 0)</f>
+        <v>2241550</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>63</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I54">
+        <f>ROUNDDOWN(K53*0.2, 0)</f>
+        <v>448310</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="7"/>
+        <v>-523537</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="5"/>
+        <v>1718013</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>64</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I55">
+        <v>13325</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="7"/>
+        <v>-88552</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="5"/>
+        <v>1629461</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>65</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I56">
+        <f>300000+I55</f>
+        <v>313325</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="7"/>
+        <v>-388552</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="5"/>
+        <v>1240909</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>66</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I57">
+        <v>13325</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="7"/>
+        <v>-88552</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="5"/>
+        <v>1152357</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>67</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I58">
+        <v>733325</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="7"/>
+        <v>-808552</v>
+      </c>
+      <c r="K58" s="11">
+        <f>ROUNDDOWN(K57+J58, 0)</f>
+        <v>343805</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>68</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I59">
+        <v>313325</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="7"/>
+        <v>-388552</v>
+      </c>
+      <c r="K59" s="11">
+        <f t="shared" si="2"/>
+        <v>-44747</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>69</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I60">
+        <v>13325</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>-75227</v>
+      </c>
+      <c r="K60" s="11"/>
+      <c r="L60" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>70</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I61">
+        <v>13325</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>-75227</v>
+      </c>
+      <c r="K61" s="11"/>
+      <c r="L61" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC56D9E7-8CB0-440E-8035-579192D8154D}">
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -8486,11 +10343,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507B19AC-821E-4BF3-8060-DA2E83BB31C6}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4AFD69-88CB-2146-9E7A-C876B06DB6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F193FEFA-9B3D-5D43-80DC-69A8721E6637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23880" yWindow="4120" windowWidth="23880" windowHeight="16180" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
+    <workbookView xWindow="-23880" yWindow="2060" windowWidth="23880" windowHeight="16180" activeTab="2" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
     <sheet name="Saving" sheetId="4" r:id="rId2"/>
-    <sheet name="Case_2" sheetId="3" r:id="rId3"/>
-    <sheet name="Wage" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Case_2" sheetId="3" r:id="rId4"/>
+    <sheet name="Wage" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="35">
   <si>
     <t>step</t>
   </si>
@@ -681,9 +682,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AEF988-3009-472E-9717-6E6A120C3C2F}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4684,8 +4685,8 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6510,6 +6511,1970 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D943F4D1-4F94-CD47-B178-12BC34DA6A8A}">
+  <dimension ref="A1:L61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="5" width="3.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>180000</v>
+      </c>
+      <c r="J2">
+        <f>C2-D2-E2-F2-G2-H2</f>
+        <v>180000</v>
+      </c>
+      <c r="K2">
+        <f>J2</f>
+        <v>180000</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>184500</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J61" si="0">C3-D3-E3-F3-G3-H3</f>
+        <v>184500</v>
+      </c>
+      <c r="K3">
+        <f>K2+J3</f>
+        <v>364500</v>
+      </c>
+      <c r="L3" s="3">
+        <f>L2+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <f t="shared" ref="A4:A61" si="1">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>189113</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>189113</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K59" si="2">K3+J4</f>
+        <v>553613</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" ref="L4:L36" si="3">L3+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>193840</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>193840</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>747453</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>198686</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>198686</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>946139</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>203653</v>
+      </c>
+      <c r="G7">
+        <v>18000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>185653</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>1131792</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>208745</v>
+      </c>
+      <c r="G8">
+        <v>18000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>190745</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>1322537</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>213963</v>
+      </c>
+      <c r="G9">
+        <v>18000</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>195963</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>1518500</v>
+      </c>
+      <c r="L9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>219313</v>
+      </c>
+      <c r="G10">
+        <v>18000</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>201313</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>1719813</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>224795</v>
+      </c>
+      <c r="G11">
+        <v>18000</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>206795</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>1926608</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>230415</v>
+      </c>
+      <c r="G12">
+        <v>18000</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>212415</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>2139023</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>236176</v>
+      </c>
+      <c r="G13">
+        <v>18000</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>218176</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>2357199</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>242080</v>
+      </c>
+      <c r="G14">
+        <v>18000</v>
+      </c>
+      <c r="I14">
+        <v>90000</v>
+      </c>
+      <c r="J14">
+        <f>C14-D14-E14-F14-G14-H14-I14</f>
+        <v>134080</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>2491279</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>248132</v>
+      </c>
+      <c r="G15">
+        <v>18000</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>230132</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>2721411</v>
+      </c>
+      <c r="L15" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>254335</v>
+      </c>
+      <c r="G16">
+        <v>18000</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>236335</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>2957746</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>260694</v>
+      </c>
+      <c r="G17">
+        <v>18000</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>242694</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>3200440</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>267211</v>
+      </c>
+      <c r="G18">
+        <v>18000</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>249211</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>3449651</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>273891</v>
+      </c>
+      <c r="F19">
+        <v>18000</v>
+      </c>
+      <c r="G19">
+        <v>18000</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>237891</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>3687542</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>280739</v>
+      </c>
+      <c r="F20">
+        <v>18000</v>
+      </c>
+      <c r="G20">
+        <v>18000</v>
+      </c>
+      <c r="H20">
+        <v>28074</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>216665</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>3904207</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>287757</v>
+      </c>
+      <c r="F21">
+        <v>18000</v>
+      </c>
+      <c r="G21">
+        <v>18000</v>
+      </c>
+      <c r="H21">
+        <v>28074</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>223683</v>
+      </c>
+      <c r="K21" s="25">
+        <f t="shared" si="2"/>
+        <v>4127890</v>
+      </c>
+      <c r="L21" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>294951</v>
+      </c>
+      <c r="F22">
+        <v>18000</v>
+      </c>
+      <c r="G22">
+        <v>18000</v>
+      </c>
+      <c r="H22">
+        <v>28074</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>230877</v>
+      </c>
+      <c r="K22" s="26">
+        <f t="shared" si="2"/>
+        <v>4358767</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>302325</v>
+      </c>
+      <c r="F23">
+        <v>18000</v>
+      </c>
+      <c r="G23">
+        <v>18000</v>
+      </c>
+      <c r="H23">
+        <v>28074</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>238251</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>4597018</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>309883</v>
+      </c>
+      <c r="F24">
+        <v>18000</v>
+      </c>
+      <c r="G24">
+        <v>18000</v>
+      </c>
+      <c r="H24">
+        <v>28074</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>245809</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>4842827</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>317630</v>
+      </c>
+      <c r="F25">
+        <v>18000</v>
+      </c>
+      <c r="G25">
+        <v>18000</v>
+      </c>
+      <c r="H25">
+        <v>28074</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>253556</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>5096383</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>325571</v>
+      </c>
+      <c r="F26">
+        <v>18000</v>
+      </c>
+      <c r="G26">
+        <v>18000</v>
+      </c>
+      <c r="H26">
+        <v>28074</v>
+      </c>
+      <c r="I26">
+        <v>120000</v>
+      </c>
+      <c r="J26">
+        <f>C26-D26-E26-F26-G26-H26-I26</f>
+        <v>141497</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>5237880</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>333710</v>
+      </c>
+      <c r="F27">
+        <v>18000</v>
+      </c>
+      <c r="G27">
+        <v>18000</v>
+      </c>
+      <c r="H27">
+        <v>28074</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>269636</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>5507516</v>
+      </c>
+      <c r="L27" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>342053</v>
+      </c>
+      <c r="F28">
+        <v>18000</v>
+      </c>
+      <c r="G28">
+        <v>18000</v>
+      </c>
+      <c r="H28">
+        <v>28074</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>277979</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>5785495</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>350604</v>
+      </c>
+      <c r="F29">
+        <v>18000</v>
+      </c>
+      <c r="G29">
+        <v>18000</v>
+      </c>
+      <c r="H29">
+        <v>28074</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>286530</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>6072025</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>359369</v>
+      </c>
+      <c r="F30">
+        <v>18000</v>
+      </c>
+      <c r="G30">
+        <v>18000</v>
+      </c>
+      <c r="H30">
+        <v>28074</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>295295</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>6367320</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>41</v>
+      </c>
+      <c r="C31">
+        <v>368353</v>
+      </c>
+      <c r="F31">
+        <v>18000</v>
+      </c>
+      <c r="G31">
+        <v>18000</v>
+      </c>
+      <c r="H31">
+        <v>28074</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>304279</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>6671599</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>42</v>
+      </c>
+      <c r="C32">
+        <v>377562</v>
+      </c>
+      <c r="F32">
+        <v>18000</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>28074</v>
+      </c>
+      <c r="J32">
+        <f>C32-D32-E32-F32-G32-H32+490013</f>
+        <v>821501</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>7493100</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <v>387001</v>
+      </c>
+      <c r="F33">
+        <v>18000</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>28074</v>
+      </c>
+      <c r="J33">
+        <f>C33-D33-E33-F33-G33-H33</f>
+        <v>340927</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>7834027</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>44</v>
+      </c>
+      <c r="C34">
+        <v>396676</v>
+      </c>
+      <c r="F34">
+        <v>18000</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>28074</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>350602</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>8184629</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>406593</v>
+      </c>
+      <c r="F35">
+        <v>18000</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>28074</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>360519</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>8545148</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>416758</v>
+      </c>
+      <c r="F36">
+        <v>18000</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>28074</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>370684</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>8915832</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>18000</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>28074</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>-46074</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>8869758</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>18000</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>28074</v>
+      </c>
+      <c r="I38">
+        <v>300000</v>
+      </c>
+      <c r="J38">
+        <f>C38-D38-E38-F38-G38-H38-I38</f>
+        <v>-346074</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>8523684</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>48</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>18000</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>28074</v>
+      </c>
+      <c r="I39">
+        <v>300000</v>
+      </c>
+      <c r="J39">
+        <f>C39-D39-E39-F39-G39-H39-I39</f>
+        <v>-346074</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>8177610</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>49</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>18000</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>28074</v>
+      </c>
+      <c r="I40">
+        <v>120000</v>
+      </c>
+      <c r="J40">
+        <f>C40-D40-E40-F40-G40-H40-I40</f>
+        <v>-166074</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>8011536</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>50</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>18000</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" ref="H41:H42" si="4">28074+ROUNDUP(471523*10%, 0)</f>
+        <v>75227</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>-93227</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>7918309</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>51</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>18000</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="4"/>
+        <v>75227</v>
+      </c>
+      <c r="I42">
+        <f>K41*0.2</f>
+        <v>1583661.8</v>
+      </c>
+      <c r="J42" s="1">
+        <f>C42-D42-E42-F42-G42-H42-I42</f>
+        <v>-1676888.8</v>
+      </c>
+      <c r="K42" s="1">
+        <f>ROUNDDOWN(K41+J42,0)</f>
+        <v>6241420</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>495394</v>
+      </c>
+      <c r="F43">
+        <v>18000</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <f>28074+ROUNDUP(471523*10%, 0)</f>
+        <v>75227</v>
+      </c>
+      <c r="I43">
+        <v>2000000</v>
+      </c>
+      <c r="J43" s="1">
+        <f>C43-D43-E43-F43-G43-H43-I43</f>
+        <v>-1597833</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" ref="K43:K57" si="5">ROUNDDOWN(K42+J43, 0)</f>
+        <v>4643587</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>507779</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" ref="H44:H61" si="6">H43</f>
+        <v>75227</v>
+      </c>
+      <c r="I44">
+        <f>K43/2</f>
+        <v>2321793.5</v>
+      </c>
+      <c r="J44" s="1">
+        <f>C44-D44-E44-F44-G44-H44-I44</f>
+        <v>-1889241.5</v>
+      </c>
+      <c r="K44" s="1">
+        <f>ROUNDDOWN(K43+J44, 0)</f>
+        <v>2754345</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>54</v>
+      </c>
+      <c r="C45">
+        <v>520474</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I45">
+        <v>1000000</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" ref="J45:J59" si="7">C45-D45-E45-F45-G45-H45-I45</f>
+        <v>-554753</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="5"/>
+        <v>2199592</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="12">
+        <v>55</v>
+      </c>
+      <c r="C46" s="12">
+        <v>533485</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12">
+        <v>0</v>
+      </c>
+      <c r="G46" s="12">
+        <v>0</v>
+      </c>
+      <c r="H46" s="13">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="13">
+        <f t="shared" si="7"/>
+        <v>458258</v>
+      </c>
+      <c r="K46" s="13">
+        <f>ROUNDDOWN(K45+J46, 0)</f>
+        <v>2657850</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>56</v>
+      </c>
+      <c r="C47">
+        <v>546823</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="7"/>
+        <v>471596</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="5"/>
+        <v>3129446</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>57</v>
+      </c>
+      <c r="C48">
+        <v>560493</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="7"/>
+        <v>485266</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="5"/>
+        <v>3614712</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>58</v>
+      </c>
+      <c r="C49">
+        <v>574505</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I49">
+        <v>1000000</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="7"/>
+        <v>-500722</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="5"/>
+        <v>3113990</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>59</v>
+      </c>
+      <c r="C50">
+        <v>588868</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I50">
+        <v>720000</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="7"/>
+        <v>-206359</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="5"/>
+        <v>2907631</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="7"/>
+        <v>-75227</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="5"/>
+        <v>2832404</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>61</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="7"/>
+        <v>-75227</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="5"/>
+        <v>2757177</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>62</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I53">
+        <v>720000</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="7"/>
+        <v>-795227</v>
+      </c>
+      <c r="K53" s="1">
+        <f>ROUNDDOWN(K52+J53, 0)</f>
+        <v>1961950</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>63</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I54">
+        <f>ROUNDDOWN(K53*0.2, 0)</f>
+        <v>392390</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="7"/>
+        <v>-467617</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="5"/>
+        <v>1494333</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>64</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I55">
+        <v>13325</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="7"/>
+        <v>-88552</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="5"/>
+        <v>1405781</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>65</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I56">
+        <f>300000+I55</f>
+        <v>313325</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="7"/>
+        <v>-388552</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="5"/>
+        <v>1017229</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>66</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I57">
+        <v>13325</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="7"/>
+        <v>-88552</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="5"/>
+        <v>928677</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>67</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I58">
+        <v>733325</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="7"/>
+        <v>-808552</v>
+      </c>
+      <c r="K58" s="11">
+        <f>ROUNDDOWN(K57+J58, 0)</f>
+        <v>120125</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>68</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I59">
+        <v>313325</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="7"/>
+        <v>-388552</v>
+      </c>
+      <c r="K59" s="11">
+        <f t="shared" si="2"/>
+        <v>-268427</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>69</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I60">
+        <v>13325</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>-75227</v>
+      </c>
+      <c r="K60" s="11"/>
+      <c r="L60" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>70</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="6"/>
+        <v>75227</v>
+      </c>
+      <c r="I61">
+        <v>13325</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>-75227</v>
+      </c>
+      <c r="K61" s="11"/>
+      <c r="L61" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC56D9E7-8CB0-440E-8035-579192D8154D}">
   <dimension ref="A1:X61"/>
   <sheetViews>
@@ -10343,7 +12308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507B19AC-821E-4BF3-8060-DA2E83BB31C6}">
   <dimension ref="A1:C61"/>
   <sheetViews>

--- a/fc/Case1&2.xlsx
+++ b/fc/Case1&2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongjin/Desktop/Projects/InsuranceGame/fc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFECA488-6B22-274F-A91D-21DF819AA711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F50019-0E24-8249-ADF9-A469F505F435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{93EEACCD-8AF9-48DF-BEAB-81301AC67219}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_1" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8518,9 +8518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D943F4D1-4F94-CD47-B178-12BC34DA6A8A}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8628,7 +8628,7 @@
         <v>189113</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K59" si="2">K3+J4</f>
+        <f t="shared" ref="K4:K41" si="2">K3+J4</f>
         <v>553613</v>
       </c>
       <c r="L4" s="4">
@@ -9833,7 +9833,7 @@
         <v>-1597833</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" ref="K43:K57" si="5">ROUNDDOWN(K42+J43, 0)</f>
+        <f t="shared" ref="K43:K52" si="5">ROUNDDOWN(K42+J43, 0)</f>
         <v>4643587</v>
       </c>
       <c r="L43" s="10" t="s">
@@ -10473,9 +10473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B21F16-4E4B-C24F-AFC6-C269A7672F02}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11059,18 +11059,21 @@
         <v>294951</v>
       </c>
       <c r="G22">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>28074</v>
       </c>
+      <c r="I22">
+        <v>288234</v>
+      </c>
       <c r="J22">
-        <f t="shared" si="0"/>
-        <v>248877</v>
+        <f>C22-D22-E22-F22-G22-H22+I22</f>
+        <v>555111</v>
       </c>
       <c r="K22" s="26">
         <f t="shared" si="2"/>
-        <v>4430767</v>
+        <v>4737001</v>
       </c>
       <c r="L22" s="9">
         <f t="shared" si="3"/>
@@ -11089,18 +11092,18 @@
         <v>302325</v>
       </c>
       <c r="G23">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>28074</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>256251</v>
+        <v>274251</v>
       </c>
       <c r="K23">
         <f t="shared" si="2"/>
-        <v>4687018</v>
+        <v>5011252</v>
       </c>
       <c r="L23" s="5">
         <f t="shared" si="3"/>
@@ -11119,18 +11122,18 @@
         <v>309883</v>
       </c>
       <c r="G24">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>28074</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>263809</v>
+        <v>281809</v>
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>4950827</v>
+        <v>5293061</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="3"/>
@@ -11149,18 +11152,18 @@
         <v>317630</v>
       </c>
       <c r="G25">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>28074</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>271556</v>
+        <v>289556</v>
       </c>
       <c r="K25">
         <f t="shared" si="2"/>
-        <v>5222383</v>
+        <v>5582617</v>
       </c>
       <c r="L25" s="7">
         <f t="shared" si="3"/>
@@ -11179,18 +11182,21 @@
         <v>325571</v>
       </c>
       <c r="G26">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>28074</v>
       </c>
+      <c r="I26">
+        <v>120000</v>
+      </c>
       <c r="J26">
-        <f t="shared" si="0"/>
-        <v>279497</v>
+        <f>C26-D26-E26-F26-G26-H26-I26</f>
+        <v>177497</v>
       </c>
       <c r="K26">
         <f t="shared" si="2"/>
-        <v>5501880</v>
+        <v>5760114</v>
       </c>
       <c r="L26" s="24" t="s">
         <v>33</v>
@@ -11208,18 +11214,18 @@
         <v>333710</v>
       </c>
       <c r="G27">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>28074</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>287636</v>
+        <v>305636</v>
       </c>
       <c r="K27">
         <f t="shared" si="2"/>
-        <v>5789516</v>
+        <v>6065750</v>
       </c>
       <c r="L27" s="3">
         <v>25</v>
@@ -11237,18 +11243,18 @@
         <v>342053</v>
       </c>
       <c r="G28">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>28074</v>
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>295979</v>
+        <v>313979</v>
       </c>
       <c r="K28">
         <f t="shared" si="2"/>
-        <v>6085495</v>
+        <v>6379729</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" si="3"/>
@@ -11267,18 +11273,18 @@
         <v>350604</v>
       </c>
       <c r="G29">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>28074</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>304530</v>
+        <v>322530</v>
       </c>
       <c r="K29">
         <f t="shared" si="2"/>
-        <v>6390025</v>
+        <v>6702259</v>
       </c>
       <c r="L29" s="5">
         <f t="shared" si="3"/>
@@ -11297,18 +11303,18 @@
         <v>359369</v>
       </c>
       <c r="G30">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>28074</v>
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>313295</v>
+        <v>331295</v>
       </c>
       <c r="K30">
         <f t="shared" si="2"/>
-        <v>6703320</v>
+        <v>7033554</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="3"/>
@@ -11327,18 +11333,18 @@
         <v>368353</v>
       </c>
       <c r="G31">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>28074</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>322279</v>
+        <v>340279</v>
       </c>
       <c r="K31">
         <f t="shared" si="2"/>
-        <v>7025599</v>
+        <v>7373833</v>
       </c>
       <c r="L31" s="7">
         <f t="shared" si="3"/>
@@ -11363,12 +11369,12 @@
         <v>28074</v>
       </c>
       <c r="J32">
-        <f>C32-D32-E32-F32-G32-H32+490013</f>
-        <v>839501</v>
+        <f>C32-D32-E32-F32-G32-H32</f>
+        <v>349488</v>
       </c>
       <c r="K32">
         <f t="shared" si="2"/>
-        <v>7865100</v>
+        <v>7723321</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="3"/>
@@ -11398,7 +11404,7 @@
       </c>
       <c r="K33">
         <f t="shared" si="2"/>
-        <v>8224027</v>
+        <v>8082248</v>
       </c>
       <c r="L33" s="9">
         <f t="shared" si="3"/>
@@ -11428,7 +11434,7 @@
       </c>
       <c r="K34">
         <f t="shared" si="2"/>
-        <v>8592629</v>
+        <v>8450850</v>
       </c>
       <c r="L34" s="5">
         <f t="shared" si="3"/>
@@ -11458,7 +11464,7 @@
       </c>
       <c r="K35">
         <f t="shared" si="2"/>
-        <v>8971148</v>
+        <v>8829369</v>
       </c>
       <c r="L35" s="6">
         <f t="shared" si="3"/>
@@ -11488,7 +11494,7 @@
       </c>
       <c r="K36">
         <f t="shared" si="2"/>
-        <v>9359832</v>
+        <v>9218053</v>
       </c>
       <c r="L36" s="7">
         <f t="shared" si="3"/>
@@ -11518,7 +11524,7 @@
       </c>
       <c r="K37">
         <f t="shared" si="2"/>
-        <v>9331758</v>
+        <v>9189979</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>11</v>
@@ -11550,7 +11556,7 @@
       </c>
       <c r="K38">
         <f t="shared" si="2"/>
-        <v>9003684</v>
+        <v>8861905</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>15</v>
@@ -11582,7 +11588,7 @@
       </c>
       <c r="K39">
         <f t="shared" si="2"/>
-        <v>8675610</v>
+        <v>8533831</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>16</v>
@@ -11611,7 +11617,7 @@
       </c>
       <c r="K40">
         <f t="shared" si="2"/>
-        <v>8647536</v>
+        <v>8505757</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>19</v>
@@ -11641,7 +11647,7 @@
       </c>
       <c r="K41">
         <f t="shared" si="2"/>
-        <v>8572309</v>
+        <v>8430530</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>12</v>
@@ -11667,15 +11673,15 @@
       </c>
       <c r="I42">
         <f>K41*0.2</f>
-        <v>1714461.8</v>
+        <v>1686106</v>
       </c>
       <c r="J42" s="1">
         <f>C42-D42-E42-F42-G42-H42-I42</f>
-        <v>-1789688.8</v>
+        <v>-1761333</v>
       </c>
       <c r="K42" s="1">
         <f>ROUNDDOWN(K41+J42,0)</f>
-        <v>6782620</v>
+        <v>6669197</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>14</v>
@@ -11708,7 +11714,7 @@
       </c>
       <c r="K43" s="1">
         <f t="shared" ref="K43:K57" si="5">ROUNDDOWN(K42+J43, 0)</f>
-        <v>5202787</v>
+        <v>5089364</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>13</v>
@@ -11734,15 +11740,15 @@
       </c>
       <c r="I44">
         <f>K43/2</f>
-        <v>2601393.5</v>
+        <v>2544682</v>
       </c>
       <c r="J44" s="1">
         <f>C44-D44-E44-F44-G44-H44-I44</f>
-        <v>-2168841.5</v>
+        <v>-2112130</v>
       </c>
       <c r="K44" s="1">
         <f>ROUNDDOWN(K43+J44, 0)</f>
-        <v>3033945</v>
+        <v>2977234</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>17</v>
@@ -11775,7 +11781,7 @@
       </c>
       <c r="K45" s="1">
         <f t="shared" si="5"/>
-        <v>2479192</v>
+        <v>2422481</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>18</v>
@@ -11809,7 +11815,7 @@
       </c>
       <c r="K46" s="13">
         <f>ROUNDDOWN(K45+J46, 0)</f>
-        <v>2937450</v>
+        <v>2880739</v>
       </c>
       <c r="L46" s="14" t="s">
         <v>10</v>
@@ -11839,7 +11845,7 @@
       </c>
       <c r="K47" s="1">
         <f t="shared" si="5"/>
-        <v>3409046</v>
+        <v>3352335</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>19</v>
@@ -11869,7 +11875,7 @@
       </c>
       <c r="K48" s="1">
         <f t="shared" si="5"/>
-        <v>3894312</v>
+        <v>3837601</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>20</v>
@@ -11902,7 +11908,7 @@
       </c>
       <c r="K49" s="1">
         <f t="shared" si="5"/>
-        <v>3393590</v>
+        <v>3336879</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>18</v>
@@ -11935,7 +11941,7 @@
       </c>
       <c r="K50" s="1">
         <f t="shared" si="5"/>
-        <v>3187231</v>
+        <v>3130520</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>21</v>
@@ -11965,7 +11971,7 @@
       </c>
       <c r="K51" s="1">
         <f t="shared" si="5"/>
-        <v>3112004</v>
+        <v>3055293</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>22</v>
@@ -11995,7 +12001,7 @@
       </c>
       <c r="K52" s="1">
         <f t="shared" si="5"/>
-        <v>3036777</v>
+        <v>2980066</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>20</v>
@@ -12028,7 +12034,7 @@
       </c>
       <c r="K53" s="1">
         <f>ROUNDDOWN(K52+J53, 0)</f>
-        <v>2241550</v>
+        <v>2184839</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>21</v>
@@ -12054,15 +12060,15 @@
       </c>
       <c r="I54">
         <f>ROUNDDOWN(K53*0.2, 0)</f>
-        <v>448310</v>
+        <v>436967</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" si="7"/>
-        <v>-523537</v>
+        <v>-512194</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="5"/>
-        <v>1718013</v>
+        <v>1672645</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>14</v>
@@ -12095,7 +12101,7 @@
       </c>
       <c r="K55" s="1">
         <f t="shared" si="5"/>
-        <v>1629461</v>
+        <v>1584093</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>23</v>
@@ -12129,7 +12135,7 @@
       </c>
       <c r="K56" s="1">
         <f t="shared" si="5"/>
-        <v>1240909</v>
+        <v>1195541</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>15</v>
@@ -12162,7 +12168,7 @@
       </c>
       <c r="K57" s="1">
         <f t="shared" si="5"/>
-        <v>1152357</v>
+        <v>1106989</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>19</v>
@@ -12195,7 +12201,7 @@
       </c>
       <c r="K58" s="11">
         <f>ROUNDDOWN(K57+J58, 0)</f>
-        <v>343805</v>
+        <v>298437</v>
       </c>
       <c r="L58" s="10" t="s">
         <v>21</v>
@@ -12228,7 +12234,7 @@
       </c>
       <c r="K59" s="11">
         <f t="shared" si="2"/>
-        <v>-44747</v>
+        <v>-90115</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>15</v>
